--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>820900</v>
+        <v>708400</v>
       </c>
       <c r="E8" s="3">
-        <v>905200</v>
+        <v>681200</v>
       </c>
       <c r="F8" s="3">
-        <v>767900</v>
+        <v>689200</v>
       </c>
       <c r="G8" s="3">
-        <v>826700</v>
+        <v>760000</v>
       </c>
       <c r="H8" s="3">
-        <v>756700</v>
+        <v>644700</v>
       </c>
       <c r="I8" s="3">
+        <v>694100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>635300</v>
+      </c>
+      <c r="K8" s="3">
         <v>869200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>820400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>777500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>735300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>781800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>707800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>754400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>681200</v>
+        <v>610200</v>
       </c>
       <c r="E9" s="3">
-        <v>705800</v>
+        <v>592800</v>
       </c>
       <c r="F9" s="3">
-        <v>671000</v>
+        <v>571900</v>
       </c>
       <c r="G9" s="3">
-        <v>711600</v>
+        <v>592500</v>
       </c>
       <c r="H9" s="3">
-        <v>694500</v>
+        <v>563300</v>
       </c>
       <c r="I9" s="3">
+        <v>597400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>583100</v>
+      </c>
+      <c r="K9" s="3">
         <v>702700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>647900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>660700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>606800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>594900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>594400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>631100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>139700</v>
+        <v>98200</v>
       </c>
       <c r="E10" s="3">
-        <v>199400</v>
+        <v>88400</v>
       </c>
       <c r="F10" s="3">
-        <v>96900</v>
+        <v>117300</v>
       </c>
       <c r="G10" s="3">
-        <v>115200</v>
+        <v>167400</v>
       </c>
       <c r="H10" s="3">
-        <v>62100</v>
+        <v>81400</v>
       </c>
       <c r="I10" s="3">
+        <v>96700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K10" s="3">
         <v>166500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>172500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>116800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>128500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>186900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>113300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>123200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>757600</v>
+        <v>681200</v>
       </c>
       <c r="E17" s="3">
-        <v>789200</v>
+        <v>667900</v>
       </c>
       <c r="F17" s="3">
-        <v>749900</v>
+        <v>636000</v>
       </c>
       <c r="G17" s="3">
-        <v>800500</v>
+        <v>662600</v>
       </c>
       <c r="H17" s="3">
-        <v>770600</v>
+        <v>629600</v>
       </c>
       <c r="I17" s="3">
+        <v>672100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>647000</v>
+      </c>
+      <c r="K17" s="3">
         <v>780400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>722700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>732500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>675200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>661300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>659700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63400</v>
+        <v>27200</v>
       </c>
       <c r="E18" s="3">
-        <v>116000</v>
+        <v>13300</v>
       </c>
       <c r="F18" s="3">
-        <v>18000</v>
+        <v>53200</v>
       </c>
       <c r="G18" s="3">
-        <v>26200</v>
+        <v>97400</v>
       </c>
       <c r="H18" s="3">
-        <v>-14000</v>
+        <v>15100</v>
       </c>
       <c r="I18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K18" s="3">
         <v>88800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>97700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>45000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>60000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>120500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>48100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>54000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26100</v>
+        <v>111800</v>
       </c>
       <c r="E20" s="3">
-        <v>9900</v>
+        <v>-6000</v>
       </c>
       <c r="F20" s="3">
-        <v>7100</v>
+        <v>21900</v>
       </c>
       <c r="G20" s="3">
-        <v>26000</v>
+        <v>8300</v>
       </c>
       <c r="H20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>33700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>28100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>18600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106800</v>
+        <v>158500</v>
       </c>
       <c r="E21" s="3">
-        <v>143000</v>
+        <v>35500</v>
       </c>
       <c r="F21" s="3">
-        <v>42200</v>
+        <v>89700</v>
       </c>
       <c r="G21" s="3">
-        <v>67800</v>
+        <v>120100</v>
       </c>
       <c r="H21" s="3">
-        <v>4400</v>
+        <v>35400</v>
       </c>
       <c r="I21" s="3">
+        <v>56900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K21" s="3">
         <v>138300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>112500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>86200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>87900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>141800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>61000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>84400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>2600</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85100</v>
+        <v>136400</v>
       </c>
       <c r="E23" s="3">
-        <v>120900</v>
+        <v>4700</v>
       </c>
       <c r="F23" s="3">
-        <v>22000</v>
+        <v>71500</v>
       </c>
       <c r="G23" s="3">
-        <v>47900</v>
+        <v>101500</v>
       </c>
       <c r="H23" s="3">
-        <v>-17400</v>
+        <v>18500</v>
       </c>
       <c r="I23" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K23" s="3">
         <v>118900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>92700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>72300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>70000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>125500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>71400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25400</v>
+        <v>38700</v>
       </c>
       <c r="E24" s="3">
-        <v>35600</v>
+        <v>-5500</v>
       </c>
       <c r="F24" s="3">
-        <v>5800</v>
+        <v>21400</v>
       </c>
       <c r="G24" s="3">
-        <v>9800</v>
+        <v>29900</v>
       </c>
       <c r="H24" s="3">
-        <v>-7300</v>
+        <v>4900</v>
       </c>
       <c r="I24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K24" s="3">
         <v>34400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>18400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>36400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>20200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59700</v>
+        <v>97700</v>
       </c>
       <c r="E26" s="3">
-        <v>85300</v>
+        <v>10100</v>
       </c>
       <c r="F26" s="3">
-        <v>16200</v>
+        <v>50100</v>
       </c>
       <c r="G26" s="3">
-        <v>38100</v>
+        <v>71700</v>
       </c>
       <c r="H26" s="3">
-        <v>-10000</v>
+        <v>13600</v>
       </c>
       <c r="I26" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K26" s="3">
         <v>84500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>67600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>81800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>51600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>89100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>33800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>51200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>59600</v>
+        <v>97500</v>
       </c>
       <c r="E27" s="3">
-        <v>85200</v>
+        <v>9900</v>
       </c>
       <c r="F27" s="3">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="G27" s="3">
-        <v>38000</v>
+        <v>71500</v>
       </c>
       <c r="H27" s="3">
-        <v>-10200</v>
+        <v>13400</v>
       </c>
       <c r="I27" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K27" s="3">
         <v>84400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>67300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>81700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>51500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>89000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>33700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>51300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26100</v>
+        <v>-111800</v>
       </c>
       <c r="E32" s="3">
-        <v>-9900</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7100</v>
+        <v>-21900</v>
       </c>
       <c r="G32" s="3">
-        <v>-26000</v>
+        <v>-8300</v>
       </c>
       <c r="H32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-33700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-28100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-18600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59600</v>
+        <v>97500</v>
       </c>
       <c r="E33" s="3">
-        <v>85200</v>
+        <v>9900</v>
       </c>
       <c r="F33" s="3">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="G33" s="3">
-        <v>38000</v>
+        <v>71500</v>
       </c>
       <c r="H33" s="3">
-        <v>-10200</v>
+        <v>13400</v>
       </c>
       <c r="I33" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K33" s="3">
         <v>84400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>67300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>81700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>51500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>89000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>33700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>51300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59600</v>
+        <v>97500</v>
       </c>
       <c r="E35" s="3">
-        <v>85200</v>
+        <v>9900</v>
       </c>
       <c r="F35" s="3">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="G35" s="3">
-        <v>38000</v>
+        <v>71500</v>
       </c>
       <c r="H35" s="3">
-        <v>-10200</v>
+        <v>13400</v>
       </c>
       <c r="I35" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K35" s="3">
         <v>84400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>67300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>81700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>51500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>89000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>33700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>51300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,272 +2138,310 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>977600</v>
+        <v>937700</v>
       </c>
       <c r="E41" s="3">
-        <v>992600</v>
+        <v>840000</v>
       </c>
       <c r="F41" s="3">
-        <v>868100</v>
+        <v>820800</v>
       </c>
       <c r="G41" s="3">
-        <v>959700</v>
+        <v>833400</v>
       </c>
       <c r="H41" s="3">
-        <v>921400</v>
+        <v>728900</v>
       </c>
       <c r="I41" s="3">
+        <v>805800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>773600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1015900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>957300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>891700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>814400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>869700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>797000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>779600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="E42" s="3">
+        <v>22600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>29500</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>24800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>58300</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>58300</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>51500</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>51500</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>233300</v>
+        <v>212400</v>
       </c>
       <c r="E43" s="3">
-        <v>261800</v>
+        <v>174700</v>
       </c>
       <c r="F43" s="3">
-        <v>210000</v>
+        <v>195900</v>
       </c>
       <c r="G43" s="3">
-        <v>186900</v>
+        <v>219800</v>
       </c>
       <c r="H43" s="3">
-        <v>191800</v>
+        <v>176300</v>
       </c>
       <c r="I43" s="3">
+        <v>156900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>161100</v>
+      </c>
+      <c r="K43" s="3">
         <v>173100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>184800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>378200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>161600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>154200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>172900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>369800</v>
+        <v>354300</v>
       </c>
       <c r="E44" s="3">
-        <v>330600</v>
+        <v>304000</v>
       </c>
       <c r="F44" s="3">
-        <v>335600</v>
+        <v>310500</v>
       </c>
       <c r="G44" s="3">
-        <v>356500</v>
+        <v>277500</v>
       </c>
       <c r="H44" s="3">
-        <v>247600</v>
+        <v>281700</v>
       </c>
       <c r="I44" s="3">
+        <v>299300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>207900</v>
+      </c>
+      <c r="K44" s="3">
         <v>375300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>327600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>344900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>339800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>330800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>287300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>315000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64500</v>
+        <v>36700</v>
       </c>
       <c r="E45" s="3">
-        <v>46200</v>
+        <v>58400</v>
       </c>
       <c r="F45" s="3">
-        <v>40900</v>
+        <v>54200</v>
       </c>
       <c r="G45" s="3">
-        <v>63700</v>
+        <v>38800</v>
       </c>
       <c r="H45" s="3">
-        <v>171100</v>
+        <v>34300</v>
       </c>
       <c r="I45" s="3">
+        <v>53400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>143700</v>
+      </c>
+      <c r="K45" s="3">
         <v>48700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>43300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>164900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>108800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>110500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>76600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>83300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1645200</v>
+        <v>1541200</v>
       </c>
       <c r="E46" s="3">
-        <v>1631200</v>
+        <v>1399700</v>
       </c>
       <c r="F46" s="3">
-        <v>1454600</v>
+        <v>1381300</v>
       </c>
       <c r="G46" s="3">
-        <v>1596200</v>
+        <v>1369500</v>
       </c>
       <c r="H46" s="3">
-        <v>1532000</v>
+        <v>1221200</v>
       </c>
       <c r="I46" s="3">
+        <v>1340200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1286200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1612900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1513000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1459800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1424600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1465200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1333800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1430000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1129700</v>
+        <v>995700</v>
       </c>
       <c r="E48" s="3">
-        <v>1116800</v>
+        <v>954100</v>
       </c>
       <c r="F48" s="3">
-        <v>1111400</v>
+        <v>948500</v>
       </c>
       <c r="G48" s="3">
-        <v>1058300</v>
+        <v>937700</v>
       </c>
       <c r="H48" s="3">
-        <v>1031900</v>
+        <v>933100</v>
       </c>
       <c r="I48" s="3">
+        <v>888500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>866300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1032100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1003900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>979400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>951400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>870000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>866800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>889400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135900</v>
+        <v>129000</v>
       </c>
       <c r="E49" s="3">
-        <v>133700</v>
+        <v>105800</v>
       </c>
       <c r="F49" s="3">
-        <v>135900</v>
+        <v>114100</v>
       </c>
       <c r="G49" s="3">
-        <v>138400</v>
+        <v>112200</v>
       </c>
       <c r="H49" s="3">
-        <v>134500</v>
+        <v>114100</v>
       </c>
       <c r="I49" s="3">
+        <v>116200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K49" s="3">
         <v>142700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>133500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>138200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>80800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>23900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>24200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>25700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61800</v>
+        <v>39000</v>
       </c>
       <c r="E52" s="3">
-        <v>57600</v>
+        <v>47500</v>
       </c>
       <c r="F52" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="G52" s="3">
-        <v>41300</v>
+        <v>48300</v>
       </c>
       <c r="H52" s="3">
-        <v>39900</v>
+        <v>43500</v>
       </c>
       <c r="I52" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K52" s="3">
         <v>42200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>40500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>70700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>81700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>50900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>60400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>49100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2972700</v>
+        <v>2704900</v>
       </c>
       <c r="E54" s="3">
-        <v>2939200</v>
+        <v>2507200</v>
       </c>
       <c r="F54" s="3">
-        <v>2753700</v>
+        <v>2495800</v>
       </c>
       <c r="G54" s="3">
-        <v>2834100</v>
+        <v>2467700</v>
       </c>
       <c r="H54" s="3">
-        <v>2738200</v>
+        <v>2311900</v>
       </c>
       <c r="I54" s="3">
+        <v>2379500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2299000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2829900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2691000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2614800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2538500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2410000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2285100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2394300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>186500</v>
+        <v>220900</v>
       </c>
       <c r="E57" s="3">
-        <v>190500</v>
+        <v>178800</v>
       </c>
       <c r="F57" s="3">
-        <v>164900</v>
+        <v>156600</v>
       </c>
       <c r="G57" s="3">
-        <v>214200</v>
+        <v>160000</v>
       </c>
       <c r="H57" s="3">
-        <v>178500</v>
+        <v>138400</v>
       </c>
       <c r="I57" s="3">
+        <v>179900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>149900</v>
+      </c>
+      <c r="K57" s="3">
         <v>200900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>173900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>193400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>227800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>216400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>173100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>193600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188400</v>
+        <v>129100</v>
       </c>
       <c r="E58" s="3">
-        <v>184400</v>
+        <v>165000</v>
       </c>
       <c r="F58" s="3">
-        <v>119400</v>
+        <v>158200</v>
       </c>
       <c r="G58" s="3">
-        <v>195200</v>
+        <v>154800</v>
       </c>
       <c r="H58" s="3">
+        <v>100300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>163900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>179700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>177400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>385400</v>
+      </c>
+      <c r="N58" s="3">
+        <v>176100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>189200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>176500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>174600</v>
       </c>
-      <c r="I58" s="3">
-        <v>179700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>177400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>385400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>176100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>189200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>176500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>174600</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67600</v>
+        <v>54200</v>
       </c>
       <c r="E59" s="3">
-        <v>117200</v>
+        <v>57100</v>
       </c>
       <c r="F59" s="3">
-        <v>59300</v>
+        <v>56700</v>
       </c>
       <c r="G59" s="3">
-        <v>77700</v>
+        <v>98400</v>
       </c>
       <c r="H59" s="3">
-        <v>78100</v>
+        <v>49800</v>
       </c>
       <c r="I59" s="3">
+        <v>65200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K59" s="3">
         <v>109900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>65800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>145200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>81900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>87600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>46200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>73400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>442500</v>
+        <v>404100</v>
       </c>
       <c r="E60" s="3">
-        <v>492200</v>
+        <v>401000</v>
       </c>
       <c r="F60" s="3">
-        <v>343600</v>
+        <v>371500</v>
       </c>
       <c r="G60" s="3">
-        <v>487000</v>
+        <v>413300</v>
       </c>
       <c r="H60" s="3">
-        <v>431200</v>
+        <v>288500</v>
       </c>
       <c r="I60" s="3">
+        <v>408900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>362100</v>
+      </c>
+      <c r="K60" s="3">
         <v>490500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>417100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>475100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>485800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>493100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>395800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>441600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128600</v>
+        <v>109800</v>
       </c>
       <c r="E61" s="3">
-        <v>131800</v>
+        <v>96400</v>
       </c>
       <c r="F61" s="3">
-        <v>131000</v>
+        <v>107900</v>
       </c>
       <c r="G61" s="3">
-        <v>82800</v>
+        <v>110600</v>
       </c>
       <c r="H61" s="3">
-        <v>82900</v>
+        <v>110000</v>
       </c>
       <c r="I61" s="3">
+        <v>69500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K61" s="3">
         <v>83300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>83300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>80400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>80400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>25900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>50500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>239000</v>
+        <v>228400</v>
       </c>
       <c r="E62" s="3">
-        <v>219200</v>
+        <v>197700</v>
       </c>
       <c r="F62" s="3">
-        <v>219500</v>
+        <v>200700</v>
       </c>
       <c r="G62" s="3">
-        <v>218200</v>
+        <v>184000</v>
       </c>
       <c r="H62" s="3">
-        <v>228500</v>
+        <v>184300</v>
       </c>
       <c r="I62" s="3">
+        <v>183200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K62" s="3">
         <v>231500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>230100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>227200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>223000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>218800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>212100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>218100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>814300</v>
+        <v>746200</v>
       </c>
       <c r="E66" s="3">
-        <v>847200</v>
+        <v>698700</v>
       </c>
       <c r="F66" s="3">
-        <v>698100</v>
+        <v>683700</v>
       </c>
       <c r="G66" s="3">
-        <v>791800</v>
+        <v>711300</v>
       </c>
       <c r="H66" s="3">
-        <v>746300</v>
+        <v>586100</v>
       </c>
       <c r="I66" s="3">
+        <v>664800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>626600</v>
+      </c>
+      <c r="K66" s="3">
         <v>808900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>733900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>772600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>792200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>720000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>636600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>713000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2011400</v>
+        <v>1795500</v>
       </c>
       <c r="E72" s="3">
-        <v>1951900</v>
+        <v>1698400</v>
       </c>
       <c r="F72" s="3">
-        <v>1911700</v>
+        <v>1688800</v>
       </c>
       <c r="G72" s="3">
-        <v>1895300</v>
+        <v>1638700</v>
       </c>
       <c r="H72" s="3">
-        <v>1857600</v>
+        <v>1605000</v>
       </c>
       <c r="I72" s="3">
+        <v>1591300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1559600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1867800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1829000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1725100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1622300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1566500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1517800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1523700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2158400</v>
+        <v>1958700</v>
       </c>
       <c r="E76" s="3">
-        <v>2092000</v>
+        <v>1808500</v>
       </c>
       <c r="F76" s="3">
-        <v>2055600</v>
+        <v>1812200</v>
       </c>
       <c r="G76" s="3">
-        <v>2042300</v>
+        <v>1756400</v>
       </c>
       <c r="H76" s="3">
-        <v>1991900</v>
+        <v>1725800</v>
       </c>
       <c r="I76" s="3">
+        <v>1714700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1672400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2021000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1957000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1842200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1746300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1690000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1648500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1681300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59600</v>
+        <v>97500</v>
       </c>
       <c r="E81" s="3">
-        <v>85200</v>
+        <v>9900</v>
       </c>
       <c r="F81" s="3">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="G81" s="3">
-        <v>38000</v>
+        <v>71500</v>
       </c>
       <c r="H81" s="3">
-        <v>-10200</v>
+        <v>13400</v>
       </c>
       <c r="I81" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K81" s="3">
         <v>84400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>67300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>81700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>51500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>89000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>33700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>51300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17400</v>
+        <v>19500</v>
       </c>
       <c r="E83" s="3">
-        <v>17100</v>
+        <v>28200</v>
       </c>
       <c r="F83" s="3">
-        <v>17100</v>
+        <v>14600</v>
       </c>
       <c r="G83" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="H83" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="I83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K83" s="3">
         <v>15900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21500</v>
+        <v>112200</v>
       </c>
       <c r="E89" s="3">
-        <v>91400</v>
+        <v>86300</v>
       </c>
       <c r="F89" s="3">
-        <v>-40100</v>
+        <v>18000</v>
       </c>
       <c r="G89" s="3">
-        <v>89400</v>
+        <v>76800</v>
       </c>
       <c r="H89" s="3">
-        <v>-41600</v>
+        <v>-33700</v>
       </c>
       <c r="I89" s="3">
+        <v>75100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K89" s="3">
         <v>69800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>70300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>50800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>78900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>118500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>35200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>63200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25600</v>
+        <v>-13200</v>
       </c>
       <c r="E91" s="3">
-        <v>-22300</v>
+        <v>-40400</v>
       </c>
       <c r="F91" s="3">
-        <v>-21900</v>
+        <v>-21500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34800</v>
+        <v>-18700</v>
       </c>
       <c r="H91" s="3">
-        <v>-29400</v>
+        <v>-18400</v>
       </c>
       <c r="I91" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>42000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-95400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-33300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-199500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-9800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4700</v>
+        <v>-16000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5400</v>
+        <v>-17800</v>
       </c>
       <c r="G94" s="3">
-        <v>1900</v>
+        <v>-4000</v>
       </c>
       <c r="H94" s="3">
-        <v>-12000</v>
+        <v>-4500</v>
       </c>
       <c r="I94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-169700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-20300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-23800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-18900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-22800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-19200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-20200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35500</v>
+        <v>-49400</v>
       </c>
       <c r="E100" s="3">
-        <v>40800</v>
+        <v>-10200</v>
       </c>
       <c r="F100" s="3">
-        <v>-71800</v>
+        <v>-29800</v>
       </c>
       <c r="G100" s="3">
+        <v>34200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>35000</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-6600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-23800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>6100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>35000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20200</v>
+        <v>22200</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-16100</v>
       </c>
       <c r="F101" s="3">
-        <v>-3800</v>
+        <v>17000</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>-2500</v>
       </c>
       <c r="H101" s="3">
-        <v>-17100</v>
+        <v>-3200</v>
       </c>
       <c r="I101" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K101" s="3">
         <v>23400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-19800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>9600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-22800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15000</v>
+        <v>75100</v>
       </c>
       <c r="E102" s="3">
-        <v>124400</v>
+        <v>44000</v>
       </c>
       <c r="F102" s="3">
-        <v>-121100</v>
+        <v>-12600</v>
       </c>
       <c r="G102" s="3">
-        <v>100100</v>
+        <v>104500</v>
       </c>
       <c r="H102" s="3">
-        <v>-94500</v>
+        <v>-101700</v>
       </c>
       <c r="I102" s="3">
+        <v>84000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="K102" s="3">
         <v>58500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>68900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-55300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>72700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-12500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>34200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>708400</v>
+        <v>749300</v>
       </c>
       <c r="E8" s="3">
-        <v>681200</v>
+        <v>717700</v>
       </c>
       <c r="F8" s="3">
-        <v>689200</v>
+        <v>690100</v>
       </c>
       <c r="G8" s="3">
-        <v>760000</v>
+        <v>698300</v>
       </c>
       <c r="H8" s="3">
-        <v>644700</v>
+        <v>769900</v>
       </c>
       <c r="I8" s="3">
-        <v>694100</v>
+        <v>653200</v>
       </c>
       <c r="J8" s="3">
+        <v>703200</v>
+      </c>
+      <c r="K8" s="3">
         <v>635300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>869200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>820400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>777500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>735300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>781800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>707800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>754400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>610200</v>
+        <v>664600</v>
       </c>
       <c r="E9" s="3">
-        <v>592800</v>
+        <v>618200</v>
       </c>
       <c r="F9" s="3">
-        <v>571900</v>
+        <v>600600</v>
       </c>
       <c r="G9" s="3">
-        <v>592500</v>
+        <v>579400</v>
       </c>
       <c r="H9" s="3">
-        <v>563300</v>
+        <v>600300</v>
       </c>
       <c r="I9" s="3">
-        <v>597400</v>
+        <v>570700</v>
       </c>
       <c r="J9" s="3">
+        <v>605200</v>
+      </c>
+      <c r="K9" s="3">
         <v>583100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>702700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>647900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>660700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>606800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>594900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>594400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>631100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>98200</v>
+        <v>84700</v>
       </c>
       <c r="E10" s="3">
-        <v>88400</v>
+        <v>99500</v>
       </c>
       <c r="F10" s="3">
-        <v>117300</v>
+        <v>89600</v>
       </c>
       <c r="G10" s="3">
-        <v>167400</v>
+        <v>118900</v>
       </c>
       <c r="H10" s="3">
-        <v>81400</v>
+        <v>169600</v>
       </c>
       <c r="I10" s="3">
-        <v>96700</v>
+        <v>82400</v>
       </c>
       <c r="J10" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K10" s="3">
         <v>52200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>166500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>172500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>128500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>186900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>113300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>123200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>681200</v>
+        <v>745500</v>
       </c>
       <c r="E17" s="3">
-        <v>667900</v>
+        <v>690100</v>
       </c>
       <c r="F17" s="3">
-        <v>636000</v>
+        <v>676600</v>
       </c>
       <c r="G17" s="3">
-        <v>662600</v>
+        <v>644400</v>
       </c>
       <c r="H17" s="3">
-        <v>629600</v>
+        <v>671200</v>
       </c>
       <c r="I17" s="3">
-        <v>672100</v>
+        <v>637900</v>
       </c>
       <c r="J17" s="3">
+        <v>680900</v>
+      </c>
+      <c r="K17" s="3">
         <v>647000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>780400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>722700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>732500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>675200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>661300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>659700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27200</v>
+        <v>3800</v>
       </c>
       <c r="E18" s="3">
-        <v>13300</v>
+        <v>27500</v>
       </c>
       <c r="F18" s="3">
-        <v>53200</v>
+        <v>13500</v>
       </c>
       <c r="G18" s="3">
-        <v>97400</v>
+        <v>53900</v>
       </c>
       <c r="H18" s="3">
-        <v>15100</v>
+        <v>98700</v>
       </c>
       <c r="I18" s="3">
-        <v>22000</v>
+        <v>15300</v>
       </c>
       <c r="J18" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>120500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>54000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>111800</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6000</v>
+        <v>113200</v>
       </c>
       <c r="F20" s="3">
-        <v>21900</v>
+        <v>-6100</v>
       </c>
       <c r="G20" s="3">
-        <v>8300</v>
+        <v>22200</v>
       </c>
       <c r="H20" s="3">
-        <v>5900</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
-        <v>21800</v>
+        <v>6000</v>
       </c>
       <c r="J20" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>158500</v>
+        <v>22000</v>
       </c>
       <c r="E21" s="3">
-        <v>35500</v>
+        <v>160500</v>
       </c>
       <c r="F21" s="3">
-        <v>89700</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="3">
-        <v>120100</v>
+        <v>90900</v>
       </c>
       <c r="H21" s="3">
-        <v>35400</v>
+        <v>121600</v>
       </c>
       <c r="I21" s="3">
-        <v>56900</v>
+        <v>35900</v>
       </c>
       <c r="J21" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>138300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>87900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>141800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>61000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>84400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>136400</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
+        <v>138200</v>
+      </c>
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
-        <v>71500</v>
-      </c>
       <c r="G23" s="3">
-        <v>101500</v>
+        <v>72400</v>
       </c>
       <c r="H23" s="3">
-        <v>18500</v>
+        <v>102800</v>
       </c>
       <c r="I23" s="3">
-        <v>40200</v>
+        <v>18700</v>
       </c>
       <c r="J23" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>118900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>70000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>125500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>71400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38700</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5500</v>
       </c>
-      <c r="F24" s="3">
-        <v>21400</v>
-      </c>
       <c r="G24" s="3">
-        <v>29900</v>
+        <v>21600</v>
       </c>
       <c r="H24" s="3">
-        <v>4900</v>
+        <v>30300</v>
       </c>
       <c r="I24" s="3">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>97700</v>
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
-        <v>10100</v>
+        <v>99000</v>
       </c>
       <c r="F26" s="3">
-        <v>50100</v>
+        <v>10300</v>
       </c>
       <c r="G26" s="3">
-        <v>71700</v>
+        <v>50800</v>
       </c>
       <c r="H26" s="3">
-        <v>13600</v>
+        <v>72600</v>
       </c>
       <c r="I26" s="3">
-        <v>32000</v>
+        <v>13800</v>
       </c>
       <c r="J26" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>89100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>51200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>97500</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
-        <v>9900</v>
+        <v>98800</v>
       </c>
       <c r="F27" s="3">
-        <v>50000</v>
+        <v>10100</v>
       </c>
       <c r="G27" s="3">
-        <v>71500</v>
+        <v>50700</v>
       </c>
       <c r="H27" s="3">
-        <v>13400</v>
+        <v>72500</v>
       </c>
       <c r="I27" s="3">
-        <v>31900</v>
+        <v>13600</v>
       </c>
       <c r="J27" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>89000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>33700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-111800</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
-        <v>6000</v>
+        <v>-113200</v>
       </c>
       <c r="F32" s="3">
-        <v>-21900</v>
+        <v>6100</v>
       </c>
       <c r="G32" s="3">
-        <v>-8300</v>
+        <v>-22200</v>
       </c>
       <c r="H32" s="3">
-        <v>-5900</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
-        <v>-21800</v>
+        <v>-6000</v>
       </c>
       <c r="J32" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>97500</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
-        <v>9900</v>
+        <v>98800</v>
       </c>
       <c r="F33" s="3">
-        <v>50000</v>
+        <v>10100</v>
       </c>
       <c r="G33" s="3">
-        <v>71500</v>
+        <v>50700</v>
       </c>
       <c r="H33" s="3">
-        <v>13400</v>
+        <v>72500</v>
       </c>
       <c r="I33" s="3">
-        <v>31900</v>
+        <v>13600</v>
       </c>
       <c r="J33" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>84400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>89000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>33700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>97500</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
-        <v>9900</v>
+        <v>98800</v>
       </c>
       <c r="F35" s="3">
-        <v>50000</v>
+        <v>10100</v>
       </c>
       <c r="G35" s="3">
-        <v>71500</v>
+        <v>50700</v>
       </c>
       <c r="H35" s="3">
-        <v>13400</v>
+        <v>72500</v>
       </c>
       <c r="I35" s="3">
-        <v>31900</v>
+        <v>13600</v>
       </c>
       <c r="J35" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>84400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>89000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>33700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,69 +2226,73 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>937700</v>
+        <v>810300</v>
       </c>
       <c r="E41" s="3">
-        <v>840000</v>
+        <v>950000</v>
       </c>
       <c r="F41" s="3">
-        <v>820800</v>
+        <v>851000</v>
       </c>
       <c r="G41" s="3">
-        <v>833400</v>
+        <v>831500</v>
       </c>
       <c r="H41" s="3">
-        <v>728900</v>
+        <v>844300</v>
       </c>
       <c r="I41" s="3">
-        <v>805800</v>
+        <v>738400</v>
       </c>
       <c r="J41" s="3">
+        <v>816300</v>
+      </c>
+      <c r="K41" s="3">
         <v>773600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1015900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>957300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>891700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>814400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>869700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>797000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>779600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>22900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2210,11 +2300,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>24800</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>25100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2222,11 +2312,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>58300</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2234,214 +2324,229 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>51500</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>212400</v>
+        <v>222300</v>
       </c>
       <c r="E43" s="3">
-        <v>174700</v>
+        <v>215200</v>
       </c>
       <c r="F43" s="3">
-        <v>195900</v>
+        <v>177000</v>
       </c>
       <c r="G43" s="3">
-        <v>219800</v>
+        <v>198500</v>
       </c>
       <c r="H43" s="3">
-        <v>176300</v>
+        <v>222700</v>
       </c>
       <c r="I43" s="3">
-        <v>156900</v>
+        <v>178600</v>
       </c>
       <c r="J43" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K43" s="3">
         <v>161100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>173100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>184800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>378200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>161600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>154200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>172900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>354300</v>
+        <v>396000</v>
       </c>
       <c r="E44" s="3">
-        <v>304000</v>
+        <v>359000</v>
       </c>
       <c r="F44" s="3">
-        <v>310500</v>
+        <v>308000</v>
       </c>
       <c r="G44" s="3">
-        <v>277500</v>
+        <v>314500</v>
       </c>
       <c r="H44" s="3">
-        <v>281700</v>
+        <v>281200</v>
       </c>
       <c r="I44" s="3">
-        <v>299300</v>
+        <v>285400</v>
       </c>
       <c r="J44" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K44" s="3">
         <v>207900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>375300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>327600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>344900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>339800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>330800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>287300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>315000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36700</v>
+        <v>51300</v>
       </c>
       <c r="E45" s="3">
-        <v>58400</v>
+        <v>37200</v>
       </c>
       <c r="F45" s="3">
+        <v>59200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>54900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>34800</v>
+      </c>
+      <c r="J45" s="3">
         <v>54200</v>
       </c>
-      <c r="G45" s="3">
-        <v>38800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>53400</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>143700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>164900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>110500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>83300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1541200</v>
+        <v>1480000</v>
       </c>
       <c r="E46" s="3">
-        <v>1399700</v>
+        <v>1561400</v>
       </c>
       <c r="F46" s="3">
-        <v>1381300</v>
+        <v>1418000</v>
       </c>
       <c r="G46" s="3">
-        <v>1369500</v>
+        <v>1399400</v>
       </c>
       <c r="H46" s="3">
-        <v>1221200</v>
+        <v>1387400</v>
       </c>
       <c r="I46" s="3">
-        <v>1340200</v>
+        <v>1237200</v>
       </c>
       <c r="J46" s="3">
+        <v>1357700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1286200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1612900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1513000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1459800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1424600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1465200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1333800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1430000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>995700</v>
+        <v>1004300</v>
       </c>
       <c r="E48" s="3">
-        <v>954100</v>
+        <v>1008700</v>
       </c>
       <c r="F48" s="3">
-        <v>948500</v>
+        <v>966600</v>
       </c>
       <c r="G48" s="3">
-        <v>937700</v>
+        <v>960900</v>
       </c>
       <c r="H48" s="3">
-        <v>933100</v>
+        <v>950000</v>
       </c>
       <c r="I48" s="3">
-        <v>888500</v>
+        <v>945400</v>
       </c>
       <c r="J48" s="3">
+        <v>900100</v>
+      </c>
+      <c r="K48" s="3">
         <v>866300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1032100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1003900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>979400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>951400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>870000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>866800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>889400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>129000</v>
+        <v>125700</v>
       </c>
       <c r="E49" s="3">
-        <v>105800</v>
+        <v>130700</v>
       </c>
       <c r="F49" s="3">
-        <v>114100</v>
+        <v>107200</v>
       </c>
       <c r="G49" s="3">
-        <v>112200</v>
+        <v>115600</v>
       </c>
       <c r="H49" s="3">
-        <v>114100</v>
+        <v>113700</v>
       </c>
       <c r="I49" s="3">
-        <v>116200</v>
+        <v>115600</v>
       </c>
       <c r="J49" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K49" s="3">
         <v>112900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>142700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>133500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>138200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>25700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39000</v>
+        <v>52500</v>
       </c>
       <c r="E52" s="3">
-        <v>47500</v>
+        <v>39500</v>
       </c>
       <c r="F52" s="3">
-        <v>51900</v>
+        <v>48100</v>
       </c>
       <c r="G52" s="3">
-        <v>48300</v>
+        <v>52500</v>
       </c>
       <c r="H52" s="3">
-        <v>43500</v>
+        <v>49000</v>
       </c>
       <c r="I52" s="3">
-        <v>34600</v>
+        <v>44100</v>
       </c>
       <c r="J52" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K52" s="3">
         <v>33500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>70700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>60400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>49100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2704900</v>
+        <v>2662500</v>
       </c>
       <c r="E54" s="3">
-        <v>2507200</v>
+        <v>2740300</v>
       </c>
       <c r="F54" s="3">
-        <v>2495800</v>
+        <v>2540000</v>
       </c>
       <c r="G54" s="3">
-        <v>2467700</v>
+        <v>2528500</v>
       </c>
       <c r="H54" s="3">
-        <v>2311900</v>
+        <v>2500100</v>
       </c>
       <c r="I54" s="3">
-        <v>2379500</v>
+        <v>2342200</v>
       </c>
       <c r="J54" s="3">
+        <v>2410700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2299000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2829900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2691000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2614800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2538500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2410000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2285100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2394300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>220900</v>
+        <v>245800</v>
       </c>
       <c r="E57" s="3">
-        <v>178800</v>
+        <v>223800</v>
       </c>
       <c r="F57" s="3">
-        <v>156600</v>
+        <v>181100</v>
       </c>
       <c r="G57" s="3">
-        <v>160000</v>
+        <v>158600</v>
       </c>
       <c r="H57" s="3">
-        <v>138400</v>
+        <v>162100</v>
       </c>
       <c r="I57" s="3">
-        <v>179900</v>
+        <v>140300</v>
       </c>
       <c r="J57" s="3">
+        <v>182200</v>
+      </c>
+      <c r="K57" s="3">
         <v>149900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>173900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>193400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>227800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>216400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>173100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>193600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129100</v>
+        <v>57500</v>
       </c>
       <c r="E58" s="3">
-        <v>165000</v>
+        <v>130700</v>
       </c>
       <c r="F58" s="3">
-        <v>158200</v>
+        <v>167200</v>
       </c>
       <c r="G58" s="3">
-        <v>154800</v>
+        <v>160300</v>
       </c>
       <c r="H58" s="3">
-        <v>100300</v>
+        <v>156900</v>
       </c>
       <c r="I58" s="3">
-        <v>163900</v>
+        <v>101600</v>
       </c>
       <c r="J58" s="3">
+        <v>166000</v>
+      </c>
+      <c r="K58" s="3">
         <v>146600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>179700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>177400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>385400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>176100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>189200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>176500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>174600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54200</v>
+        <v>75500</v>
       </c>
       <c r="E59" s="3">
-        <v>57100</v>
+        <v>54900</v>
       </c>
       <c r="F59" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="G59" s="3">
-        <v>98400</v>
+        <v>57500</v>
       </c>
       <c r="H59" s="3">
-        <v>49800</v>
+        <v>99700</v>
       </c>
       <c r="I59" s="3">
-        <v>65200</v>
+        <v>50400</v>
       </c>
       <c r="J59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K59" s="3">
         <v>65600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>145200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>87600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>404100</v>
+        <v>378800</v>
       </c>
       <c r="E60" s="3">
-        <v>401000</v>
+        <v>409400</v>
       </c>
       <c r="F60" s="3">
-        <v>371500</v>
+        <v>406200</v>
       </c>
       <c r="G60" s="3">
-        <v>413300</v>
+        <v>376400</v>
       </c>
       <c r="H60" s="3">
-        <v>288500</v>
+        <v>418700</v>
       </c>
       <c r="I60" s="3">
-        <v>408900</v>
+        <v>292300</v>
       </c>
       <c r="J60" s="3">
+        <v>414300</v>
+      </c>
+      <c r="K60" s="3">
         <v>362100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>490500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>417100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>475100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>485800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>493100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>395800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>441600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109800</v>
+        <v>98200</v>
       </c>
       <c r="E61" s="3">
-        <v>96400</v>
+        <v>111300</v>
       </c>
       <c r="F61" s="3">
-        <v>107900</v>
+        <v>97700</v>
       </c>
       <c r="G61" s="3">
-        <v>110600</v>
+        <v>109400</v>
       </c>
       <c r="H61" s="3">
-        <v>110000</v>
+        <v>112100</v>
       </c>
       <c r="I61" s="3">
-        <v>69500</v>
+        <v>111500</v>
       </c>
       <c r="J61" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K61" s="3">
         <v>69600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>83300</v>
       </c>
       <c r="L61" s="3">
         <v>83300</v>
       </c>
       <c r="M61" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="N61" s="3">
         <v>80400</v>
       </c>
       <c r="O61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="P61" s="3">
         <v>5200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>50500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>228400</v>
+        <v>226000</v>
       </c>
       <c r="E62" s="3">
-        <v>197700</v>
+        <v>231400</v>
       </c>
       <c r="F62" s="3">
-        <v>200700</v>
+        <v>200300</v>
       </c>
       <c r="G62" s="3">
-        <v>184000</v>
+        <v>203300</v>
       </c>
       <c r="H62" s="3">
-        <v>184300</v>
+        <v>186400</v>
       </c>
       <c r="I62" s="3">
-        <v>183200</v>
+        <v>186700</v>
       </c>
       <c r="J62" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K62" s="3">
         <v>191800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>231500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>230100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>227200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>223000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>218800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>212100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>218100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>746200</v>
+        <v>715100</v>
       </c>
       <c r="E66" s="3">
-        <v>698700</v>
+        <v>755900</v>
       </c>
       <c r="F66" s="3">
-        <v>683700</v>
+        <v>707800</v>
       </c>
       <c r="G66" s="3">
-        <v>711300</v>
+        <v>692600</v>
       </c>
       <c r="H66" s="3">
-        <v>586100</v>
+        <v>720600</v>
       </c>
       <c r="I66" s="3">
-        <v>664800</v>
+        <v>593800</v>
       </c>
       <c r="J66" s="3">
+        <v>673500</v>
+      </c>
+      <c r="K66" s="3">
         <v>626600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>808900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>733900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>772600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>792200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>720000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>636600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>713000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1795500</v>
+        <v>1790700</v>
       </c>
       <c r="E72" s="3">
-        <v>1698400</v>
+        <v>1819000</v>
       </c>
       <c r="F72" s="3">
-        <v>1688800</v>
+        <v>1720600</v>
       </c>
       <c r="G72" s="3">
-        <v>1638700</v>
+        <v>1710900</v>
       </c>
       <c r="H72" s="3">
-        <v>1605000</v>
+        <v>1660200</v>
       </c>
       <c r="I72" s="3">
-        <v>1591300</v>
+        <v>1626100</v>
       </c>
       <c r="J72" s="3">
+        <v>1612200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1559600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1867800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1829000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1725100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1622300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1566500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1517800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1523700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1958700</v>
+        <v>1947400</v>
       </c>
       <c r="E76" s="3">
-        <v>1808500</v>
+        <v>1984400</v>
       </c>
       <c r="F76" s="3">
-        <v>1812200</v>
+        <v>1832200</v>
       </c>
       <c r="G76" s="3">
-        <v>1756400</v>
+        <v>1835900</v>
       </c>
       <c r="H76" s="3">
-        <v>1725800</v>
+        <v>1779400</v>
       </c>
       <c r="I76" s="3">
-        <v>1714700</v>
+        <v>1748500</v>
       </c>
       <c r="J76" s="3">
+        <v>1737200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1672400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2021000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1957000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1842200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1746300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1690000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1648500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1681300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>97500</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
-        <v>9900</v>
+        <v>98800</v>
       </c>
       <c r="F81" s="3">
-        <v>50000</v>
+        <v>10100</v>
       </c>
       <c r="G81" s="3">
-        <v>71500</v>
+        <v>50700</v>
       </c>
       <c r="H81" s="3">
-        <v>13400</v>
+        <v>72500</v>
       </c>
       <c r="I81" s="3">
-        <v>31900</v>
+        <v>13600</v>
       </c>
       <c r="J81" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>84400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>89000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>33700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="E83" s="3">
-        <v>28200</v>
+        <v>19800</v>
       </c>
       <c r="F83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>14800</v>
+      </c>
+      <c r="H83" s="3">
         <v>14600</v>
       </c>
-      <c r="G83" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>14400</v>
-      </c>
       <c r="I83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="M83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>15900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>16400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>13000</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>112200</v>
+        <v>-27500</v>
       </c>
       <c r="E89" s="3">
-        <v>86300</v>
+        <v>113600</v>
       </c>
       <c r="F89" s="3">
-        <v>18000</v>
+        <v>87400</v>
       </c>
       <c r="G89" s="3">
-        <v>76800</v>
+        <v>18300</v>
       </c>
       <c r="H89" s="3">
-        <v>-33700</v>
+        <v>77800</v>
       </c>
       <c r="I89" s="3">
-        <v>75100</v>
+        <v>-34100</v>
       </c>
       <c r="J89" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-34900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>69800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>70300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>118500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-24600</v>
       </c>
       <c r="E91" s="3">
-        <v>-40400</v>
+        <v>-13300</v>
       </c>
       <c r="F91" s="3">
-        <v>-21500</v>
+        <v>-41000</v>
       </c>
       <c r="G91" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-18700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-29200</v>
-      </c>
       <c r="J91" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>42000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-95400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-199500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9800</v>
+        <v>-17300</v>
       </c>
       <c r="E94" s="3">
-        <v>-16000</v>
+        <v>-9900</v>
       </c>
       <c r="F94" s="3">
-        <v>-17800</v>
+        <v>-16200</v>
       </c>
       <c r="G94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-4500</v>
-      </c>
       <c r="I94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-169700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4627,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-18900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-19200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4639,11 +4873,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4651,11 +4885,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-20200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4663,10 +4897,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-49400</v>
+        <v>-104500</v>
       </c>
       <c r="E100" s="3">
-        <v>-10200</v>
+        <v>-50100</v>
       </c>
       <c r="F100" s="3">
-        <v>-29800</v>
+        <v>-10300</v>
       </c>
       <c r="G100" s="3">
-        <v>34200</v>
+        <v>-30200</v>
       </c>
       <c r="H100" s="3">
-        <v>-60300</v>
+        <v>34700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5500</v>
+        <v>-61100</v>
       </c>
       <c r="J100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>35000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22200</v>
+        <v>9600</v>
       </c>
       <c r="E101" s="3">
-        <v>-16100</v>
+        <v>22400</v>
       </c>
       <c r="F101" s="3">
-        <v>17000</v>
+        <v>-16300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2500</v>
+        <v>17200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="I101" s="3">
-        <v>12900</v>
+        <v>-3300</v>
       </c>
       <c r="J101" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-19800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75100</v>
+        <v>-139700</v>
       </c>
       <c r="E102" s="3">
-        <v>44000</v>
+        <v>76100</v>
       </c>
       <c r="F102" s="3">
-        <v>-12600</v>
+        <v>44600</v>
       </c>
       <c r="G102" s="3">
-        <v>104500</v>
+        <v>-12700</v>
       </c>
       <c r="H102" s="3">
-        <v>-101700</v>
+        <v>105900</v>
       </c>
       <c r="I102" s="3">
-        <v>84000</v>
+        <v>-103000</v>
       </c>
       <c r="J102" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-79300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>33100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-55300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>72700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>749300</v>
+        <v>913300</v>
       </c>
       <c r="E8" s="3">
-        <v>717700</v>
+        <v>820400</v>
       </c>
       <c r="F8" s="3">
-        <v>690100</v>
+        <v>785800</v>
       </c>
       <c r="G8" s="3">
-        <v>698300</v>
+        <v>755700</v>
       </c>
       <c r="H8" s="3">
-        <v>769900</v>
+        <v>764600</v>
       </c>
       <c r="I8" s="3">
-        <v>653200</v>
+        <v>843000</v>
       </c>
       <c r="J8" s="3">
+        <v>715200</v>
+      </c>
+      <c r="K8" s="3">
         <v>703200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>635300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>869200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>820400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>777500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>735300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>781800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>707800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>754400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>664600</v>
+        <v>754300</v>
       </c>
       <c r="E9" s="3">
-        <v>618200</v>
+        <v>727700</v>
       </c>
       <c r="F9" s="3">
-        <v>600600</v>
+        <v>676900</v>
       </c>
       <c r="G9" s="3">
-        <v>579400</v>
+        <v>657600</v>
       </c>
       <c r="H9" s="3">
-        <v>600300</v>
+        <v>634400</v>
       </c>
       <c r="I9" s="3">
-        <v>570700</v>
+        <v>657300</v>
       </c>
       <c r="J9" s="3">
+        <v>624900</v>
+      </c>
+      <c r="K9" s="3">
         <v>605200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>583100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>702700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>647900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>660700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>606800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>594900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>594400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>631100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>84700</v>
+        <v>159000</v>
       </c>
       <c r="E10" s="3">
-        <v>99500</v>
+        <v>92700</v>
       </c>
       <c r="F10" s="3">
-        <v>89600</v>
+        <v>108900</v>
       </c>
       <c r="G10" s="3">
-        <v>118900</v>
+        <v>98100</v>
       </c>
       <c r="H10" s="3">
-        <v>169600</v>
+        <v>130100</v>
       </c>
       <c r="I10" s="3">
-        <v>82400</v>
+        <v>185700</v>
       </c>
       <c r="J10" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K10" s="3">
         <v>98000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>166500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>172500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>116800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>128500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>186900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>113300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>123200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>745500</v>
+        <v>839200</v>
       </c>
       <c r="E17" s="3">
-        <v>690100</v>
+        <v>816300</v>
       </c>
       <c r="F17" s="3">
-        <v>676600</v>
+        <v>755700</v>
       </c>
       <c r="G17" s="3">
-        <v>644400</v>
+        <v>740900</v>
       </c>
       <c r="H17" s="3">
-        <v>671200</v>
+        <v>705600</v>
       </c>
       <c r="I17" s="3">
-        <v>637900</v>
+        <v>735000</v>
       </c>
       <c r="J17" s="3">
+        <v>698400</v>
+      </c>
+      <c r="K17" s="3">
         <v>680900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>647000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>780400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>722700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>732500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>675200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>661300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>659700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3800</v>
+        <v>74100</v>
       </c>
       <c r="E18" s="3">
-        <v>27500</v>
+        <v>4100</v>
       </c>
       <c r="F18" s="3">
-        <v>13500</v>
+        <v>30200</v>
       </c>
       <c r="G18" s="3">
-        <v>53900</v>
+        <v>14800</v>
       </c>
       <c r="H18" s="3">
-        <v>98700</v>
+        <v>59000</v>
       </c>
       <c r="I18" s="3">
-        <v>15300</v>
+        <v>108000</v>
       </c>
       <c r="J18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K18" s="3">
         <v>22300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>120500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>54000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-10600</v>
       </c>
       <c r="E20" s="3">
-        <v>113200</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-6100</v>
+        <v>124000</v>
       </c>
       <c r="G20" s="3">
-        <v>22200</v>
+        <v>-6600</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>24300</v>
       </c>
       <c r="I20" s="3">
-        <v>6000</v>
+        <v>9200</v>
       </c>
       <c r="J20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K20" s="3">
         <v>22100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22000</v>
+        <v>85300</v>
       </c>
       <c r="E21" s="3">
-        <v>160500</v>
+        <v>24100</v>
       </c>
       <c r="F21" s="3">
-        <v>36000</v>
+        <v>175800</v>
       </c>
       <c r="G21" s="3">
-        <v>90900</v>
+        <v>39400</v>
       </c>
       <c r="H21" s="3">
-        <v>121600</v>
+        <v>99500</v>
       </c>
       <c r="I21" s="3">
-        <v>35900</v>
+        <v>133200</v>
       </c>
       <c r="J21" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K21" s="3">
         <v>57600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>138300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>86200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>87900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>141800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>61000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="N22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>800</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1800</v>
+        <v>60800</v>
       </c>
       <c r="E23" s="3">
-        <v>138200</v>
+        <v>-2000</v>
       </c>
       <c r="F23" s="3">
-        <v>4700</v>
+        <v>151300</v>
       </c>
       <c r="G23" s="3">
-        <v>72400</v>
+        <v>5200</v>
       </c>
       <c r="H23" s="3">
-        <v>102800</v>
+        <v>79300</v>
       </c>
       <c r="I23" s="3">
-        <v>18700</v>
+        <v>112600</v>
       </c>
       <c r="J23" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K23" s="3">
         <v>40700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>118900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>92700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>70000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>125500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-500</v>
+        <v>17900</v>
       </c>
       <c r="E24" s="3">
-        <v>39200</v>
+        <v>-600</v>
       </c>
       <c r="F24" s="3">
-        <v>-5500</v>
+        <v>43000</v>
       </c>
       <c r="G24" s="3">
-        <v>21600</v>
+        <v>-6100</v>
       </c>
       <c r="H24" s="3">
-        <v>30300</v>
+        <v>23700</v>
       </c>
       <c r="I24" s="3">
-        <v>5000</v>
+        <v>33100</v>
       </c>
       <c r="J24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1300</v>
+        <v>42800</v>
       </c>
       <c r="E26" s="3">
-        <v>99000</v>
+        <v>-1400</v>
       </c>
       <c r="F26" s="3">
-        <v>10300</v>
+        <v>108400</v>
       </c>
       <c r="G26" s="3">
-        <v>50800</v>
+        <v>11200</v>
       </c>
       <c r="H26" s="3">
-        <v>72600</v>
+        <v>55600</v>
       </c>
       <c r="I26" s="3">
-        <v>13800</v>
+        <v>79500</v>
       </c>
       <c r="J26" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K26" s="3">
         <v>32400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>81800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>89100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1600</v>
+        <v>41300</v>
       </c>
       <c r="E27" s="3">
-        <v>98800</v>
+        <v>-1700</v>
       </c>
       <c r="F27" s="3">
-        <v>10100</v>
+        <v>108200</v>
       </c>
       <c r="G27" s="3">
-        <v>50700</v>
+        <v>11000</v>
       </c>
       <c r="H27" s="3">
-        <v>72500</v>
+        <v>55500</v>
       </c>
       <c r="I27" s="3">
-        <v>13600</v>
+        <v>79300</v>
       </c>
       <c r="J27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K27" s="3">
         <v>32400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>81700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>89000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>33700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>10600</v>
       </c>
       <c r="E32" s="3">
-        <v>-113200</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>6100</v>
+        <v>-124000</v>
       </c>
       <c r="G32" s="3">
-        <v>-22200</v>
+        <v>6600</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-24300</v>
       </c>
       <c r="I32" s="3">
-        <v>-6000</v>
+        <v>-9200</v>
       </c>
       <c r="J32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1600</v>
+        <v>41300</v>
       </c>
       <c r="E33" s="3">
-        <v>98800</v>
+        <v>-1700</v>
       </c>
       <c r="F33" s="3">
-        <v>10100</v>
+        <v>108200</v>
       </c>
       <c r="G33" s="3">
-        <v>50700</v>
+        <v>11000</v>
       </c>
       <c r="H33" s="3">
-        <v>72500</v>
+        <v>55500</v>
       </c>
       <c r="I33" s="3">
-        <v>13600</v>
+        <v>79300</v>
       </c>
       <c r="J33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K33" s="3">
         <v>32400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>89000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1600</v>
+        <v>41300</v>
       </c>
       <c r="E35" s="3">
-        <v>98800</v>
+        <v>-1700</v>
       </c>
       <c r="F35" s="3">
-        <v>10100</v>
+        <v>108200</v>
       </c>
       <c r="G35" s="3">
-        <v>50700</v>
+        <v>11000</v>
       </c>
       <c r="H35" s="3">
-        <v>72500</v>
+        <v>55500</v>
       </c>
       <c r="I35" s="3">
-        <v>13600</v>
+        <v>79300</v>
       </c>
       <c r="J35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K35" s="3">
         <v>32400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>89000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>810300</v>
+        <v>908700</v>
       </c>
       <c r="E41" s="3">
-        <v>950000</v>
+        <v>887300</v>
       </c>
       <c r="F41" s="3">
-        <v>851000</v>
+        <v>1040200</v>
       </c>
       <c r="G41" s="3">
-        <v>831500</v>
+        <v>931800</v>
       </c>
       <c r="H41" s="3">
-        <v>844300</v>
+        <v>910500</v>
       </c>
       <c r="I41" s="3">
-        <v>738400</v>
+        <v>924400</v>
       </c>
       <c r="J41" s="3">
+        <v>808500</v>
+      </c>
+      <c r="K41" s="3">
         <v>816300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>773600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1015900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>957300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>891700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>814400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>869700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>797000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>779600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,11 +2381,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>25100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2393,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>25100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2315,11 +2405,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>58300</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2327,226 +2417,241 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>51500</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>222300</v>
+        <v>251000</v>
       </c>
       <c r="E43" s="3">
-        <v>215200</v>
+        <v>243400</v>
       </c>
       <c r="F43" s="3">
-        <v>177000</v>
+        <v>235600</v>
       </c>
       <c r="G43" s="3">
-        <v>198500</v>
+        <v>193800</v>
       </c>
       <c r="H43" s="3">
-        <v>222700</v>
+        <v>217300</v>
       </c>
       <c r="I43" s="3">
-        <v>178600</v>
+        <v>243800</v>
       </c>
       <c r="J43" s="3">
+        <v>195600</v>
+      </c>
+      <c r="K43" s="3">
         <v>159000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>161100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>173100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>184800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>378200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>161600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>154200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>172900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>396000</v>
+        <v>394700</v>
       </c>
       <c r="E44" s="3">
-        <v>359000</v>
+        <v>433600</v>
       </c>
       <c r="F44" s="3">
-        <v>308000</v>
+        <v>393000</v>
       </c>
       <c r="G44" s="3">
-        <v>314500</v>
+        <v>337200</v>
       </c>
       <c r="H44" s="3">
-        <v>281200</v>
+        <v>344400</v>
       </c>
       <c r="I44" s="3">
-        <v>285400</v>
+        <v>307900</v>
       </c>
       <c r="J44" s="3">
+        <v>312500</v>
+      </c>
+      <c r="K44" s="3">
         <v>303200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>207900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>375300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>327600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>344900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>339800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>330800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>287300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>315000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51300</v>
+        <v>47700</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>56200</v>
       </c>
       <c r="F45" s="3">
-        <v>59200</v>
+        <v>40700</v>
       </c>
       <c r="G45" s="3">
-        <v>54900</v>
+        <v>64800</v>
       </c>
       <c r="H45" s="3">
-        <v>39300</v>
+        <v>60100</v>
       </c>
       <c r="I45" s="3">
-        <v>34800</v>
+        <v>43000</v>
       </c>
       <c r="J45" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K45" s="3">
         <v>54200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>164900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>108800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>110500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>76600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>83300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1480000</v>
+        <v>1602200</v>
       </c>
       <c r="E46" s="3">
-        <v>1561400</v>
+        <v>1620500</v>
       </c>
       <c r="F46" s="3">
-        <v>1418000</v>
+        <v>1709700</v>
       </c>
       <c r="G46" s="3">
-        <v>1399400</v>
+        <v>1552700</v>
       </c>
       <c r="H46" s="3">
-        <v>1387400</v>
+        <v>1532300</v>
       </c>
       <c r="I46" s="3">
-        <v>1237200</v>
+        <v>1519200</v>
       </c>
       <c r="J46" s="3">
+        <v>1354700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1357700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1286200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1612900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1513000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1459800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1424600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1465200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1333800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1430000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1004300</v>
+        <v>1106400</v>
       </c>
       <c r="E48" s="3">
-        <v>1008700</v>
+        <v>1099600</v>
       </c>
       <c r="F48" s="3">
-        <v>966600</v>
+        <v>1104500</v>
       </c>
       <c r="G48" s="3">
-        <v>960900</v>
+        <v>1058400</v>
       </c>
       <c r="H48" s="3">
-        <v>950000</v>
+        <v>1052200</v>
       </c>
       <c r="I48" s="3">
-        <v>945400</v>
+        <v>1040200</v>
       </c>
       <c r="J48" s="3">
+        <v>1035100</v>
+      </c>
+      <c r="K48" s="3">
         <v>900100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>866300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1032100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1003900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>979400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>951400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>870000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>866800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>889400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>125700</v>
+        <v>132300</v>
       </c>
       <c r="E49" s="3">
-        <v>130700</v>
+        <v>137700</v>
       </c>
       <c r="F49" s="3">
-        <v>107200</v>
+        <v>143100</v>
       </c>
       <c r="G49" s="3">
-        <v>115600</v>
+        <v>117400</v>
       </c>
       <c r="H49" s="3">
-        <v>113700</v>
+        <v>126600</v>
       </c>
       <c r="I49" s="3">
-        <v>115600</v>
+        <v>124500</v>
       </c>
       <c r="J49" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K49" s="3">
         <v>117700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>112900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>142700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>133500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>138200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>43300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>52700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>57500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>53600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>35100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>33500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>42200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>40500</v>
+      </c>
+      <c r="O52" s="3">
+        <v>70700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>81700</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>50900</v>
+      </c>
+      <c r="R52" s="3">
+        <v>60400</v>
+      </c>
+      <c r="S52" s="3">
+        <v>49100</v>
+      </c>
+      <c r="T52" s="3">
         <v>52500</v>
       </c>
-      <c r="E52" s="3">
-        <v>39500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>48100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>52500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>49000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>35100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>33500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>42200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>40500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>70700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>81700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>50900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>60400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>49100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2662500</v>
+        <v>2898500</v>
       </c>
       <c r="E54" s="3">
-        <v>2740300</v>
+        <v>2915300</v>
       </c>
       <c r="F54" s="3">
-        <v>2540000</v>
+        <v>3000500</v>
       </c>
       <c r="G54" s="3">
-        <v>2528500</v>
+        <v>2781200</v>
       </c>
       <c r="H54" s="3">
-        <v>2500100</v>
+        <v>2768600</v>
       </c>
       <c r="I54" s="3">
-        <v>2342200</v>
+        <v>2737500</v>
       </c>
       <c r="J54" s="3">
+        <v>2564600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2410700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2299000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2829900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2691000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2614800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2538500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2410000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2285100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2394300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>245800</v>
+        <v>230900</v>
       </c>
       <c r="E57" s="3">
-        <v>223800</v>
+        <v>269200</v>
       </c>
       <c r="F57" s="3">
-        <v>181100</v>
+        <v>245000</v>
       </c>
       <c r="G57" s="3">
-        <v>158600</v>
+        <v>198300</v>
       </c>
       <c r="H57" s="3">
-        <v>162100</v>
+        <v>173700</v>
       </c>
       <c r="I57" s="3">
-        <v>140300</v>
+        <v>177500</v>
       </c>
       <c r="J57" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K57" s="3">
         <v>182200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>149900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>173900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>193400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>227800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>216400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>173100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>193600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57500</v>
+        <v>60300</v>
       </c>
       <c r="E58" s="3">
-        <v>130700</v>
+        <v>62800</v>
       </c>
       <c r="F58" s="3">
-        <v>167200</v>
+        <v>143200</v>
       </c>
       <c r="G58" s="3">
-        <v>160300</v>
+        <v>183100</v>
       </c>
       <c r="H58" s="3">
-        <v>156900</v>
+        <v>175500</v>
       </c>
       <c r="I58" s="3">
-        <v>101600</v>
+        <v>171800</v>
       </c>
       <c r="J58" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K58" s="3">
         <v>166000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>146600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>179700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>177400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>385400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>176100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>189200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>176500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>174600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75500</v>
+        <v>66800</v>
       </c>
       <c r="E59" s="3">
-        <v>54900</v>
+        <v>82800</v>
       </c>
       <c r="F59" s="3">
-        <v>57900</v>
+        <v>60100</v>
       </c>
       <c r="G59" s="3">
-        <v>57500</v>
+        <v>63400</v>
       </c>
       <c r="H59" s="3">
-        <v>99700</v>
+        <v>62900</v>
       </c>
       <c r="I59" s="3">
-        <v>50400</v>
+        <v>109200</v>
       </c>
       <c r="J59" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K59" s="3">
         <v>66100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>109900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>145200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>87600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>378800</v>
+        <v>358000</v>
       </c>
       <c r="E60" s="3">
-        <v>409400</v>
+        <v>414800</v>
       </c>
       <c r="F60" s="3">
-        <v>406200</v>
+        <v>448300</v>
       </c>
       <c r="G60" s="3">
-        <v>376400</v>
+        <v>444800</v>
       </c>
       <c r="H60" s="3">
-        <v>418700</v>
+        <v>412100</v>
       </c>
       <c r="I60" s="3">
-        <v>292300</v>
+        <v>458400</v>
       </c>
       <c r="J60" s="3">
+        <v>320000</v>
+      </c>
+      <c r="K60" s="3">
         <v>414300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>362100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>490500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>417100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>475100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>485800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>493100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>395800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>441600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>98200</v>
+        <v>103600</v>
       </c>
       <c r="E61" s="3">
-        <v>111300</v>
+        <v>107500</v>
       </c>
       <c r="F61" s="3">
-        <v>97700</v>
+        <v>121800</v>
       </c>
       <c r="G61" s="3">
-        <v>109400</v>
+        <v>106900</v>
       </c>
       <c r="H61" s="3">
-        <v>112100</v>
+        <v>119700</v>
       </c>
       <c r="I61" s="3">
-        <v>111500</v>
+        <v>122700</v>
       </c>
       <c r="J61" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K61" s="3">
         <v>70400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>83300</v>
       </c>
       <c r="M61" s="3">
         <v>83300</v>
       </c>
       <c r="N61" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="O61" s="3">
         <v>80400</v>
       </c>
       <c r="P61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="Q61" s="3">
         <v>5200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>50500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>226000</v>
+        <v>259400</v>
       </c>
       <c r="E62" s="3">
-        <v>231400</v>
+        <v>247500</v>
       </c>
       <c r="F62" s="3">
-        <v>200300</v>
+        <v>253400</v>
       </c>
       <c r="G62" s="3">
-        <v>203300</v>
+        <v>219300</v>
       </c>
       <c r="H62" s="3">
-        <v>186400</v>
+        <v>222600</v>
       </c>
       <c r="I62" s="3">
-        <v>186700</v>
+        <v>204100</v>
       </c>
       <c r="J62" s="3">
+        <v>204400</v>
+      </c>
+      <c r="K62" s="3">
         <v>185600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>191800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>231500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>230100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>227200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>223000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>218800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>212100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>218100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>715100</v>
+        <v>735600</v>
       </c>
       <c r="E66" s="3">
-        <v>755900</v>
+        <v>783000</v>
       </c>
       <c r="F66" s="3">
-        <v>707800</v>
+        <v>827700</v>
       </c>
       <c r="G66" s="3">
-        <v>692600</v>
+        <v>775000</v>
       </c>
       <c r="H66" s="3">
-        <v>720600</v>
+        <v>758400</v>
       </c>
       <c r="I66" s="3">
-        <v>593800</v>
+        <v>789100</v>
       </c>
       <c r="J66" s="3">
+        <v>650100</v>
+      </c>
+      <c r="K66" s="3">
         <v>673500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>626600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>808900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>733900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>772600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>792200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>720000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>636600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>713000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1790700</v>
+        <v>2000700</v>
       </c>
       <c r="E72" s="3">
-        <v>1819000</v>
+        <v>1960800</v>
       </c>
       <c r="F72" s="3">
-        <v>1720600</v>
+        <v>1991700</v>
       </c>
       <c r="G72" s="3">
-        <v>1710900</v>
+        <v>1884000</v>
       </c>
       <c r="H72" s="3">
-        <v>1660200</v>
+        <v>1873400</v>
       </c>
       <c r="I72" s="3">
-        <v>1626100</v>
+        <v>1817900</v>
       </c>
       <c r="J72" s="3">
+        <v>1780500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1612200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1559600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1867800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1829000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1725100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1622300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1566500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1517800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1523700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1947400</v>
+        <v>2162800</v>
       </c>
       <c r="E76" s="3">
-        <v>1984400</v>
+        <v>2132300</v>
       </c>
       <c r="F76" s="3">
-        <v>1832200</v>
+        <v>2172800</v>
       </c>
       <c r="G76" s="3">
-        <v>1835900</v>
+        <v>2006200</v>
       </c>
       <c r="H76" s="3">
-        <v>1779400</v>
+        <v>2010200</v>
       </c>
       <c r="I76" s="3">
-        <v>1748500</v>
+        <v>1948400</v>
       </c>
       <c r="J76" s="3">
+        <v>1914500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1737200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1672400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2021000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1957000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1842200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1746300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1690000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1648500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1681300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1600</v>
+        <v>41300</v>
       </c>
       <c r="E81" s="3">
-        <v>98800</v>
+        <v>-1700</v>
       </c>
       <c r="F81" s="3">
-        <v>10100</v>
+        <v>108200</v>
       </c>
       <c r="G81" s="3">
-        <v>50700</v>
+        <v>11000</v>
       </c>
       <c r="H81" s="3">
-        <v>72500</v>
+        <v>55500</v>
       </c>
       <c r="I81" s="3">
-        <v>13600</v>
+        <v>79300</v>
       </c>
       <c r="J81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K81" s="3">
         <v>32400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>89000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20200</v>
+        <v>21800</v>
       </c>
       <c r="E83" s="3">
-        <v>19800</v>
+        <v>22100</v>
       </c>
       <c r="F83" s="3">
-        <v>28500</v>
+        <v>21600</v>
       </c>
       <c r="G83" s="3">
-        <v>14800</v>
+        <v>31300</v>
       </c>
       <c r="H83" s="3">
-        <v>14600</v>
+        <v>16200</v>
       </c>
       <c r="I83" s="3">
-        <v>14600</v>
+        <v>16000</v>
       </c>
       <c r="J83" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-27500</v>
+        <v>75700</v>
       </c>
       <c r="E89" s="3">
-        <v>113600</v>
+        <v>-30100</v>
       </c>
       <c r="F89" s="3">
-        <v>87400</v>
+        <v>124400</v>
       </c>
       <c r="G89" s="3">
-        <v>18300</v>
+        <v>95700</v>
       </c>
       <c r="H89" s="3">
-        <v>77800</v>
+        <v>20000</v>
       </c>
       <c r="I89" s="3">
-        <v>-34100</v>
+        <v>85200</v>
       </c>
       <c r="J89" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="K89" s="3">
         <v>76100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>70300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>118500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-36900</v>
       </c>
       <c r="E91" s="3">
-        <v>-13300</v>
+        <v>-26900</v>
       </c>
       <c r="F91" s="3">
-        <v>-41000</v>
+        <v>-14600</v>
       </c>
       <c r="G91" s="3">
-        <v>-21700</v>
+        <v>-44900</v>
       </c>
       <c r="H91" s="3">
-        <v>-18900</v>
+        <v>-23800</v>
       </c>
       <c r="I91" s="3">
-        <v>-18700</v>
+        <v>-20700</v>
       </c>
       <c r="J91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>42000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-95400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-199500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17300</v>
+        <v>-33700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9900</v>
+        <v>-19000</v>
       </c>
       <c r="F94" s="3">
-        <v>-16200</v>
+        <v>-10800</v>
       </c>
       <c r="G94" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="H94" s="3">
-        <v>-4000</v>
+        <v>-19700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="J94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-169700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,13 +5082,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-19800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4864,23 +5098,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-19200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4888,11 +5122,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-20200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -4900,10 +5134,13 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104500</v>
+        <v>-27700</v>
       </c>
       <c r="E100" s="3">
-        <v>-50100</v>
+        <v>-114400</v>
       </c>
       <c r="F100" s="3">
-        <v>-10300</v>
+        <v>-54800</v>
       </c>
       <c r="G100" s="3">
-        <v>-30200</v>
+        <v>-11300</v>
       </c>
       <c r="H100" s="3">
-        <v>34700</v>
+        <v>-33100</v>
       </c>
       <c r="I100" s="3">
-        <v>-61100</v>
+        <v>38000</v>
       </c>
       <c r="J100" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>35000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>24600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>18800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>23400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="O101" s="3">
         <v>9600</v>
       </c>
-      <c r="E101" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>23400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="N101" s="3">
-        <v>9600</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-139700</v>
+        <v>21500</v>
       </c>
       <c r="E102" s="3">
-        <v>76100</v>
+        <v>-152900</v>
       </c>
       <c r="F102" s="3">
-        <v>44600</v>
+        <v>83300</v>
       </c>
       <c r="G102" s="3">
-        <v>-12700</v>
+        <v>48800</v>
       </c>
       <c r="H102" s="3">
-        <v>105900</v>
+        <v>-13900</v>
       </c>
       <c r="I102" s="3">
-        <v>-103000</v>
+        <v>115900</v>
       </c>
       <c r="J102" s="3">
+        <v>-112800</v>
+      </c>
+      <c r="K102" s="3">
         <v>85200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-79300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>58500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-55300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>72700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>913300</v>
+        <v>2440900</v>
       </c>
       <c r="E8" s="3">
-        <v>820400</v>
+        <v>794800</v>
       </c>
       <c r="F8" s="3">
-        <v>785800</v>
+        <v>761300</v>
       </c>
       <c r="G8" s="3">
-        <v>755700</v>
+        <v>732100</v>
       </c>
       <c r="H8" s="3">
-        <v>764600</v>
+        <v>740700</v>
       </c>
       <c r="I8" s="3">
-        <v>843000</v>
+        <v>816700</v>
       </c>
       <c r="J8" s="3">
-        <v>715200</v>
+        <v>692800</v>
       </c>
       <c r="K8" s="3">
         <v>703200</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>754300</v>
+        <v>2091500</v>
       </c>
       <c r="E9" s="3">
-        <v>727700</v>
+        <v>705000</v>
       </c>
       <c r="F9" s="3">
-        <v>676900</v>
+        <v>655800</v>
       </c>
       <c r="G9" s="3">
-        <v>657600</v>
+        <v>637100</v>
       </c>
       <c r="H9" s="3">
-        <v>634400</v>
+        <v>614600</v>
       </c>
       <c r="I9" s="3">
-        <v>657300</v>
+        <v>636800</v>
       </c>
       <c r="J9" s="3">
-        <v>624900</v>
+        <v>605400</v>
       </c>
       <c r="K9" s="3">
         <v>605200</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>159000</v>
+        <v>349400</v>
       </c>
       <c r="E10" s="3">
-        <v>92700</v>
+        <v>89800</v>
       </c>
       <c r="F10" s="3">
-        <v>108900</v>
+        <v>105500</v>
       </c>
       <c r="G10" s="3">
-        <v>98100</v>
+        <v>95000</v>
       </c>
       <c r="H10" s="3">
-        <v>130100</v>
+        <v>126100</v>
       </c>
       <c r="I10" s="3">
-        <v>185700</v>
+        <v>179900</v>
       </c>
       <c r="J10" s="3">
-        <v>90300</v>
+        <v>87400</v>
       </c>
       <c r="K10" s="3">
         <v>98000</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>839200</v>
+        <v>2336700</v>
       </c>
       <c r="E17" s="3">
-        <v>816300</v>
+        <v>790800</v>
       </c>
       <c r="F17" s="3">
-        <v>755700</v>
+        <v>732100</v>
       </c>
       <c r="G17" s="3">
-        <v>740900</v>
+        <v>717800</v>
       </c>
       <c r="H17" s="3">
-        <v>705600</v>
+        <v>683500</v>
       </c>
       <c r="I17" s="3">
-        <v>735000</v>
+        <v>712000</v>
       </c>
       <c r="J17" s="3">
-        <v>698400</v>
+        <v>676600</v>
       </c>
       <c r="K17" s="3">
         <v>680900</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74100</v>
+        <v>104200</v>
       </c>
       <c r="E18" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F18" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="G18" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="H18" s="3">
-        <v>59000</v>
+        <v>57200</v>
       </c>
       <c r="I18" s="3">
-        <v>108000</v>
+        <v>104700</v>
       </c>
       <c r="J18" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="K18" s="3">
         <v>22300</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10600</v>
+        <v>107800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>124000</v>
+        <v>120100</v>
       </c>
       <c r="G20" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="H20" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="I20" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="J20" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="K20" s="3">
         <v>22100</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>85300</v>
+        <v>275400</v>
       </c>
       <c r="E21" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="F21" s="3">
-        <v>175800</v>
+        <v>170300</v>
       </c>
       <c r="G21" s="3">
-        <v>39400</v>
+        <v>38100</v>
       </c>
       <c r="H21" s="3">
-        <v>99500</v>
+        <v>96400</v>
       </c>
       <c r="I21" s="3">
-        <v>133200</v>
+        <v>129000</v>
       </c>
       <c r="J21" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="K21" s="3">
         <v>57600</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3">
         <v>2700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>2900</v>
       </c>
       <c r="H22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I22" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J22" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K22" s="3">
         <v>3700</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>60800</v>
+        <v>202700</v>
       </c>
       <c r="E23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F23" s="3">
-        <v>151300</v>
+        <v>146600</v>
       </c>
       <c r="G23" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="3">
-        <v>79300</v>
+        <v>76800</v>
       </c>
       <c r="I23" s="3">
-        <v>112600</v>
+        <v>109100</v>
       </c>
       <c r="J23" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="K23" s="3">
         <v>40700</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17900</v>
+        <v>58400</v>
       </c>
       <c r="E24" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F24" s="3">
-        <v>43000</v>
+        <v>41600</v>
       </c>
       <c r="G24" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H24" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="I24" s="3">
-        <v>33100</v>
+        <v>32100</v>
       </c>
       <c r="J24" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K24" s="3">
         <v>8300</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42800</v>
+        <v>144200</v>
       </c>
       <c r="E26" s="3">
         <v>-1400</v>
       </c>
       <c r="F26" s="3">
-        <v>108400</v>
+        <v>105000</v>
       </c>
       <c r="G26" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="H26" s="3">
-        <v>55600</v>
+        <v>53800</v>
       </c>
       <c r="I26" s="3">
-        <v>79500</v>
+        <v>77000</v>
       </c>
       <c r="J26" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="K26" s="3">
         <v>32400</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41300</v>
+        <v>142300</v>
       </c>
       <c r="E27" s="3">
         <v>-1700</v>
       </c>
       <c r="F27" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="G27" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="H27" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="I27" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="J27" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="K27" s="3">
         <v>32400</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10600</v>
+        <v>-107800</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-124000</v>
+        <v>-120100</v>
       </c>
       <c r="G32" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H32" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="I32" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="J32" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="K32" s="3">
         <v>-22100</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41300</v>
+        <v>142300</v>
       </c>
       <c r="E33" s="3">
         <v>-1700</v>
       </c>
       <c r="F33" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="G33" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="H33" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="I33" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="J33" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="K33" s="3">
         <v>32400</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41300</v>
+        <v>142300</v>
       </c>
       <c r="E35" s="3">
         <v>-1700</v>
       </c>
       <c r="F35" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="G35" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="H35" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="I35" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="J35" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="K35" s="3">
         <v>32400</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>908700</v>
+        <v>880400</v>
       </c>
       <c r="E41" s="3">
-        <v>887300</v>
+        <v>859600</v>
       </c>
       <c r="F41" s="3">
-        <v>1040200</v>
+        <v>1007700</v>
       </c>
       <c r="G41" s="3">
-        <v>931800</v>
+        <v>902700</v>
       </c>
       <c r="H41" s="3">
-        <v>910500</v>
+        <v>882100</v>
       </c>
       <c r="I41" s="3">
-        <v>924400</v>
+        <v>895600</v>
       </c>
       <c r="J41" s="3">
-        <v>808500</v>
+        <v>783300</v>
       </c>
       <c r="K41" s="3">
         <v>816300</v>
@@ -2385,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>251000</v>
+        <v>243100</v>
       </c>
       <c r="E43" s="3">
-        <v>243400</v>
+        <v>235800</v>
       </c>
       <c r="F43" s="3">
-        <v>235600</v>
+        <v>228300</v>
       </c>
       <c r="G43" s="3">
-        <v>193800</v>
+        <v>187700</v>
       </c>
       <c r="H43" s="3">
-        <v>217300</v>
+        <v>210500</v>
       </c>
       <c r="I43" s="3">
-        <v>243800</v>
+        <v>236200</v>
       </c>
       <c r="J43" s="3">
-        <v>195600</v>
+        <v>189500</v>
       </c>
       <c r="K43" s="3">
         <v>159000</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>394700</v>
+        <v>382400</v>
       </c>
       <c r="E44" s="3">
-        <v>433600</v>
+        <v>420100</v>
       </c>
       <c r="F44" s="3">
-        <v>393000</v>
+        <v>380800</v>
       </c>
       <c r="G44" s="3">
-        <v>337200</v>
+        <v>326700</v>
       </c>
       <c r="H44" s="3">
-        <v>344400</v>
+        <v>333600</v>
       </c>
       <c r="I44" s="3">
-        <v>307900</v>
+        <v>298300</v>
       </c>
       <c r="J44" s="3">
-        <v>312500</v>
+        <v>302800</v>
       </c>
       <c r="K44" s="3">
         <v>303200</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47700</v>
+        <v>46300</v>
       </c>
       <c r="E45" s="3">
-        <v>56200</v>
+        <v>54500</v>
       </c>
       <c r="F45" s="3">
-        <v>40700</v>
+        <v>39500</v>
       </c>
       <c r="G45" s="3">
-        <v>64800</v>
+        <v>62800</v>
       </c>
       <c r="H45" s="3">
-        <v>60100</v>
+        <v>58200</v>
       </c>
       <c r="I45" s="3">
-        <v>43000</v>
+        <v>41700</v>
       </c>
       <c r="J45" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="K45" s="3">
         <v>54200</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1602200</v>
+        <v>1552100</v>
       </c>
       <c r="E46" s="3">
-        <v>1620500</v>
+        <v>1569900</v>
       </c>
       <c r="F46" s="3">
-        <v>1709700</v>
+        <v>1656200</v>
       </c>
       <c r="G46" s="3">
-        <v>1552700</v>
+        <v>1504200</v>
       </c>
       <c r="H46" s="3">
-        <v>1532300</v>
+        <v>1484400</v>
       </c>
       <c r="I46" s="3">
-        <v>1519200</v>
+        <v>1471700</v>
       </c>
       <c r="J46" s="3">
-        <v>1354700</v>
+        <v>1312400</v>
       </c>
       <c r="K46" s="3">
         <v>1357700</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1106400</v>
+        <v>1071900</v>
       </c>
       <c r="E48" s="3">
-        <v>1099600</v>
+        <v>1065300</v>
       </c>
       <c r="F48" s="3">
-        <v>1104500</v>
+        <v>1070000</v>
       </c>
       <c r="G48" s="3">
-        <v>1058400</v>
+        <v>1025400</v>
       </c>
       <c r="H48" s="3">
-        <v>1052200</v>
+        <v>1019300</v>
       </c>
       <c r="I48" s="3">
-        <v>1040200</v>
+        <v>1007700</v>
       </c>
       <c r="J48" s="3">
-        <v>1035100</v>
+        <v>1002800</v>
       </c>
       <c r="K48" s="3">
         <v>900100</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>132300</v>
+        <v>128100</v>
       </c>
       <c r="E49" s="3">
-        <v>137700</v>
+        <v>133400</v>
       </c>
       <c r="F49" s="3">
-        <v>143100</v>
+        <v>138600</v>
       </c>
       <c r="G49" s="3">
-        <v>117400</v>
+        <v>113700</v>
       </c>
       <c r="H49" s="3">
-        <v>126600</v>
+        <v>122700</v>
       </c>
       <c r="I49" s="3">
-        <v>124500</v>
+        <v>120600</v>
       </c>
       <c r="J49" s="3">
-        <v>126500</v>
+        <v>122600</v>
       </c>
       <c r="K49" s="3">
         <v>117700</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57600</v>
+        <v>55800</v>
       </c>
       <c r="E52" s="3">
-        <v>57500</v>
+        <v>55700</v>
       </c>
       <c r="F52" s="3">
-        <v>43300</v>
+        <v>41900</v>
       </c>
       <c r="G52" s="3">
-        <v>52700</v>
+        <v>51000</v>
       </c>
       <c r="H52" s="3">
-        <v>57500</v>
+        <v>55700</v>
       </c>
       <c r="I52" s="3">
-        <v>53600</v>
+        <v>51900</v>
       </c>
       <c r="J52" s="3">
-        <v>48200</v>
+        <v>46700</v>
       </c>
       <c r="K52" s="3">
         <v>35100</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2898500</v>
+        <v>2807900</v>
       </c>
       <c r="E54" s="3">
-        <v>2915300</v>
+        <v>2824200</v>
       </c>
       <c r="F54" s="3">
-        <v>3000500</v>
+        <v>2906800</v>
       </c>
       <c r="G54" s="3">
-        <v>2781200</v>
+        <v>2694300</v>
       </c>
       <c r="H54" s="3">
-        <v>2768600</v>
+        <v>2682100</v>
       </c>
       <c r="I54" s="3">
-        <v>2737500</v>
+        <v>2652000</v>
       </c>
       <c r="J54" s="3">
-        <v>2564600</v>
+        <v>2484500</v>
       </c>
       <c r="K54" s="3">
         <v>2410700</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>230900</v>
+        <v>223700</v>
       </c>
       <c r="E57" s="3">
-        <v>269200</v>
+        <v>260700</v>
       </c>
       <c r="F57" s="3">
-        <v>245000</v>
+        <v>237400</v>
       </c>
       <c r="G57" s="3">
-        <v>198300</v>
+        <v>192100</v>
       </c>
       <c r="H57" s="3">
-        <v>173700</v>
+        <v>168300</v>
       </c>
       <c r="I57" s="3">
-        <v>177500</v>
+        <v>171900</v>
       </c>
       <c r="J57" s="3">
-        <v>153600</v>
+        <v>148800</v>
       </c>
       <c r="K57" s="3">
         <v>182200</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60300</v>
+        <v>58400</v>
       </c>
       <c r="E58" s="3">
-        <v>62800</v>
+        <v>60800</v>
       </c>
       <c r="F58" s="3">
-        <v>143200</v>
+        <v>138700</v>
       </c>
       <c r="G58" s="3">
-        <v>183100</v>
+        <v>177400</v>
       </c>
       <c r="H58" s="3">
-        <v>175500</v>
+        <v>170000</v>
       </c>
       <c r="I58" s="3">
-        <v>171800</v>
+        <v>166400</v>
       </c>
       <c r="J58" s="3">
-        <v>111200</v>
+        <v>107700</v>
       </c>
       <c r="K58" s="3">
         <v>166000</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66800</v>
+        <v>64700</v>
       </c>
       <c r="E59" s="3">
-        <v>82800</v>
+        <v>80200</v>
       </c>
       <c r="F59" s="3">
-        <v>60100</v>
+        <v>58300</v>
       </c>
       <c r="G59" s="3">
-        <v>63400</v>
+        <v>61400</v>
       </c>
       <c r="H59" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="I59" s="3">
-        <v>109200</v>
+        <v>105800</v>
       </c>
       <c r="J59" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="K59" s="3">
         <v>66100</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>358000</v>
+        <v>346800</v>
       </c>
       <c r="E60" s="3">
-        <v>414800</v>
+        <v>401800</v>
       </c>
       <c r="F60" s="3">
-        <v>448300</v>
+        <v>434300</v>
       </c>
       <c r="G60" s="3">
-        <v>444800</v>
+        <v>430900</v>
       </c>
       <c r="H60" s="3">
-        <v>412100</v>
+        <v>399200</v>
       </c>
       <c r="I60" s="3">
-        <v>458400</v>
+        <v>444100</v>
       </c>
       <c r="J60" s="3">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="K60" s="3">
         <v>414300</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>104100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>118000</v>
+      </c>
+      <c r="G61" s="3">
         <v>103600</v>
       </c>
-      <c r="E61" s="3">
-        <v>107500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>121800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>106900</v>
-      </c>
       <c r="H61" s="3">
-        <v>119700</v>
+        <v>116000</v>
       </c>
       <c r="I61" s="3">
-        <v>122700</v>
+        <v>118900</v>
       </c>
       <c r="J61" s="3">
-        <v>122100</v>
+        <v>118200</v>
       </c>
       <c r="K61" s="3">
         <v>70400</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>259400</v>
+        <v>251300</v>
       </c>
       <c r="E62" s="3">
-        <v>247500</v>
+        <v>239800</v>
       </c>
       <c r="F62" s="3">
-        <v>253400</v>
+        <v>245500</v>
       </c>
       <c r="G62" s="3">
-        <v>219300</v>
+        <v>212500</v>
       </c>
       <c r="H62" s="3">
-        <v>222600</v>
+        <v>215700</v>
       </c>
       <c r="I62" s="3">
-        <v>204100</v>
+        <v>197700</v>
       </c>
       <c r="J62" s="3">
-        <v>204400</v>
+        <v>198000</v>
       </c>
       <c r="K62" s="3">
         <v>185600</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>735600</v>
+        <v>712700</v>
       </c>
       <c r="E66" s="3">
-        <v>783000</v>
+        <v>758500</v>
       </c>
       <c r="F66" s="3">
-        <v>827700</v>
+        <v>801900</v>
       </c>
       <c r="G66" s="3">
-        <v>775000</v>
+        <v>750800</v>
       </c>
       <c r="H66" s="3">
-        <v>758400</v>
+        <v>734700</v>
       </c>
       <c r="I66" s="3">
-        <v>789100</v>
+        <v>764400</v>
       </c>
       <c r="J66" s="3">
-        <v>650100</v>
+        <v>629800</v>
       </c>
       <c r="K66" s="3">
         <v>673500</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2000700</v>
+        <v>1938200</v>
       </c>
       <c r="E72" s="3">
-        <v>1960800</v>
+        <v>1899500</v>
       </c>
       <c r="F72" s="3">
-        <v>1991700</v>
+        <v>1929500</v>
       </c>
       <c r="G72" s="3">
-        <v>1884000</v>
+        <v>1825100</v>
       </c>
       <c r="H72" s="3">
-        <v>1873400</v>
+        <v>1814800</v>
       </c>
       <c r="I72" s="3">
-        <v>1817900</v>
+        <v>1761100</v>
       </c>
       <c r="J72" s="3">
-        <v>1780500</v>
+        <v>1724900</v>
       </c>
       <c r="K72" s="3">
         <v>1612200</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2162800</v>
+        <v>2095300</v>
       </c>
       <c r="E76" s="3">
-        <v>2132300</v>
+        <v>2065700</v>
       </c>
       <c r="F76" s="3">
-        <v>2172800</v>
+        <v>2104900</v>
       </c>
       <c r="G76" s="3">
-        <v>2006200</v>
+        <v>1943500</v>
       </c>
       <c r="H76" s="3">
-        <v>2010200</v>
+        <v>1947400</v>
       </c>
       <c r="I76" s="3">
-        <v>1948400</v>
+        <v>1887500</v>
       </c>
       <c r="J76" s="3">
-        <v>1914500</v>
+        <v>1854700</v>
       </c>
       <c r="K76" s="3">
         <v>1737200</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41300</v>
+        <v>142300</v>
       </c>
       <c r="E81" s="3">
         <v>-1700</v>
       </c>
       <c r="F81" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="G81" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="H81" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="I81" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="J81" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="K81" s="3">
         <v>32400</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21800</v>
+        <v>63500</v>
       </c>
       <c r="E83" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="F83" s="3">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="G83" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="H83" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="I83" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="J83" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="K83" s="3">
         <v>13200</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>75700</v>
+        <v>164700</v>
       </c>
       <c r="E89" s="3">
-        <v>-30100</v>
+        <v>-29200</v>
       </c>
       <c r="F89" s="3">
-        <v>124400</v>
+        <v>120500</v>
       </c>
       <c r="G89" s="3">
-        <v>95700</v>
+        <v>92700</v>
       </c>
       <c r="H89" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="I89" s="3">
-        <v>85200</v>
+        <v>82500</v>
       </c>
       <c r="J89" s="3">
-        <v>-37300</v>
+        <v>-36200</v>
       </c>
       <c r="K89" s="3">
         <v>76100</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36900</v>
+        <v>-75900</v>
       </c>
       <c r="E91" s="3">
-        <v>-26900</v>
+        <v>-26000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14600</v>
+        <v>-14200</v>
       </c>
       <c r="G91" s="3">
-        <v>-44900</v>
+        <v>-43500</v>
       </c>
       <c r="H91" s="3">
-        <v>-23800</v>
+        <v>-23100</v>
       </c>
       <c r="I91" s="3">
-        <v>-20700</v>
+        <v>-20100</v>
       </c>
       <c r="J91" s="3">
-        <v>-20400</v>
+        <v>-19800</v>
       </c>
       <c r="K91" s="3">
         <v>-29600</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33700</v>
+        <v>-61500</v>
       </c>
       <c r="E94" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="F94" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="G94" s="3">
-        <v>-17800</v>
+        <v>-17200</v>
       </c>
       <c r="H94" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="J94" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="K94" s="3">
         <v>1600</v>
@@ -5089,7 +5089,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19800</v>
+        <v>-38300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-21000</v>
+        <v>-20300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27700</v>
+        <v>-190800</v>
       </c>
       <c r="E100" s="3">
-        <v>-114400</v>
+        <v>-110900</v>
       </c>
       <c r="F100" s="3">
-        <v>-54800</v>
+        <v>-53100</v>
       </c>
       <c r="G100" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="H100" s="3">
-        <v>-33100</v>
+        <v>-32000</v>
       </c>
       <c r="I100" s="3">
-        <v>38000</v>
+        <v>36800</v>
       </c>
       <c r="J100" s="3">
-        <v>-66900</v>
+        <v>-64800</v>
       </c>
       <c r="K100" s="3">
         <v>-5600</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7100</v>
+        <v>40900</v>
       </c>
       <c r="E101" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="F101" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="G101" s="3">
-        <v>-17800</v>
+        <v>-17300</v>
       </c>
       <c r="H101" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="I101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J101" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="K101" s="3">
         <v>13100</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21500</v>
+        <v>-46600</v>
       </c>
       <c r="E102" s="3">
-        <v>-152900</v>
+        <v>-148200</v>
       </c>
       <c r="F102" s="3">
-        <v>83300</v>
+        <v>80700</v>
       </c>
       <c r="G102" s="3">
-        <v>48800</v>
+        <v>47300</v>
       </c>
       <c r="H102" s="3">
-        <v>-13900</v>
+        <v>-13500</v>
       </c>
       <c r="I102" s="3">
-        <v>115900</v>
+        <v>112300</v>
       </c>
       <c r="J102" s="3">
-        <v>-112800</v>
+        <v>-109200</v>
       </c>
       <c r="K102" s="3">
         <v>85200</v>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2440900</v>
+        <v>972100</v>
       </c>
       <c r="E8" s="3">
-        <v>794800</v>
+        <v>920500</v>
       </c>
       <c r="F8" s="3">
-        <v>761300</v>
+        <v>918600</v>
       </c>
       <c r="G8" s="3">
-        <v>732100</v>
+        <v>825200</v>
       </c>
       <c r="H8" s="3">
-        <v>740700</v>
+        <v>790400</v>
       </c>
       <c r="I8" s="3">
+        <v>760100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>769000</v>
+      </c>
+      <c r="K8" s="3">
         <v>816700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>692800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>703200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>635300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>869200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>820400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>777500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>735300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>781800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>707800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>754400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2091500</v>
+        <v>760300</v>
       </c>
       <c r="E9" s="3">
-        <v>705000</v>
+        <v>726600</v>
       </c>
       <c r="F9" s="3">
-        <v>655800</v>
+        <v>758700</v>
       </c>
       <c r="G9" s="3">
-        <v>637100</v>
+        <v>731900</v>
       </c>
       <c r="H9" s="3">
-        <v>614600</v>
+        <v>680800</v>
       </c>
       <c r="I9" s="3">
+        <v>661400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>638100</v>
+      </c>
+      <c r="K9" s="3">
         <v>636800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>605400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>605200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>583100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>702700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>647900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>660700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>606800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>594900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>594400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>631100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>349400</v>
+        <v>211800</v>
       </c>
       <c r="E10" s="3">
-        <v>89800</v>
+        <v>193900</v>
       </c>
       <c r="F10" s="3">
-        <v>105500</v>
+        <v>159900</v>
       </c>
       <c r="G10" s="3">
-        <v>95000</v>
+        <v>93300</v>
       </c>
       <c r="H10" s="3">
-        <v>126100</v>
+        <v>109500</v>
       </c>
       <c r="I10" s="3">
+        <v>98600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K10" s="3">
         <v>179900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>87400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>98000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>52200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>166500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>172500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>116800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>128500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>186900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>113300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>123200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2336700</v>
+        <v>843600</v>
       </c>
       <c r="E17" s="3">
-        <v>790800</v>
+        <v>813500</v>
       </c>
       <c r="F17" s="3">
-        <v>732100</v>
+        <v>844100</v>
       </c>
       <c r="G17" s="3">
-        <v>717800</v>
+        <v>821100</v>
       </c>
       <c r="H17" s="3">
-        <v>683500</v>
+        <v>760100</v>
       </c>
       <c r="I17" s="3">
+        <v>745200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>709700</v>
+      </c>
+      <c r="K17" s="3">
         <v>712000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>676600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>680900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>647000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>780400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>722700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>732500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>675200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>661300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>659700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>104200</v>
+        <v>128500</v>
       </c>
       <c r="E18" s="3">
-        <v>4000</v>
+        <v>107000</v>
       </c>
       <c r="F18" s="3">
-        <v>29200</v>
+        <v>74600</v>
       </c>
       <c r="G18" s="3">
-        <v>14300</v>
+        <v>4200</v>
       </c>
       <c r="H18" s="3">
-        <v>57200</v>
+        <v>30300</v>
       </c>
       <c r="I18" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K18" s="3">
         <v>104700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>88800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>97700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>45000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>60000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>120500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>48100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>54000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>107800</v>
+        <v>18800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-56900</v>
       </c>
       <c r="F20" s="3">
-        <v>120100</v>
+        <v>-10700</v>
       </c>
       <c r="G20" s="3">
-        <v>-6400</v>
+        <v>-2100</v>
       </c>
       <c r="H20" s="3">
-        <v>23500</v>
+        <v>124700</v>
       </c>
       <c r="I20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K20" s="3">
         <v>8900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>22100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>33700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>28100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>18600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>275400</v>
+        <v>171200</v>
       </c>
       <c r="E21" s="3">
-        <v>23300</v>
+        <v>86800</v>
       </c>
       <c r="F21" s="3">
-        <v>170300</v>
+        <v>85800</v>
       </c>
       <c r="G21" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>176800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>129000</v>
+      </c>
+      <c r="L21" s="3">
         <v>38100</v>
       </c>
-      <c r="H21" s="3">
-        <v>96400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>129000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>38100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>57600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>138300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>112500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>86200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>87900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>141800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>61000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>84400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9300</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>2700</v>
       </c>
       <c r="G22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
-        <v>3900</v>
-      </c>
       <c r="I22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
         <v>4500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202700</v>
+        <v>144600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1900</v>
+        <v>49000</v>
       </c>
       <c r="F23" s="3">
-        <v>146600</v>
+        <v>61100</v>
       </c>
       <c r="G23" s="3">
-        <v>5000</v>
+        <v>-2000</v>
       </c>
       <c r="H23" s="3">
-        <v>76800</v>
+        <v>152200</v>
       </c>
       <c r="I23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K23" s="3">
         <v>109100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>40700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>118900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>92700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>72300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>70000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>125500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>71400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58400</v>
+        <v>40400</v>
       </c>
       <c r="E24" s="3">
-        <v>-500</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>41600</v>
+        <v>18000</v>
       </c>
       <c r="G24" s="3">
-        <v>-5900</v>
+        <v>-600</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>43200</v>
       </c>
       <c r="I24" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K24" s="3">
         <v>32100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>34400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>18400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>36400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>20200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>144200</v>
+        <v>104200</v>
       </c>
       <c r="E26" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
-        <v>105000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>10900</v>
-      </c>
       <c r="H26" s="3">
-        <v>53800</v>
+        <v>109000</v>
       </c>
       <c r="I26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K26" s="3">
         <v>77000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>32400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>84500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>67600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>81800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>89100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>33800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>51200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>142300</v>
+        <v>105500</v>
       </c>
       <c r="E27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>104800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>10700</v>
-      </c>
       <c r="H27" s="3">
-        <v>53800</v>
+        <v>108800</v>
       </c>
       <c r="I27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K27" s="3">
         <v>76900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>14500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>32400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>84400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>67300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>81700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>89000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>33700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>51300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-107800</v>
+        <v>-18800</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>56900</v>
       </c>
       <c r="F32" s="3">
-        <v>-120100</v>
+        <v>10700</v>
       </c>
       <c r="G32" s="3">
-        <v>6400</v>
+        <v>2100</v>
       </c>
       <c r="H32" s="3">
-        <v>-23500</v>
+        <v>-124700</v>
       </c>
       <c r="I32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-22100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-33700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-28100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-18600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>142300</v>
+        <v>105500</v>
       </c>
       <c r="E33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
-        <v>104800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10700</v>
-      </c>
       <c r="H33" s="3">
-        <v>53800</v>
+        <v>108800</v>
       </c>
       <c r="I33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K33" s="3">
         <v>76900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>32400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>84400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>67300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>81700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>89000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>33700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>51300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>142300</v>
+        <v>105500</v>
       </c>
       <c r="E35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
-        <v>104800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>10700</v>
-      </c>
       <c r="H35" s="3">
-        <v>53800</v>
+        <v>108800</v>
       </c>
       <c r="I35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K35" s="3">
         <v>76900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>32400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>84400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>67300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>81700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>89000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>33700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>51300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,344 +2485,382 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>880400</v>
+        <v>993900</v>
       </c>
       <c r="E41" s="3">
-        <v>859600</v>
+        <v>966400</v>
       </c>
       <c r="F41" s="3">
-        <v>1007700</v>
+        <v>914000</v>
       </c>
       <c r="G41" s="3">
-        <v>902700</v>
+        <v>892400</v>
       </c>
       <c r="H41" s="3">
-        <v>882100</v>
+        <v>1046300</v>
       </c>
       <c r="I41" s="3">
+        <v>937200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>915800</v>
+      </c>
+      <c r="K41" s="3">
         <v>895600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>783300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>816300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>773600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1015900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>957300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>891700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>814400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>869700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>797000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>779600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="E42" s="3">
+        <v>98200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>24300</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>25200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>25100</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>25100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>58300</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>58300</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>51500</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>51500</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>243100</v>
+        <v>246500</v>
       </c>
       <c r="E43" s="3">
-        <v>235800</v>
+        <v>450200</v>
       </c>
       <c r="F43" s="3">
-        <v>228300</v>
+        <v>252400</v>
       </c>
       <c r="G43" s="3">
-        <v>187700</v>
+        <v>244800</v>
       </c>
       <c r="H43" s="3">
-        <v>210500</v>
+        <v>237000</v>
       </c>
       <c r="I43" s="3">
+        <v>194900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K43" s="3">
         <v>236200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>189500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>159000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>161100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>173100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>184800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>378200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>161600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>154200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>172900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>200600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>382400</v>
+        <v>415100</v>
       </c>
       <c r="E44" s="3">
-        <v>420100</v>
+        <v>386700</v>
       </c>
       <c r="F44" s="3">
-        <v>380800</v>
+        <v>397000</v>
       </c>
       <c r="G44" s="3">
-        <v>326700</v>
+        <v>436200</v>
       </c>
       <c r="H44" s="3">
-        <v>333600</v>
+        <v>395300</v>
       </c>
       <c r="I44" s="3">
+        <v>339200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>346400</v>
+      </c>
+      <c r="K44" s="3">
         <v>298300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>302800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>303200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>207900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>375300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>327600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>344900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>339800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>330800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>287300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>315000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46300</v>
+        <v>43000</v>
       </c>
       <c r="E45" s="3">
-        <v>54500</v>
+        <v>214900</v>
       </c>
       <c r="F45" s="3">
-        <v>39500</v>
+        <v>48000</v>
       </c>
       <c r="G45" s="3">
-        <v>62800</v>
+        <v>56500</v>
       </c>
       <c r="H45" s="3">
-        <v>58200</v>
+        <v>41000</v>
       </c>
       <c r="I45" s="3">
+        <v>65200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K45" s="3">
         <v>41700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>36900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>54200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>143700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>48700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>43300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>164900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>108800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>110500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>76600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>83300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1552100</v>
+        <v>1698500</v>
       </c>
       <c r="E46" s="3">
-        <v>1569900</v>
+        <v>1636500</v>
       </c>
       <c r="F46" s="3">
-        <v>1656200</v>
+        <v>1611500</v>
       </c>
       <c r="G46" s="3">
-        <v>1504200</v>
+        <v>1629900</v>
       </c>
       <c r="H46" s="3">
-        <v>1484400</v>
+        <v>1719600</v>
       </c>
       <c r="I46" s="3">
+        <v>1561700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1541200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1471700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1312400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1357700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1286200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1612900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1513000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1459800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1424600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1465200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1333800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1430000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2915,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1071900</v>
+        <v>1140500</v>
       </c>
       <c r="E48" s="3">
-        <v>1065300</v>
+        <v>1125100</v>
       </c>
       <c r="F48" s="3">
-        <v>1070000</v>
+        <v>1112900</v>
       </c>
       <c r="G48" s="3">
-        <v>1025400</v>
+        <v>1106000</v>
       </c>
       <c r="H48" s="3">
-        <v>1019300</v>
+        <v>1110900</v>
       </c>
       <c r="I48" s="3">
+        <v>1064600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1058300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1007700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1002800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>900100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>866300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1032100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1003900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>979400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>951400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>870000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>866800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>889400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>128100</v>
+        <v>122400</v>
       </c>
       <c r="E49" s="3">
-        <v>133400</v>
+        <v>158600</v>
       </c>
       <c r="F49" s="3">
-        <v>138600</v>
+        <v>133000</v>
       </c>
       <c r="G49" s="3">
-        <v>113700</v>
+        <v>138500</v>
       </c>
       <c r="H49" s="3">
-        <v>122700</v>
+        <v>143900</v>
       </c>
       <c r="I49" s="3">
+        <v>118100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>127300</v>
+      </c>
+      <c r="K49" s="3">
         <v>120600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>122600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>117700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>112900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>142700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>133500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>138200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>80800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>23900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>24200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>25700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55800</v>
+        <v>45600</v>
       </c>
       <c r="E52" s="3">
-        <v>55700</v>
+        <v>95400</v>
       </c>
       <c r="F52" s="3">
-        <v>41900</v>
+        <v>57900</v>
       </c>
       <c r="G52" s="3">
-        <v>51000</v>
+        <v>57800</v>
       </c>
       <c r="H52" s="3">
-        <v>55700</v>
+        <v>43500</v>
       </c>
       <c r="I52" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K52" s="3">
         <v>51900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>35100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>33500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>42200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>40500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>70700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>81700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>50900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>60400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>49100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2807900</v>
+        <v>3007000</v>
       </c>
       <c r="E54" s="3">
-        <v>2824200</v>
+        <v>2936600</v>
       </c>
       <c r="F54" s="3">
-        <v>2906800</v>
+        <v>2915300</v>
       </c>
       <c r="G54" s="3">
-        <v>2694300</v>
+        <v>2932200</v>
       </c>
       <c r="H54" s="3">
-        <v>2682100</v>
+        <v>3018000</v>
       </c>
       <c r="I54" s="3">
+        <v>2797400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2784700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2652000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2484500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2410700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2299000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2829900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2691000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2614800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2538500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2410000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2285100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2394300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>223700</v>
+        <v>211800</v>
       </c>
       <c r="E57" s="3">
-        <v>260700</v>
+        <v>238600</v>
       </c>
       <c r="F57" s="3">
-        <v>237400</v>
+        <v>232200</v>
       </c>
       <c r="G57" s="3">
-        <v>192100</v>
+        <v>270700</v>
       </c>
       <c r="H57" s="3">
-        <v>168300</v>
+        <v>246400</v>
       </c>
       <c r="I57" s="3">
+        <v>199500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K57" s="3">
         <v>171900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>148800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>182200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>149900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>173900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>193400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>227800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>216400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>173100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>193600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58400</v>
+        <v>67500</v>
       </c>
       <c r="E58" s="3">
-        <v>60800</v>
+        <v>124300</v>
       </c>
       <c r="F58" s="3">
-        <v>138700</v>
+        <v>60600</v>
       </c>
       <c r="G58" s="3">
+        <v>63200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>144000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>184100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>166400</v>
+      </c>
+      <c r="L58" s="3">
+        <v>107700</v>
+      </c>
+      <c r="M58" s="3">
+        <v>166000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>146600</v>
+      </c>
+      <c r="O58" s="3">
+        <v>179700</v>
+      </c>
+      <c r="P58" s="3">
         <v>177400</v>
       </c>
-      <c r="H58" s="3">
-        <v>170000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>166400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>107700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>166000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>146600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>179700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>177400</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>385400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>176100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>189200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>176500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>174600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64700</v>
+        <v>85300</v>
       </c>
       <c r="E59" s="3">
-        <v>80200</v>
+        <v>176900</v>
       </c>
       <c r="F59" s="3">
-        <v>58300</v>
+        <v>67200</v>
       </c>
       <c r="G59" s="3">
-        <v>61400</v>
+        <v>83300</v>
       </c>
       <c r="H59" s="3">
-        <v>61000</v>
+        <v>60500</v>
       </c>
       <c r="I59" s="3">
+        <v>63700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K59" s="3">
         <v>105800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>53500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>66100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>65600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>109900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>65800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>145200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>81900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>87600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>46200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>73400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>346800</v>
+        <v>364600</v>
       </c>
       <c r="E60" s="3">
-        <v>401800</v>
+        <v>410800</v>
       </c>
       <c r="F60" s="3">
-        <v>434300</v>
+        <v>360000</v>
       </c>
       <c r="G60" s="3">
-        <v>430900</v>
+        <v>417200</v>
       </c>
       <c r="H60" s="3">
-        <v>399200</v>
+        <v>450900</v>
       </c>
       <c r="I60" s="3">
+        <v>447400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>414500</v>
+      </c>
+      <c r="K60" s="3">
         <v>444100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>310000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>414300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>362100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>490500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>417100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>475100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>485800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>493100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>395800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>441600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100400</v>
+        <v>93400</v>
       </c>
       <c r="E61" s="3">
-        <v>104100</v>
+        <v>95500</v>
       </c>
       <c r="F61" s="3">
-        <v>118000</v>
+        <v>104000</v>
       </c>
       <c r="G61" s="3">
-        <v>103600</v>
+        <v>107900</v>
       </c>
       <c r="H61" s="3">
-        <v>116000</v>
+        <v>122500</v>
       </c>
       <c r="I61" s="3">
+        <v>107600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K61" s="3">
         <v>118900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>118200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>70400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>69600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>83300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>83300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>80400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>80400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>25900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>50500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>251300</v>
+        <v>225600</v>
       </c>
       <c r="E62" s="3">
-        <v>239800</v>
+        <v>254100</v>
       </c>
       <c r="F62" s="3">
-        <v>245500</v>
+        <v>261100</v>
       </c>
       <c r="G62" s="3">
-        <v>212500</v>
+        <v>249200</v>
       </c>
       <c r="H62" s="3">
-        <v>215700</v>
+        <v>254900</v>
       </c>
       <c r="I62" s="3">
+        <v>220600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>223900</v>
+      </c>
+      <c r="K62" s="3">
         <v>197700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>198000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>185600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>191800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>231500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>230100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>227200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>223000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>218800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>212100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>218100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>712700</v>
+        <v>712900</v>
       </c>
       <c r="E66" s="3">
-        <v>758500</v>
+        <v>761200</v>
       </c>
       <c r="F66" s="3">
-        <v>801900</v>
+        <v>739900</v>
       </c>
       <c r="G66" s="3">
-        <v>750800</v>
+        <v>787500</v>
       </c>
       <c r="H66" s="3">
-        <v>734700</v>
+        <v>832500</v>
       </c>
       <c r="I66" s="3">
+        <v>779500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>762800</v>
+      </c>
+      <c r="K66" s="3">
         <v>764400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>629800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>673500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>626600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>808900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>733900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>772600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>792200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>720000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>636600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>713000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1938200</v>
+        <v>2157700</v>
       </c>
       <c r="E72" s="3">
-        <v>1899500</v>
+        <v>2116300</v>
       </c>
       <c r="F72" s="3">
-        <v>1929500</v>
+        <v>2012300</v>
       </c>
       <c r="G72" s="3">
-        <v>1825100</v>
+        <v>1972100</v>
       </c>
       <c r="H72" s="3">
-        <v>1814800</v>
+        <v>2003300</v>
       </c>
       <c r="I72" s="3">
+        <v>1894900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1884200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1761100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1724900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1612200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1559600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1867800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1829000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1725100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1622300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1566500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1517800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1523700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2095300</v>
+        <v>2294200</v>
       </c>
       <c r="E76" s="3">
-        <v>2065700</v>
+        <v>2175400</v>
       </c>
       <c r="F76" s="3">
-        <v>2104900</v>
+        <v>2175400</v>
       </c>
       <c r="G76" s="3">
-        <v>1943500</v>
+        <v>2144700</v>
       </c>
       <c r="H76" s="3">
-        <v>1947400</v>
+        <v>2185400</v>
       </c>
       <c r="I76" s="3">
+        <v>2017800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2021900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1887500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1854700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1737200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1672400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2021000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1957000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1842200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1746300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1690000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1648500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1681300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>142300</v>
+        <v>105500</v>
       </c>
       <c r="E81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
-        <v>104800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>10700</v>
-      </c>
       <c r="H81" s="3">
-        <v>53800</v>
+        <v>108800</v>
       </c>
       <c r="I81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K81" s="3">
         <v>76900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>32400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>84400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>67300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>81700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>89000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>33700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>51300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63500</v>
+        <v>23900</v>
       </c>
       <c r="E83" s="3">
-        <v>21400</v>
+        <v>36700</v>
       </c>
       <c r="F83" s="3">
-        <v>21000</v>
+        <v>21900</v>
       </c>
       <c r="G83" s="3">
-        <v>30300</v>
+        <v>22200</v>
       </c>
       <c r="H83" s="3">
-        <v>15700</v>
+        <v>21800</v>
       </c>
       <c r="I83" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K83" s="3">
         <v>15500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>15500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>15900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>11800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>164700</v>
+        <v>46900</v>
       </c>
       <c r="E89" s="3">
-        <v>-29200</v>
+        <v>121200</v>
       </c>
       <c r="F89" s="3">
-        <v>120500</v>
+        <v>76100</v>
       </c>
       <c r="G89" s="3">
-        <v>92700</v>
+        <v>-30300</v>
       </c>
       <c r="H89" s="3">
-        <v>19400</v>
+        <v>125100</v>
       </c>
       <c r="I89" s="3">
+        <v>96200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K89" s="3">
         <v>82500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-36200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>76100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-34900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>69800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>70300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>50800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>78900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>118500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>35200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>63200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75900</v>
+        <v>-27900</v>
       </c>
       <c r="E91" s="3">
-        <v>-26000</v>
+        <v>-39000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14200</v>
+        <v>-37100</v>
       </c>
       <c r="G91" s="3">
-        <v>-43500</v>
+        <v>-27000</v>
       </c>
       <c r="H91" s="3">
-        <v>-23100</v>
+        <v>-14700</v>
       </c>
       <c r="I91" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-29600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-25500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-16300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>42000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-23300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-33300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-199500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-61500</v>
+        <v>-15000</v>
       </c>
       <c r="E94" s="3">
-        <v>-18400</v>
+        <v>-91700</v>
       </c>
       <c r="F94" s="3">
-        <v>-10500</v>
+        <v>-33900</v>
       </c>
       <c r="G94" s="3">
-        <v>-17200</v>
+        <v>-19100</v>
       </c>
       <c r="H94" s="3">
-        <v>-19100</v>
+        <v>-10900</v>
       </c>
       <c r="I94" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-169700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-20300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-23800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5548,72 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-19900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-20300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-21100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-19200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-190800</v>
+        <v>-6600</v>
       </c>
       <c r="E100" s="3">
-        <v>-110900</v>
+        <v>-13200</v>
       </c>
       <c r="F100" s="3">
-        <v>-53100</v>
+        <v>-27900</v>
       </c>
       <c r="G100" s="3">
-        <v>-10900</v>
+        <v>-115100</v>
       </c>
       <c r="H100" s="3">
-        <v>-32000</v>
+        <v>-55100</v>
       </c>
       <c r="I100" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K100" s="3">
         <v>36800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-64800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-20000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-31000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-14100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>35000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-31700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-6600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40900</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>10200</v>
+        <v>-37000</v>
       </c>
       <c r="F101" s="3">
-        <v>23800</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3">
-        <v>-17300</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>18200</v>
+        <v>28200</v>
       </c>
       <c r="I101" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>13100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-14400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>23400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-19800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>9600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-7200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-22800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-46600</v>
+        <v>27600</v>
       </c>
       <c r="E102" s="3">
-        <v>-148200</v>
+        <v>-20700</v>
       </c>
       <c r="F102" s="3">
-        <v>80700</v>
+        <v>21600</v>
       </c>
       <c r="G102" s="3">
-        <v>47300</v>
+        <v>-153800</v>
       </c>
       <c r="H102" s="3">
-        <v>-13500</v>
+        <v>83800</v>
       </c>
       <c r="I102" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K102" s="3">
         <v>112300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-109200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>85200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-79300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>58500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>33100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>68900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>72700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-12500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>34200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>972100</v>
+        <v>1035100</v>
       </c>
       <c r="E8" s="3">
-        <v>920500</v>
+        <v>960500</v>
       </c>
       <c r="F8" s="3">
-        <v>918600</v>
+        <v>909500</v>
       </c>
       <c r="G8" s="3">
-        <v>825200</v>
+        <v>907700</v>
       </c>
       <c r="H8" s="3">
-        <v>790400</v>
+        <v>815400</v>
       </c>
       <c r="I8" s="3">
-        <v>760100</v>
+        <v>780900</v>
       </c>
       <c r="J8" s="3">
+        <v>751000</v>
+      </c>
+      <c r="K8" s="3">
         <v>769000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>816700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>692800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>703200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>635300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>869200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>820400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>777500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>735300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>781800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>707800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>754400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>760300</v>
+        <v>838600</v>
       </c>
       <c r="E9" s="3">
-        <v>726600</v>
+        <v>751200</v>
       </c>
       <c r="F9" s="3">
-        <v>758700</v>
+        <v>717900</v>
       </c>
       <c r="G9" s="3">
-        <v>731900</v>
+        <v>749600</v>
       </c>
       <c r="H9" s="3">
-        <v>680800</v>
+        <v>723200</v>
       </c>
       <c r="I9" s="3">
-        <v>661400</v>
+        <v>672700</v>
       </c>
       <c r="J9" s="3">
+        <v>653500</v>
+      </c>
+      <c r="K9" s="3">
         <v>638100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>636800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>605400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>605200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>583100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>702700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>647900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>660700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>606800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>594900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>594400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>631100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>211800</v>
+        <v>196500</v>
       </c>
       <c r="E10" s="3">
-        <v>193900</v>
+        <v>209300</v>
       </c>
       <c r="F10" s="3">
-        <v>159900</v>
+        <v>191600</v>
       </c>
       <c r="G10" s="3">
-        <v>93300</v>
+        <v>158000</v>
       </c>
       <c r="H10" s="3">
-        <v>109500</v>
+        <v>92200</v>
       </c>
       <c r="I10" s="3">
-        <v>98600</v>
+        <v>108200</v>
       </c>
       <c r="J10" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K10" s="3">
         <v>130900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>179900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>87400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>98000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>166500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>172500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>128500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>186900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>113300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>123200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>843600</v>
+        <v>931500</v>
       </c>
       <c r="E17" s="3">
-        <v>813500</v>
+        <v>833600</v>
       </c>
       <c r="F17" s="3">
-        <v>844100</v>
+        <v>803800</v>
       </c>
       <c r="G17" s="3">
-        <v>821100</v>
+        <v>834000</v>
       </c>
       <c r="H17" s="3">
-        <v>760100</v>
+        <v>811200</v>
       </c>
       <c r="I17" s="3">
-        <v>745200</v>
+        <v>751000</v>
       </c>
       <c r="J17" s="3">
+        <v>736300</v>
+      </c>
+      <c r="K17" s="3">
         <v>709700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>712000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>676600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>680900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>647000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>780400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>722700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>732500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>675200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>661300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>659700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>128500</v>
+        <v>103600</v>
       </c>
       <c r="E18" s="3">
-        <v>107000</v>
+        <v>127000</v>
       </c>
       <c r="F18" s="3">
-        <v>74600</v>
+        <v>105700</v>
       </c>
       <c r="G18" s="3">
-        <v>4200</v>
+        <v>73700</v>
       </c>
       <c r="H18" s="3">
-        <v>30300</v>
+        <v>4100</v>
       </c>
       <c r="I18" s="3">
-        <v>14900</v>
+        <v>30000</v>
       </c>
       <c r="J18" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K18" s="3">
         <v>59300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>120500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>48100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>54000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18800</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-56900</v>
+        <v>18600</v>
       </c>
       <c r="F20" s="3">
-        <v>-10700</v>
+        <v>-56200</v>
       </c>
       <c r="G20" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>124700</v>
-      </c>
       <c r="I20" s="3">
-        <v>-6700</v>
+        <v>123200</v>
       </c>
       <c r="J20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K20" s="3">
         <v>24400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>18600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>171200</v>
+        <v>125300</v>
       </c>
       <c r="E21" s="3">
-        <v>86800</v>
+        <v>169200</v>
       </c>
       <c r="F21" s="3">
-        <v>85800</v>
+        <v>85700</v>
       </c>
       <c r="G21" s="3">
-        <v>24200</v>
+        <v>84800</v>
       </c>
       <c r="H21" s="3">
-        <v>176800</v>
+        <v>23900</v>
       </c>
       <c r="I21" s="3">
-        <v>39600</v>
+        <v>174700</v>
       </c>
       <c r="J21" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K21" s="3">
         <v>100100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>138300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>86200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>87900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>141800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>61000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>84400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="N22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R22" s="3">
+        <v>800</v>
+      </c>
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="T22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>144600</v>
+        <v>98800</v>
       </c>
       <c r="E23" s="3">
-        <v>49000</v>
+        <v>142800</v>
       </c>
       <c r="F23" s="3">
-        <v>61100</v>
+        <v>48400</v>
       </c>
       <c r="G23" s="3">
+        <v>60400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
-        <v>152200</v>
-      </c>
       <c r="I23" s="3">
+        <v>150400</v>
+      </c>
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>79700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>109100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>70000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>125500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>71400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40400</v>
+        <v>27200</v>
       </c>
       <c r="E24" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>18000</v>
-      </c>
       <c r="G24" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
-        <v>43200</v>
-      </c>
       <c r="I24" s="3">
+        <v>42700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>32100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O24" s="3">
         <v>-6100</v>
       </c>
-      <c r="J24" s="3">
-        <v>23800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>32100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104200</v>
+        <v>71600</v>
       </c>
       <c r="E26" s="3">
-        <v>48800</v>
+        <v>102900</v>
       </c>
       <c r="F26" s="3">
-        <v>43100</v>
+        <v>48200</v>
       </c>
       <c r="G26" s="3">
+        <v>42600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>109000</v>
-      </c>
       <c r="I26" s="3">
-        <v>11300</v>
+        <v>107700</v>
       </c>
       <c r="J26" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K26" s="3">
         <v>55900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>84500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>81800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>89100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>51200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105500</v>
+        <v>73300</v>
       </c>
       <c r="E27" s="3">
-        <v>49000</v>
+        <v>104200</v>
       </c>
       <c r="F27" s="3">
-        <v>41600</v>
+        <v>48400</v>
       </c>
       <c r="G27" s="3">
+        <v>41100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>108800</v>
-      </c>
       <c r="I27" s="3">
-        <v>11100</v>
+        <v>107500</v>
       </c>
       <c r="J27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K27" s="3">
         <v>55800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>84400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>81700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>89000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>33700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18800</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>56900</v>
+        <v>-18600</v>
       </c>
       <c r="F32" s="3">
-        <v>10700</v>
+        <v>56200</v>
       </c>
       <c r="G32" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-124700</v>
-      </c>
       <c r="I32" s="3">
-        <v>6700</v>
+        <v>-123200</v>
       </c>
       <c r="J32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-18600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105500</v>
+        <v>73300</v>
       </c>
       <c r="E33" s="3">
-        <v>49000</v>
+        <v>104200</v>
       </c>
       <c r="F33" s="3">
-        <v>41600</v>
+        <v>48400</v>
       </c>
       <c r="G33" s="3">
+        <v>41100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>108800</v>
-      </c>
       <c r="I33" s="3">
-        <v>11100</v>
+        <v>107500</v>
       </c>
       <c r="J33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K33" s="3">
         <v>55800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>84400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>89000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>33700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105500</v>
+        <v>73300</v>
       </c>
       <c r="E35" s="3">
-        <v>49000</v>
+        <v>104200</v>
       </c>
       <c r="F35" s="3">
-        <v>41600</v>
+        <v>48400</v>
       </c>
       <c r="G35" s="3">
+        <v>41100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>108800</v>
-      </c>
       <c r="I35" s="3">
-        <v>11100</v>
+        <v>107500</v>
       </c>
       <c r="J35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K35" s="3">
         <v>55800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>84400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>89000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>33700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,81 +2573,85 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>993900</v>
+        <v>1064900</v>
       </c>
       <c r="E41" s="3">
-        <v>966400</v>
+        <v>982100</v>
       </c>
       <c r="F41" s="3">
-        <v>914000</v>
+        <v>954800</v>
       </c>
       <c r="G41" s="3">
-        <v>892400</v>
+        <v>903100</v>
       </c>
       <c r="H41" s="3">
-        <v>1046300</v>
+        <v>881800</v>
       </c>
       <c r="I41" s="3">
-        <v>937200</v>
+        <v>1033800</v>
       </c>
       <c r="J41" s="3">
+        <v>926000</v>
+      </c>
+      <c r="K41" s="3">
         <v>915800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>895600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>783300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>816300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>773600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1015900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>957300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>891700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>814400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>869700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>797000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>779600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>98200</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>97100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2569,11 +2659,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>25200</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>24900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2581,11 +2671,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>25100</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2593,11 +2683,11 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>58300</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2605,262 +2695,277 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>51500</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>246500</v>
+        <v>224100</v>
       </c>
       <c r="E43" s="3">
-        <v>450200</v>
+        <v>243500</v>
       </c>
       <c r="F43" s="3">
-        <v>252400</v>
+        <v>444800</v>
       </c>
       <c r="G43" s="3">
-        <v>244800</v>
+        <v>249400</v>
       </c>
       <c r="H43" s="3">
-        <v>237000</v>
+        <v>241900</v>
       </c>
       <c r="I43" s="3">
-        <v>194900</v>
+        <v>234200</v>
       </c>
       <c r="J43" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K43" s="3">
         <v>218600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>236200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>189500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>159000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>161100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>173100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>184800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>378200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>161600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>154200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>172900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>415100</v>
+        <v>395900</v>
       </c>
       <c r="E44" s="3">
-        <v>386700</v>
+        <v>410100</v>
       </c>
       <c r="F44" s="3">
-        <v>397000</v>
+        <v>382100</v>
       </c>
       <c r="G44" s="3">
-        <v>436200</v>
+        <v>392300</v>
       </c>
       <c r="H44" s="3">
-        <v>395300</v>
+        <v>430900</v>
       </c>
       <c r="I44" s="3">
-        <v>339200</v>
+        <v>390600</v>
       </c>
       <c r="J44" s="3">
+        <v>335100</v>
+      </c>
+      <c r="K44" s="3">
         <v>346400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>298300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>302800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>303200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>207900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>375300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>327600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>344900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>339800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>330800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>287300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>315000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43000</v>
+        <v>66000</v>
       </c>
       <c r="E45" s="3">
-        <v>214900</v>
+        <v>42500</v>
       </c>
       <c r="F45" s="3">
-        <v>48000</v>
+        <v>212400</v>
       </c>
       <c r="G45" s="3">
-        <v>56500</v>
+        <v>47500</v>
       </c>
       <c r="H45" s="3">
-        <v>41000</v>
+        <v>55900</v>
       </c>
       <c r="I45" s="3">
-        <v>65200</v>
+        <v>40500</v>
       </c>
       <c r="J45" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K45" s="3">
         <v>60400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>164900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>108800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>110500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>76600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>83300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1698500</v>
+        <v>1750800</v>
       </c>
       <c r="E46" s="3">
-        <v>1636500</v>
+        <v>1678200</v>
       </c>
       <c r="F46" s="3">
-        <v>1611500</v>
+        <v>1616900</v>
       </c>
       <c r="G46" s="3">
-        <v>1629900</v>
+        <v>1592200</v>
       </c>
       <c r="H46" s="3">
-        <v>1719600</v>
+        <v>1610500</v>
       </c>
       <c r="I46" s="3">
-        <v>1561700</v>
+        <v>1699100</v>
       </c>
       <c r="J46" s="3">
+        <v>1543000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1541200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1471700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1312400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1357700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1286200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1612900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1513000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1459800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1424600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1465200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1333800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1430000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1140500</v>
+        <v>1142200</v>
       </c>
       <c r="E48" s="3">
-        <v>1125100</v>
+        <v>1126900</v>
       </c>
       <c r="F48" s="3">
-        <v>1112900</v>
+        <v>1111700</v>
       </c>
       <c r="G48" s="3">
-        <v>1106000</v>
+        <v>1099600</v>
       </c>
       <c r="H48" s="3">
-        <v>1110900</v>
+        <v>1092800</v>
       </c>
       <c r="I48" s="3">
-        <v>1064600</v>
+        <v>1097600</v>
       </c>
       <c r="J48" s="3">
+        <v>1051900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1058300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1007700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1002800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>866300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1032100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1003900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>979400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>951400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>870000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>866800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>889400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>122400</v>
+        <v>117700</v>
       </c>
       <c r="E49" s="3">
-        <v>158600</v>
+        <v>120900</v>
       </c>
       <c r="F49" s="3">
-        <v>133000</v>
+        <v>156700</v>
       </c>
       <c r="G49" s="3">
-        <v>138500</v>
+        <v>131400</v>
       </c>
       <c r="H49" s="3">
-        <v>143900</v>
+        <v>136800</v>
       </c>
       <c r="I49" s="3">
-        <v>118100</v>
+        <v>142200</v>
       </c>
       <c r="J49" s="3">
+        <v>116700</v>
+      </c>
+      <c r="K49" s="3">
         <v>127300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>120600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>117700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>112900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>142700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>133500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>138200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>25700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45600</v>
+        <v>49600</v>
       </c>
       <c r="E52" s="3">
-        <v>95400</v>
+        <v>45100</v>
       </c>
       <c r="F52" s="3">
+        <v>94300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>57300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>57100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K52" s="3">
         <v>57900</v>
       </c>
-      <c r="G52" s="3">
-        <v>57800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>43500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>53000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>57900</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>70700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>60400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>49100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3007000</v>
+        <v>3060400</v>
       </c>
       <c r="E54" s="3">
-        <v>2936600</v>
+        <v>2971100</v>
       </c>
       <c r="F54" s="3">
-        <v>2915300</v>
+        <v>2901500</v>
       </c>
       <c r="G54" s="3">
-        <v>2932200</v>
+        <v>2880500</v>
       </c>
       <c r="H54" s="3">
-        <v>3018000</v>
+        <v>2897200</v>
       </c>
       <c r="I54" s="3">
-        <v>2797400</v>
+        <v>2981900</v>
       </c>
       <c r="J54" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2784700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2652000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2484500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2410700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2299000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2829900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2691000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2614800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2538500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2410000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2285100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2394300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>211800</v>
+        <v>277500</v>
       </c>
       <c r="E57" s="3">
-        <v>238600</v>
+        <v>209300</v>
       </c>
       <c r="F57" s="3">
-        <v>232200</v>
+        <v>235700</v>
       </c>
       <c r="G57" s="3">
-        <v>270700</v>
+        <v>229400</v>
       </c>
       <c r="H57" s="3">
-        <v>246400</v>
+        <v>267500</v>
       </c>
       <c r="I57" s="3">
-        <v>199500</v>
+        <v>243500</v>
       </c>
       <c r="J57" s="3">
+        <v>197100</v>
+      </c>
+      <c r="K57" s="3">
         <v>174700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>171900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>148800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>182200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>149900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>173900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>193400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>227800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>216400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>173100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>193600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>67500</v>
+        <v>30400</v>
       </c>
       <c r="E58" s="3">
-        <v>124300</v>
+        <v>66700</v>
       </c>
       <c r="F58" s="3">
-        <v>60600</v>
+        <v>122800</v>
       </c>
       <c r="G58" s="3">
-        <v>63200</v>
+        <v>59900</v>
       </c>
       <c r="H58" s="3">
-        <v>144000</v>
+        <v>62400</v>
       </c>
       <c r="I58" s="3">
-        <v>184100</v>
+        <v>142300</v>
       </c>
       <c r="J58" s="3">
+        <v>181900</v>
+      </c>
+      <c r="K58" s="3">
         <v>176500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>166400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>107700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>166000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>146600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>179700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>177400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>385400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>176100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>189200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>176500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>174600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85300</v>
+        <v>115400</v>
       </c>
       <c r="E59" s="3">
-        <v>176900</v>
+        <v>84300</v>
       </c>
       <c r="F59" s="3">
-        <v>67200</v>
+        <v>174800</v>
       </c>
       <c r="G59" s="3">
-        <v>83300</v>
+        <v>66400</v>
       </c>
       <c r="H59" s="3">
-        <v>60500</v>
+        <v>82300</v>
       </c>
       <c r="I59" s="3">
-        <v>63700</v>
+        <v>59800</v>
       </c>
       <c r="J59" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K59" s="3">
         <v>63300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>105800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>109900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>145200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>87600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>73400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>364600</v>
+        <v>423400</v>
       </c>
       <c r="E60" s="3">
-        <v>410800</v>
+        <v>360300</v>
       </c>
       <c r="F60" s="3">
-        <v>360000</v>
+        <v>405900</v>
       </c>
       <c r="G60" s="3">
-        <v>417200</v>
+        <v>355700</v>
       </c>
       <c r="H60" s="3">
-        <v>450900</v>
+        <v>412200</v>
       </c>
       <c r="I60" s="3">
-        <v>447400</v>
+        <v>445500</v>
       </c>
       <c r="J60" s="3">
+        <v>442000</v>
+      </c>
+      <c r="K60" s="3">
         <v>414500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>444100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>310000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>414300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>362100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>490500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>417100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>475100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>485800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>493100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>395800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>441600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>93400</v>
+        <v>91200</v>
       </c>
       <c r="E61" s="3">
-        <v>95500</v>
+        <v>92300</v>
       </c>
       <c r="F61" s="3">
-        <v>104000</v>
+        <v>94300</v>
       </c>
       <c r="G61" s="3">
-        <v>107900</v>
+        <v>102800</v>
       </c>
       <c r="H61" s="3">
-        <v>122500</v>
+        <v>106600</v>
       </c>
       <c r="I61" s="3">
-        <v>107600</v>
+        <v>121100</v>
       </c>
       <c r="J61" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K61" s="3">
         <v>120400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>118900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>118200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>70400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69600</v>
-      </c>
-      <c r="O61" s="3">
-        <v>83300</v>
       </c>
       <c r="P61" s="3">
         <v>83300</v>
       </c>
       <c r="Q61" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="R61" s="3">
         <v>80400</v>
       </c>
       <c r="S61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="T61" s="3">
         <v>5200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>50500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>225600</v>
+        <v>208900</v>
       </c>
       <c r="E62" s="3">
-        <v>254100</v>
+        <v>222900</v>
       </c>
       <c r="F62" s="3">
-        <v>261100</v>
+        <v>251100</v>
       </c>
       <c r="G62" s="3">
-        <v>249200</v>
+        <v>258000</v>
       </c>
       <c r="H62" s="3">
-        <v>254900</v>
+        <v>246200</v>
       </c>
       <c r="I62" s="3">
-        <v>220600</v>
+        <v>251800</v>
       </c>
       <c r="J62" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K62" s="3">
         <v>223900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>198000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>185600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>191800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>231500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>230100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>227200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>223000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>218800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>212100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>218100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>712900</v>
+        <v>750300</v>
       </c>
       <c r="E66" s="3">
-        <v>761200</v>
+        <v>704400</v>
       </c>
       <c r="F66" s="3">
-        <v>739900</v>
+        <v>752100</v>
       </c>
       <c r="G66" s="3">
-        <v>787500</v>
+        <v>731100</v>
       </c>
       <c r="H66" s="3">
-        <v>832500</v>
+        <v>778100</v>
       </c>
       <c r="I66" s="3">
-        <v>779500</v>
+        <v>822600</v>
       </c>
       <c r="J66" s="3">
+        <v>770200</v>
+      </c>
+      <c r="K66" s="3">
         <v>762800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>764400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>629800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>673500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>626600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>808900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>733900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>772600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>792200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>720000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>636600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>713000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2157700</v>
+        <v>2184200</v>
       </c>
       <c r="E72" s="3">
-        <v>2116300</v>
+        <v>2131900</v>
       </c>
       <c r="F72" s="3">
-        <v>2012300</v>
+        <v>2091000</v>
       </c>
       <c r="G72" s="3">
-        <v>1972100</v>
+        <v>1988300</v>
       </c>
       <c r="H72" s="3">
-        <v>2003300</v>
+        <v>1948600</v>
       </c>
       <c r="I72" s="3">
-        <v>1894900</v>
+        <v>1979400</v>
       </c>
       <c r="J72" s="3">
+        <v>1872300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1884200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1761100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1724900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1612200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1559600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1867800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1829000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1725100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1622300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1566500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1517800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1523700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2294200</v>
+        <v>2310000</v>
       </c>
       <c r="E76" s="3">
-        <v>2175400</v>
+        <v>2266800</v>
       </c>
       <c r="F76" s="3">
-        <v>2175400</v>
+        <v>2149400</v>
       </c>
       <c r="G76" s="3">
-        <v>2144700</v>
+        <v>2149400</v>
       </c>
       <c r="H76" s="3">
-        <v>2185400</v>
+        <v>2119100</v>
       </c>
       <c r="I76" s="3">
-        <v>2017800</v>
+        <v>2159300</v>
       </c>
       <c r="J76" s="3">
+        <v>1993700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2021900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1887500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1854700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1737200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1672400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2021000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1957000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1842200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1746300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1690000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1648500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1681300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105500</v>
+        <v>73300</v>
       </c>
       <c r="E81" s="3">
-        <v>49000</v>
+        <v>104200</v>
       </c>
       <c r="F81" s="3">
-        <v>41600</v>
+        <v>48400</v>
       </c>
       <c r="G81" s="3">
+        <v>41100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>108800</v>
-      </c>
       <c r="I81" s="3">
-        <v>11100</v>
+        <v>107500</v>
       </c>
       <c r="J81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K81" s="3">
         <v>55800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>84400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>89000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>33700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23900</v>
+        <v>21600</v>
       </c>
       <c r="E83" s="3">
-        <v>36700</v>
+        <v>23700</v>
       </c>
       <c r="F83" s="3">
+        <v>36300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H83" s="3">
         <v>21900</v>
       </c>
-      <c r="G83" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>21800</v>
-      </c>
       <c r="I83" s="3">
-        <v>31400</v>
+        <v>21500</v>
       </c>
       <c r="J83" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K83" s="3">
         <v>16300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>15500</v>
       </c>
       <c r="L83" s="3">
         <v>15500</v>
       </c>
       <c r="M83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46900</v>
+        <v>177500</v>
       </c>
       <c r="E89" s="3">
-        <v>121200</v>
+        <v>46300</v>
       </c>
       <c r="F89" s="3">
+        <v>119700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>75200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>123600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>20100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>82500</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="N89" s="3">
         <v>76100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>125100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>96200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>20100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>82500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>76100</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-34900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>69800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>70300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>118500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27900</v>
+        <v>-37200</v>
       </c>
       <c r="E91" s="3">
-        <v>-39000</v>
+        <v>-27600</v>
       </c>
       <c r="F91" s="3">
-        <v>-37100</v>
+        <v>-38500</v>
       </c>
       <c r="G91" s="3">
-        <v>-27000</v>
+        <v>-36700</v>
       </c>
       <c r="H91" s="3">
-        <v>-14700</v>
+        <v>-26700</v>
       </c>
       <c r="I91" s="3">
-        <v>-45100</v>
+        <v>-14500</v>
       </c>
       <c r="J91" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>42000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-95400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-199500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15000</v>
+        <v>-29000</v>
       </c>
       <c r="E94" s="3">
-        <v>-91700</v>
+        <v>-14800</v>
       </c>
       <c r="F94" s="3">
-        <v>-33900</v>
+        <v>-90600</v>
       </c>
       <c r="G94" s="3">
-        <v>-19100</v>
+        <v>-33400</v>
       </c>
       <c r="H94" s="3">
-        <v>-10900</v>
+        <v>-18800</v>
       </c>
       <c r="I94" s="3">
-        <v>-17900</v>
+        <v>-10800</v>
       </c>
       <c r="J94" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-169700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5562,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-19600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5574,11 +5808,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-21100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5586,11 +5820,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-19200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5598,11 +5832,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-20200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5610,10 +5844,13 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-13200</v>
-      </c>
       <c r="F100" s="3">
-        <v>-27900</v>
+        <v>-13000</v>
       </c>
       <c r="G100" s="3">
-        <v>-115100</v>
+        <v>-27500</v>
       </c>
       <c r="H100" s="3">
-        <v>-55100</v>
+        <v>-113700</v>
       </c>
       <c r="I100" s="3">
-        <v>-11400</v>
+        <v>-54500</v>
       </c>
       <c r="J100" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-33300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-20000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>35000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-37000</v>
-      </c>
       <c r="F101" s="3">
-        <v>7200</v>
+        <v>-36600</v>
       </c>
       <c r="G101" s="3">
         <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>28200</v>
+        <v>7000</v>
       </c>
       <c r="I101" s="3">
-        <v>-17900</v>
+        <v>27900</v>
       </c>
       <c r="J101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K101" s="3">
         <v>18900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27600</v>
+        <v>82800</v>
       </c>
       <c r="E102" s="3">
-        <v>-20700</v>
+        <v>27300</v>
       </c>
       <c r="F102" s="3">
-        <v>21600</v>
+        <v>-20400</v>
       </c>
       <c r="G102" s="3">
-        <v>-153800</v>
+        <v>21300</v>
       </c>
       <c r="H102" s="3">
-        <v>83800</v>
+        <v>-152000</v>
       </c>
       <c r="I102" s="3">
-        <v>49100</v>
+        <v>82800</v>
       </c>
       <c r="J102" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-109200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>85200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-79300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>33100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-55300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>72700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1035100</v>
+        <v>933600</v>
       </c>
       <c r="E8" s="3">
-        <v>960500</v>
+        <v>962700</v>
       </c>
       <c r="F8" s="3">
-        <v>909500</v>
+        <v>893400</v>
       </c>
       <c r="G8" s="3">
-        <v>907700</v>
+        <v>845900</v>
       </c>
       <c r="H8" s="3">
-        <v>815400</v>
+        <v>844200</v>
       </c>
       <c r="I8" s="3">
-        <v>780900</v>
+        <v>758300</v>
       </c>
       <c r="J8" s="3">
+        <v>726300</v>
+      </c>
+      <c r="K8" s="3">
         <v>751000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>769000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>816700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>692800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>703200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>635300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>869200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>820400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>777500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>735300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>781800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>707800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>754400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>838600</v>
+        <v>813100</v>
       </c>
       <c r="E9" s="3">
-        <v>751200</v>
+        <v>780000</v>
       </c>
       <c r="F9" s="3">
-        <v>717900</v>
+        <v>698700</v>
       </c>
       <c r="G9" s="3">
-        <v>749600</v>
+        <v>667700</v>
       </c>
       <c r="H9" s="3">
-        <v>723200</v>
+        <v>697200</v>
       </c>
       <c r="I9" s="3">
-        <v>672700</v>
+        <v>672600</v>
       </c>
       <c r="J9" s="3">
+        <v>625700</v>
+      </c>
+      <c r="K9" s="3">
         <v>653500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>638100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>636800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>605400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>605200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>583100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>702700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>647900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>660700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>606800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>594900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>594400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>631100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>196500</v>
+        <v>120500</v>
       </c>
       <c r="E10" s="3">
-        <v>209300</v>
+        <v>182700</v>
       </c>
       <c r="F10" s="3">
-        <v>191600</v>
+        <v>194700</v>
       </c>
       <c r="G10" s="3">
-        <v>158000</v>
+        <v>178200</v>
       </c>
       <c r="H10" s="3">
-        <v>92200</v>
+        <v>147000</v>
       </c>
       <c r="I10" s="3">
-        <v>108200</v>
+        <v>85700</v>
       </c>
       <c r="J10" s="3">
+        <v>100700</v>
+      </c>
+      <c r="K10" s="3">
         <v>97500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>130900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>179900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>87400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>98000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>166500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>172500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>128500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>186900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>113300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>123200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>931500</v>
+        <v>899500</v>
       </c>
       <c r="E17" s="3">
-        <v>833600</v>
+        <v>866300</v>
       </c>
       <c r="F17" s="3">
-        <v>803800</v>
+        <v>775300</v>
       </c>
       <c r="G17" s="3">
-        <v>834000</v>
+        <v>747600</v>
       </c>
       <c r="H17" s="3">
-        <v>811200</v>
+        <v>775700</v>
       </c>
       <c r="I17" s="3">
-        <v>751000</v>
+        <v>754500</v>
       </c>
       <c r="J17" s="3">
+        <v>698500</v>
+      </c>
+      <c r="K17" s="3">
         <v>736300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>709700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>712000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>676600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>680900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>647000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>780400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>722700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>732500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>675200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>661300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>659700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>103600</v>
+        <v>34100</v>
       </c>
       <c r="E18" s="3">
-        <v>127000</v>
+        <v>96400</v>
       </c>
       <c r="F18" s="3">
-        <v>105700</v>
+        <v>118100</v>
       </c>
       <c r="G18" s="3">
-        <v>73700</v>
+        <v>98300</v>
       </c>
       <c r="H18" s="3">
-        <v>4100</v>
+        <v>68500</v>
       </c>
       <c r="I18" s="3">
-        <v>30000</v>
+        <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K18" s="3">
         <v>14700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>104700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>120500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>48100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>54000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>114600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>24400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>22100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>33700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>28100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>12900</v>
+      </c>
+      <c r="U20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W20" s="3">
         <v>18600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-56200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>123200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>24400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>8900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>22100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>33700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>28100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>12900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>7500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>18600</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125300</v>
+        <v>79000</v>
       </c>
       <c r="E21" s="3">
-        <v>169200</v>
+        <v>116600</v>
       </c>
       <c r="F21" s="3">
-        <v>85700</v>
+        <v>157400</v>
       </c>
       <c r="G21" s="3">
-        <v>84800</v>
+        <v>79700</v>
       </c>
       <c r="H21" s="3">
-        <v>23900</v>
+        <v>78800</v>
       </c>
       <c r="I21" s="3">
-        <v>174700</v>
+        <v>22300</v>
       </c>
       <c r="J21" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K21" s="3">
         <v>39100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>129000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>138300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>112500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>86200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>87900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>141800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>61000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>84400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>3100</v>
       </c>
       <c r="E22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="O22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S22" s="3">
+        <v>800</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>98800</v>
+        <v>55300</v>
       </c>
       <c r="E23" s="3">
-        <v>142800</v>
+        <v>91900</v>
       </c>
       <c r="F23" s="3">
-        <v>48400</v>
+        <v>132800</v>
       </c>
       <c r="G23" s="3">
-        <v>60400</v>
+        <v>45000</v>
       </c>
       <c r="H23" s="3">
-        <v>-2000</v>
+        <v>56200</v>
       </c>
       <c r="I23" s="3">
-        <v>150400</v>
+        <v>-1800</v>
       </c>
       <c r="J23" s="3">
+        <v>139900</v>
+      </c>
+      <c r="K23" s="3">
         <v>5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>109100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>70000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>125500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>71400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27200</v>
+        <v>17600</v>
       </c>
       <c r="E24" s="3">
-        <v>39900</v>
+        <v>25300</v>
       </c>
       <c r="F24" s="3">
+        <v>37100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>17800</v>
-      </c>
       <c r="H24" s="3">
-        <v>-600</v>
+        <v>16600</v>
       </c>
       <c r="I24" s="3">
-        <v>42700</v>
+        <v>-500</v>
       </c>
       <c r="J24" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71600</v>
+        <v>37700</v>
       </c>
       <c r="E26" s="3">
-        <v>102900</v>
+        <v>66600</v>
       </c>
       <c r="F26" s="3">
-        <v>48200</v>
+        <v>95700</v>
       </c>
       <c r="G26" s="3">
-        <v>42600</v>
+        <v>44900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1400</v>
+        <v>39600</v>
       </c>
       <c r="I26" s="3">
-        <v>107700</v>
+        <v>-1300</v>
       </c>
       <c r="J26" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>84500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>81800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>89100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73300</v>
+        <v>38900</v>
       </c>
       <c r="E27" s="3">
-        <v>104200</v>
+        <v>68200</v>
       </c>
       <c r="F27" s="3">
-        <v>48400</v>
+        <v>96900</v>
       </c>
       <c r="G27" s="3">
-        <v>41100</v>
+        <v>45000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1700</v>
+        <v>38200</v>
       </c>
       <c r="I27" s="3">
-        <v>107500</v>
+        <v>-1600</v>
       </c>
       <c r="J27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K27" s="3">
         <v>11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>84400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>81700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>89000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>52300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-114600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>900</v>
+      </c>
+      <c r="W32" s="3">
         <v>-18600</v>
       </c>
-      <c r="F32" s="3">
-        <v>56200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-123200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73300</v>
+        <v>38900</v>
       </c>
       <c r="E33" s="3">
-        <v>104200</v>
+        <v>68200</v>
       </c>
       <c r="F33" s="3">
-        <v>48400</v>
+        <v>96900</v>
       </c>
       <c r="G33" s="3">
-        <v>41100</v>
+        <v>45000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1700</v>
+        <v>38200</v>
       </c>
       <c r="I33" s="3">
-        <v>107500</v>
+        <v>-1600</v>
       </c>
       <c r="J33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K33" s="3">
         <v>11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>84400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>81700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>89000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73300</v>
+        <v>38900</v>
       </c>
       <c r="E35" s="3">
-        <v>104200</v>
+        <v>68200</v>
       </c>
       <c r="F35" s="3">
-        <v>48400</v>
+        <v>96900</v>
       </c>
       <c r="G35" s="3">
-        <v>41100</v>
+        <v>45000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1700</v>
+        <v>38200</v>
       </c>
       <c r="I35" s="3">
-        <v>107500</v>
+        <v>-1600</v>
       </c>
       <c r="J35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K35" s="3">
         <v>11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>84400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>81700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>89000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1064900</v>
+        <v>927100</v>
       </c>
       <c r="E41" s="3">
-        <v>982100</v>
+        <v>990400</v>
       </c>
       <c r="F41" s="3">
-        <v>954800</v>
+        <v>913400</v>
       </c>
       <c r="G41" s="3">
-        <v>903100</v>
+        <v>888000</v>
       </c>
       <c r="H41" s="3">
-        <v>881800</v>
+        <v>840000</v>
       </c>
       <c r="I41" s="3">
-        <v>1033800</v>
+        <v>820100</v>
       </c>
       <c r="J41" s="3">
+        <v>961500</v>
+      </c>
+      <c r="K41" s="3">
         <v>926000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>915800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>895600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>783300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>816300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>773600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1015900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>957300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>891700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>814400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>869700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>797000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>779600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,11 +2740,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>97100</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>90300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2662,11 +2752,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>24900</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2674,11 +2764,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>25100</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2686,11 +2776,11 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>58300</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2698,274 +2788,289 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>51500</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>224100</v>
+        <v>229400</v>
       </c>
       <c r="E43" s="3">
-        <v>243500</v>
+        <v>208400</v>
       </c>
       <c r="F43" s="3">
-        <v>444800</v>
+        <v>226500</v>
       </c>
       <c r="G43" s="3">
-        <v>249400</v>
+        <v>413700</v>
       </c>
       <c r="H43" s="3">
-        <v>241900</v>
+        <v>232000</v>
       </c>
       <c r="I43" s="3">
-        <v>234200</v>
+        <v>225000</v>
       </c>
       <c r="J43" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K43" s="3">
         <v>192600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>218600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>236200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>189500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>159000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>161100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>173100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>184800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>378200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>161600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>154200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>172900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>395900</v>
+        <v>406800</v>
       </c>
       <c r="E44" s="3">
-        <v>410100</v>
+        <v>368200</v>
       </c>
       <c r="F44" s="3">
-        <v>382100</v>
+        <v>381400</v>
       </c>
       <c r="G44" s="3">
-        <v>392300</v>
+        <v>355400</v>
       </c>
       <c r="H44" s="3">
-        <v>430900</v>
+        <v>364800</v>
       </c>
       <c r="I44" s="3">
-        <v>390600</v>
+        <v>400800</v>
       </c>
       <c r="J44" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K44" s="3">
         <v>335100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>346400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>298300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>302800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>303200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>207900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>375300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>327600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>344900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>339800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>330800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>287300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>315000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66000</v>
+        <v>104500</v>
       </c>
       <c r="E45" s="3">
-        <v>42500</v>
+        <v>61400</v>
       </c>
       <c r="F45" s="3">
-        <v>212400</v>
+        <v>39500</v>
       </c>
       <c r="G45" s="3">
-        <v>47500</v>
+        <v>197500</v>
       </c>
       <c r="H45" s="3">
-        <v>55900</v>
+        <v>44100</v>
       </c>
       <c r="I45" s="3">
-        <v>40500</v>
+        <v>52000</v>
       </c>
       <c r="J45" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K45" s="3">
         <v>64400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>164900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>108800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>110500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>76600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>83300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1750800</v>
+        <v>1667700</v>
       </c>
       <c r="E46" s="3">
-        <v>1678200</v>
+        <v>1628400</v>
       </c>
       <c r="F46" s="3">
-        <v>1616900</v>
+        <v>1560800</v>
       </c>
       <c r="G46" s="3">
-        <v>1592200</v>
+        <v>1503800</v>
       </c>
       <c r="H46" s="3">
-        <v>1610500</v>
+        <v>1480900</v>
       </c>
       <c r="I46" s="3">
-        <v>1699100</v>
+        <v>1497800</v>
       </c>
       <c r="J46" s="3">
+        <v>1580200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1543000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1541200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1471700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1312400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1357700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1286200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1612900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1513000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1459800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1424600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1465200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1333800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1430000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1142200</v>
+        <v>1095200</v>
       </c>
       <c r="E48" s="3">
-        <v>1126900</v>
+        <v>1062400</v>
       </c>
       <c r="F48" s="3">
-        <v>1111700</v>
+        <v>1048100</v>
       </c>
       <c r="G48" s="3">
-        <v>1099600</v>
+        <v>1034000</v>
       </c>
       <c r="H48" s="3">
-        <v>1092800</v>
+        <v>1022700</v>
       </c>
       <c r="I48" s="3">
-        <v>1097600</v>
+        <v>1016400</v>
       </c>
       <c r="J48" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1051900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1058300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1007700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1002800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>866300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1032100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1003900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>979400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>951400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>870000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>866800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>889400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>109500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>112500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>145700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>122300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>127300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>116700</v>
+      </c>
+      <c r="L49" s="3">
+        <v>127300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>120600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>122600</v>
+      </c>
+      <c r="O49" s="3">
         <v>117700</v>
       </c>
-      <c r="E49" s="3">
-        <v>120900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>156700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>131400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>136800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>142200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>116700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>127300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>120600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>122600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>117700</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>112900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>142700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>133500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>138200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>25700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49600</v>
+        <v>44600</v>
       </c>
       <c r="E52" s="3">
-        <v>45100</v>
+        <v>46100</v>
       </c>
       <c r="F52" s="3">
-        <v>94300</v>
+        <v>41900</v>
       </c>
       <c r="G52" s="3">
-        <v>57300</v>
+        <v>87700</v>
       </c>
       <c r="H52" s="3">
-        <v>57100</v>
+        <v>53200</v>
       </c>
       <c r="I52" s="3">
-        <v>43000</v>
+        <v>53100</v>
       </c>
       <c r="J52" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K52" s="3">
         <v>52400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>70700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>60400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>49100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3060400</v>
+        <v>2919600</v>
       </c>
       <c r="E54" s="3">
-        <v>2971100</v>
+        <v>2846400</v>
       </c>
       <c r="F54" s="3">
-        <v>2901500</v>
+        <v>2763300</v>
       </c>
       <c r="G54" s="3">
-        <v>2880500</v>
+        <v>2698600</v>
       </c>
       <c r="H54" s="3">
-        <v>2897200</v>
+        <v>2679100</v>
       </c>
       <c r="I54" s="3">
-        <v>2981900</v>
+        <v>2694600</v>
       </c>
       <c r="J54" s="3">
+        <v>2773400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2764000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2784700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2652000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2484500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2410700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2299000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2829900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2691000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2614800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2538500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2410000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2285100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2394300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>277500</v>
+        <v>300100</v>
       </c>
       <c r="E57" s="3">
-        <v>209300</v>
+        <v>258100</v>
       </c>
       <c r="F57" s="3">
-        <v>235700</v>
+        <v>194600</v>
       </c>
       <c r="G57" s="3">
-        <v>229400</v>
+        <v>219200</v>
       </c>
       <c r="H57" s="3">
-        <v>267500</v>
+        <v>213400</v>
       </c>
       <c r="I57" s="3">
-        <v>243500</v>
+        <v>248800</v>
       </c>
       <c r="J57" s="3">
+        <v>226500</v>
+      </c>
+      <c r="K57" s="3">
         <v>197100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>171900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>148800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>182200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>149900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>173900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>193400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>227800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>216400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>173100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>193600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30400</v>
+        <v>95000</v>
       </c>
       <c r="E58" s="3">
-        <v>66700</v>
+        <v>28300</v>
       </c>
       <c r="F58" s="3">
-        <v>122800</v>
+        <v>62000</v>
       </c>
       <c r="G58" s="3">
-        <v>59900</v>
+        <v>114200</v>
       </c>
       <c r="H58" s="3">
-        <v>62400</v>
+        <v>55700</v>
       </c>
       <c r="I58" s="3">
-        <v>142300</v>
+        <v>58100</v>
       </c>
       <c r="J58" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K58" s="3">
         <v>181900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>176500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>166400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>107700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>166000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>146600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>179700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>177400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>385400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>176100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>189200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>176500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>174600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115400</v>
+        <v>84300</v>
       </c>
       <c r="E59" s="3">
-        <v>84300</v>
+        <v>107400</v>
       </c>
       <c r="F59" s="3">
-        <v>174800</v>
+        <v>78400</v>
       </c>
       <c r="G59" s="3">
-        <v>66400</v>
+        <v>162600</v>
       </c>
       <c r="H59" s="3">
-        <v>82300</v>
+        <v>61700</v>
       </c>
       <c r="I59" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>63000</v>
+      </c>
+      <c r="L59" s="3">
+        <v>63300</v>
+      </c>
+      <c r="M59" s="3">
+        <v>105800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>53500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>65600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>109900</v>
+      </c>
+      <c r="R59" s="3">
+        <v>65800</v>
+      </c>
+      <c r="S59" s="3">
+        <v>145200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>81900</v>
+      </c>
+      <c r="U59" s="3">
+        <v>87600</v>
+      </c>
+      <c r="V59" s="3">
+        <v>46200</v>
+      </c>
+      <c r="W59" s="3">
+        <v>73400</v>
+      </c>
+      <c r="X59" s="3">
         <v>59800</v>
       </c>
-      <c r="J59" s="3">
-        <v>63000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>63300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>105800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>53500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>66100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>65600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>109900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>65800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>145200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>81900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>87600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>46200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>73400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>59800</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>423400</v>
+        <v>479400</v>
       </c>
       <c r="E60" s="3">
-        <v>360300</v>
+        <v>393800</v>
       </c>
       <c r="F60" s="3">
-        <v>405900</v>
+        <v>335100</v>
       </c>
       <c r="G60" s="3">
-        <v>355700</v>
+        <v>377500</v>
       </c>
       <c r="H60" s="3">
-        <v>412200</v>
+        <v>330900</v>
       </c>
       <c r="I60" s="3">
-        <v>445500</v>
+        <v>383400</v>
       </c>
       <c r="J60" s="3">
+        <v>414400</v>
+      </c>
+      <c r="K60" s="3">
         <v>442000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>414500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>444100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>310000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>414300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>362100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>490500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>417100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>475100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>485800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>493100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>395800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>441600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91200</v>
+        <v>15200</v>
       </c>
       <c r="E61" s="3">
-        <v>92300</v>
+        <v>84800</v>
       </c>
       <c r="F61" s="3">
-        <v>94300</v>
+        <v>85800</v>
       </c>
       <c r="G61" s="3">
-        <v>102800</v>
+        <v>87700</v>
       </c>
       <c r="H61" s="3">
-        <v>106600</v>
+        <v>95600</v>
       </c>
       <c r="I61" s="3">
-        <v>121100</v>
+        <v>99100</v>
       </c>
       <c r="J61" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K61" s="3">
         <v>106300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>120400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>118900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>118200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>70400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>69600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>83300</v>
       </c>
       <c r="Q61" s="3">
         <v>83300</v>
       </c>
       <c r="R61" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="S61" s="3">
         <v>80400</v>
       </c>
       <c r="T61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="U61" s="3">
         <v>5200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>50500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>208900</v>
+        <v>225400</v>
       </c>
       <c r="E62" s="3">
-        <v>222900</v>
+        <v>194300</v>
       </c>
       <c r="F62" s="3">
-        <v>251100</v>
+        <v>207300</v>
       </c>
       <c r="G62" s="3">
-        <v>258000</v>
+        <v>233500</v>
       </c>
       <c r="H62" s="3">
-        <v>246200</v>
+        <v>239900</v>
       </c>
       <c r="I62" s="3">
-        <v>251800</v>
+        <v>229000</v>
       </c>
       <c r="J62" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K62" s="3">
         <v>217900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>223900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>197700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>198000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>185600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>191800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>231500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>230100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>227200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>223000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>218800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>212100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>218100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>750300</v>
+        <v>743800</v>
       </c>
       <c r="E66" s="3">
-        <v>704400</v>
+        <v>697900</v>
       </c>
       <c r="F66" s="3">
-        <v>752100</v>
+        <v>655100</v>
       </c>
       <c r="G66" s="3">
-        <v>731100</v>
+        <v>699500</v>
       </c>
       <c r="H66" s="3">
-        <v>778100</v>
+        <v>680000</v>
       </c>
       <c r="I66" s="3">
-        <v>822600</v>
+        <v>723700</v>
       </c>
       <c r="J66" s="3">
+        <v>765100</v>
+      </c>
+      <c r="K66" s="3">
         <v>770200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>762800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>764400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>629800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>673500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>626600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>808900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>733900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>772600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>792200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>720000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>636600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>713000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2184200</v>
+        <v>2046500</v>
       </c>
       <c r="E72" s="3">
-        <v>2131900</v>
+        <v>2031400</v>
       </c>
       <c r="F72" s="3">
-        <v>2091000</v>
+        <v>1982800</v>
       </c>
       <c r="G72" s="3">
-        <v>1988300</v>
+        <v>1944800</v>
       </c>
       <c r="H72" s="3">
-        <v>1948600</v>
+        <v>1849200</v>
       </c>
       <c r="I72" s="3">
-        <v>1979400</v>
+        <v>1812300</v>
       </c>
       <c r="J72" s="3">
+        <v>1840900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1872300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1884200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1761100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1724900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1612200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1559600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1867800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1829000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1725100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1622300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1566500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1517800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1523700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2310000</v>
+        <v>2175700</v>
       </c>
       <c r="E76" s="3">
-        <v>2266800</v>
+        <v>2148500</v>
       </c>
       <c r="F76" s="3">
-        <v>2149400</v>
+        <v>2108200</v>
       </c>
       <c r="G76" s="3">
-        <v>2149400</v>
+        <v>1999100</v>
       </c>
       <c r="H76" s="3">
-        <v>2119100</v>
+        <v>1999100</v>
       </c>
       <c r="I76" s="3">
-        <v>2159300</v>
+        <v>1970900</v>
       </c>
       <c r="J76" s="3">
+        <v>2008300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1993700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2021900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1887500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1854700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1737200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1672400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2021000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1957000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1842200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1746300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1690000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1648500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1681300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73300</v>
+        <v>38900</v>
       </c>
       <c r="E81" s="3">
-        <v>104200</v>
+        <v>68200</v>
       </c>
       <c r="F81" s="3">
-        <v>48400</v>
+        <v>96900</v>
       </c>
       <c r="G81" s="3">
-        <v>41100</v>
+        <v>45000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1700</v>
+        <v>38200</v>
       </c>
       <c r="I81" s="3">
-        <v>107500</v>
+        <v>-1600</v>
       </c>
       <c r="J81" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K81" s="3">
         <v>11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>84400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>81700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>89000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="E83" s="3">
-        <v>23700</v>
+        <v>20100</v>
       </c>
       <c r="F83" s="3">
-        <v>36300</v>
+        <v>22000</v>
       </c>
       <c r="G83" s="3">
-        <v>21700</v>
+        <v>33700</v>
       </c>
       <c r="H83" s="3">
-        <v>21900</v>
+        <v>20200</v>
       </c>
       <c r="I83" s="3">
-        <v>21500</v>
+        <v>20400</v>
       </c>
       <c r="J83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K83" s="3">
         <v>31100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>15500</v>
       </c>
       <c r="M83" s="3">
         <v>15500</v>
       </c>
       <c r="N83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>177500</v>
+        <v>-7500</v>
       </c>
       <c r="E89" s="3">
-        <v>46300</v>
+        <v>165100</v>
       </c>
       <c r="F89" s="3">
-        <v>119700</v>
+        <v>43100</v>
       </c>
       <c r="G89" s="3">
-        <v>75200</v>
+        <v>111400</v>
       </c>
       <c r="H89" s="3">
-        <v>-29900</v>
+        <v>69900</v>
       </c>
       <c r="I89" s="3">
-        <v>123600</v>
+        <v>-27800</v>
       </c>
       <c r="J89" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K89" s="3">
         <v>95100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>82500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-36200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>76100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-34900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>69800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>70300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>78900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>118500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>63200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37200</v>
+        <v>-43600</v>
       </c>
       <c r="E91" s="3">
-        <v>-27600</v>
+        <v>-34600</v>
       </c>
       <c r="F91" s="3">
-        <v>-38500</v>
+        <v>-25600</v>
       </c>
       <c r="G91" s="3">
-        <v>-36700</v>
+        <v>-35800</v>
       </c>
       <c r="H91" s="3">
-        <v>-26700</v>
+        <v>-34100</v>
       </c>
       <c r="I91" s="3">
-        <v>-14500</v>
+        <v>-24800</v>
       </c>
       <c r="J91" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-44600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>42000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-95400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-199500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29000</v>
+        <v>-34400</v>
       </c>
       <c r="E94" s="3">
-        <v>-14800</v>
+        <v>-27000</v>
       </c>
       <c r="F94" s="3">
-        <v>-90600</v>
+        <v>-13800</v>
       </c>
       <c r="G94" s="3">
-        <v>-33400</v>
+        <v>-84300</v>
       </c>
       <c r="H94" s="3">
-        <v>-18800</v>
+        <v>-31100</v>
       </c>
       <c r="I94" s="3">
-        <v>-10800</v>
+        <v>-17500</v>
       </c>
       <c r="J94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-169700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-23800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,13 +6017,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-19700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5799,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-19600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-18300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5811,11 +6045,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-21100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5823,11 +6057,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-19200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5835,11 +6069,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-20200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -5847,10 +6081,13 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63500</v>
+        <v>-23700</v>
       </c>
       <c r="E100" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>36800</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>35000</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="W100" s="3">
         <v>-6600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-113700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-54500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-33300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>36800</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-64800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>6100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>35000</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>2300</v>
+        <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>-36600</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>-34000</v>
       </c>
       <c r="H101" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="I101" s="3">
-        <v>27900</v>
+        <v>6500</v>
       </c>
       <c r="J101" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-19800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>82800</v>
+        <v>-63400</v>
       </c>
       <c r="E102" s="3">
-        <v>27300</v>
+        <v>77000</v>
       </c>
       <c r="F102" s="3">
-        <v>-20400</v>
+        <v>25400</v>
       </c>
       <c r="G102" s="3">
-        <v>21300</v>
+        <v>-19000</v>
       </c>
       <c r="H102" s="3">
-        <v>-152000</v>
+        <v>19800</v>
       </c>
       <c r="I102" s="3">
-        <v>82800</v>
+        <v>-141400</v>
       </c>
       <c r="J102" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K102" s="3">
         <v>48500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>112300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-109200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>85200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-79300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>33100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>68900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-55300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>72700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>34200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>933600</v>
+        <v>968000</v>
       </c>
       <c r="E8" s="3">
-        <v>962700</v>
+        <v>998200</v>
       </c>
       <c r="F8" s="3">
-        <v>893400</v>
+        <v>926300</v>
       </c>
       <c r="G8" s="3">
-        <v>845900</v>
+        <v>877100</v>
       </c>
       <c r="H8" s="3">
-        <v>844200</v>
+        <v>875300</v>
       </c>
       <c r="I8" s="3">
-        <v>758300</v>
+        <v>786300</v>
       </c>
       <c r="J8" s="3">
-        <v>726300</v>
+        <v>753100</v>
       </c>
       <c r="K8" s="3">
         <v>751000</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>813100</v>
+        <v>843100</v>
       </c>
       <c r="E9" s="3">
-        <v>780000</v>
+        <v>808700</v>
       </c>
       <c r="F9" s="3">
-        <v>698700</v>
+        <v>724400</v>
       </c>
       <c r="G9" s="3">
-        <v>667700</v>
+        <v>692300</v>
       </c>
       <c r="H9" s="3">
-        <v>697200</v>
+        <v>722900</v>
       </c>
       <c r="I9" s="3">
-        <v>672600</v>
+        <v>697400</v>
       </c>
       <c r="J9" s="3">
-        <v>625700</v>
+        <v>648700</v>
       </c>
       <c r="K9" s="3">
         <v>653500</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>120500</v>
+        <v>124900</v>
       </c>
       <c r="E10" s="3">
-        <v>182700</v>
+        <v>189500</v>
       </c>
       <c r="F10" s="3">
-        <v>194700</v>
+        <v>201800</v>
       </c>
       <c r="G10" s="3">
-        <v>178200</v>
+        <v>184800</v>
       </c>
       <c r="H10" s="3">
-        <v>147000</v>
+        <v>152400</v>
       </c>
       <c r="I10" s="3">
-        <v>85700</v>
+        <v>88900</v>
       </c>
       <c r="J10" s="3">
-        <v>100700</v>
+        <v>104400</v>
       </c>
       <c r="K10" s="3">
         <v>97500</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>899500</v>
+        <v>932600</v>
       </c>
       <c r="E17" s="3">
-        <v>866300</v>
+        <v>898200</v>
       </c>
       <c r="F17" s="3">
-        <v>775300</v>
+        <v>803800</v>
       </c>
       <c r="G17" s="3">
-        <v>747600</v>
+        <v>775100</v>
       </c>
       <c r="H17" s="3">
-        <v>775700</v>
+        <v>804200</v>
       </c>
       <c r="I17" s="3">
-        <v>754500</v>
+        <v>782300</v>
       </c>
       <c r="J17" s="3">
-        <v>698500</v>
+        <v>724200</v>
       </c>
       <c r="K17" s="3">
         <v>736300</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="E18" s="3">
-        <v>96400</v>
+        <v>99900</v>
       </c>
       <c r="F18" s="3">
-        <v>118100</v>
+        <v>122400</v>
       </c>
       <c r="G18" s="3">
-        <v>98300</v>
+        <v>101900</v>
       </c>
       <c r="H18" s="3">
-        <v>68500</v>
+        <v>71000</v>
       </c>
       <c r="I18" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J18" s="3">
-        <v>27900</v>
+        <v>28900</v>
       </c>
       <c r="K18" s="3">
         <v>14700</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="G20" s="3">
-        <v>-52300</v>
+        <v>-54200</v>
       </c>
       <c r="H20" s="3">
-        <v>-9800</v>
+        <v>-10200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J20" s="3">
-        <v>114600</v>
+        <v>118800</v>
       </c>
       <c r="K20" s="3">
         <v>-6600</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>79000</v>
+        <v>82000</v>
       </c>
       <c r="E21" s="3">
-        <v>116600</v>
+        <v>120900</v>
       </c>
       <c r="F21" s="3">
-        <v>157400</v>
+        <v>163200</v>
       </c>
       <c r="G21" s="3">
-        <v>79700</v>
+        <v>82700</v>
       </c>
       <c r="H21" s="3">
-        <v>78800</v>
+        <v>81800</v>
       </c>
       <c r="I21" s="3">
-        <v>22300</v>
+        <v>23100</v>
       </c>
       <c r="J21" s="3">
-        <v>162500</v>
+        <v>168500</v>
       </c>
       <c r="K21" s="3">
         <v>39100</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F22" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I22" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K22" s="3">
         <v>2900</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55300</v>
+        <v>57300</v>
       </c>
       <c r="E23" s="3">
-        <v>91900</v>
+        <v>95300</v>
       </c>
       <c r="F23" s="3">
-        <v>132800</v>
+        <v>137700</v>
       </c>
       <c r="G23" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="H23" s="3">
-        <v>56200</v>
+        <v>58200</v>
       </c>
       <c r="I23" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J23" s="3">
-        <v>139900</v>
+        <v>145000</v>
       </c>
       <c r="K23" s="3">
         <v>5200</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="E24" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="F24" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="I24" s="3">
         <v>-500</v>
       </c>
       <c r="J24" s="3">
-        <v>39700</v>
+        <v>41200</v>
       </c>
       <c r="K24" s="3">
         <v>-6000</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="E26" s="3">
-        <v>66600</v>
+        <v>69100</v>
       </c>
       <c r="F26" s="3">
-        <v>95700</v>
+        <v>99300</v>
       </c>
       <c r="G26" s="3">
-        <v>44900</v>
+        <v>46500</v>
       </c>
       <c r="H26" s="3">
-        <v>39600</v>
+        <v>41100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J26" s="3">
-        <v>100200</v>
+        <v>103800</v>
       </c>
       <c r="K26" s="3">
         <v>11200</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="E27" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="F27" s="3">
-        <v>96900</v>
+        <v>100500</v>
       </c>
       <c r="G27" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="H27" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J27" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="K27" s="3">
         <v>11000</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24300</v>
+        <v>-25200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-17300</v>
+        <v>-17900</v>
       </c>
       <c r="G32" s="3">
-        <v>52300</v>
+        <v>54200</v>
       </c>
       <c r="H32" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="I32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="3">
-        <v>-114600</v>
+        <v>-118800</v>
       </c>
       <c r="K32" s="3">
         <v>6600</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="E33" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="F33" s="3">
-        <v>96900</v>
+        <v>100500</v>
       </c>
       <c r="G33" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="H33" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J33" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="K33" s="3">
         <v>11000</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="E35" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="F35" s="3">
-        <v>96900</v>
+        <v>100500</v>
       </c>
       <c r="G35" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="H35" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J35" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="K35" s="3">
         <v>11000</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>927100</v>
+        <v>961200</v>
       </c>
       <c r="E41" s="3">
-        <v>990400</v>
+        <v>1026900</v>
       </c>
       <c r="F41" s="3">
-        <v>913400</v>
+        <v>947000</v>
       </c>
       <c r="G41" s="3">
-        <v>888000</v>
+        <v>920700</v>
       </c>
       <c r="H41" s="3">
-        <v>840000</v>
+        <v>870900</v>
       </c>
       <c r="I41" s="3">
-        <v>820100</v>
+        <v>850300</v>
       </c>
       <c r="J41" s="3">
-        <v>961500</v>
+        <v>996900</v>
       </c>
       <c r="K41" s="3">
         <v>926000</v>
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>90300</v>
+        <v>93600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>229400</v>
+        <v>237900</v>
       </c>
       <c r="E43" s="3">
-        <v>208400</v>
+        <v>216100</v>
       </c>
       <c r="F43" s="3">
-        <v>226500</v>
+        <v>234800</v>
       </c>
       <c r="G43" s="3">
-        <v>413700</v>
+        <v>428900</v>
       </c>
       <c r="H43" s="3">
-        <v>232000</v>
+        <v>240500</v>
       </c>
       <c r="I43" s="3">
-        <v>225000</v>
+        <v>233300</v>
       </c>
       <c r="J43" s="3">
-        <v>217800</v>
+        <v>225800</v>
       </c>
       <c r="K43" s="3">
         <v>192600</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>406800</v>
+        <v>421800</v>
       </c>
       <c r="E44" s="3">
-        <v>368200</v>
+        <v>381700</v>
       </c>
       <c r="F44" s="3">
-        <v>381400</v>
+        <v>395500</v>
       </c>
       <c r="G44" s="3">
-        <v>355400</v>
+        <v>368500</v>
       </c>
       <c r="H44" s="3">
-        <v>364800</v>
+        <v>378300</v>
       </c>
       <c r="I44" s="3">
-        <v>400800</v>
+        <v>415600</v>
       </c>
       <c r="J44" s="3">
-        <v>363300</v>
+        <v>376700</v>
       </c>
       <c r="K44" s="3">
         <v>335100</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104500</v>
+        <v>108300</v>
       </c>
       <c r="E45" s="3">
-        <v>61400</v>
+        <v>63600</v>
       </c>
       <c r="F45" s="3">
-        <v>39500</v>
+        <v>41000</v>
       </c>
       <c r="G45" s="3">
-        <v>197500</v>
+        <v>204800</v>
       </c>
       <c r="H45" s="3">
-        <v>44100</v>
+        <v>45800</v>
       </c>
       <c r="I45" s="3">
-        <v>52000</v>
+        <v>53900</v>
       </c>
       <c r="J45" s="3">
-        <v>37700</v>
+        <v>39000</v>
       </c>
       <c r="K45" s="3">
         <v>64400</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1667700</v>
+        <v>1729200</v>
       </c>
       <c r="E46" s="3">
-        <v>1628400</v>
+        <v>1688400</v>
       </c>
       <c r="F46" s="3">
-        <v>1560800</v>
+        <v>1618300</v>
       </c>
       <c r="G46" s="3">
-        <v>1503800</v>
+        <v>1559200</v>
       </c>
       <c r="H46" s="3">
-        <v>1480900</v>
+        <v>1535400</v>
       </c>
       <c r="I46" s="3">
-        <v>1497800</v>
+        <v>1553000</v>
       </c>
       <c r="J46" s="3">
-        <v>1580200</v>
+        <v>1638400</v>
       </c>
       <c r="K46" s="3">
         <v>1543000</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1095200</v>
+        <v>1135600</v>
       </c>
       <c r="E48" s="3">
-        <v>1062400</v>
+        <v>1101500</v>
       </c>
       <c r="F48" s="3">
-        <v>1048100</v>
+        <v>1086700</v>
       </c>
       <c r="G48" s="3">
-        <v>1034000</v>
+        <v>1072000</v>
       </c>
       <c r="H48" s="3">
-        <v>1022700</v>
+        <v>1060400</v>
       </c>
       <c r="I48" s="3">
-        <v>1016400</v>
+        <v>1053800</v>
       </c>
       <c r="J48" s="3">
-        <v>1020900</v>
+        <v>1058500</v>
       </c>
       <c r="K48" s="3">
         <v>1051900</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>112100</v>
+        <v>116200</v>
       </c>
       <c r="E49" s="3">
-        <v>109500</v>
+        <v>113500</v>
       </c>
       <c r="F49" s="3">
-        <v>112500</v>
+        <v>116600</v>
       </c>
       <c r="G49" s="3">
-        <v>145700</v>
+        <v>151100</v>
       </c>
       <c r="H49" s="3">
-        <v>122300</v>
+        <v>126800</v>
       </c>
       <c r="I49" s="3">
-        <v>127300</v>
+        <v>131900</v>
       </c>
       <c r="J49" s="3">
-        <v>132300</v>
+        <v>137100</v>
       </c>
       <c r="K49" s="3">
         <v>116700</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44600</v>
+        <v>46200</v>
       </c>
       <c r="E52" s="3">
-        <v>46100</v>
+        <v>47800</v>
       </c>
       <c r="F52" s="3">
-        <v>41900</v>
+        <v>43500</v>
       </c>
       <c r="G52" s="3">
-        <v>87700</v>
+        <v>90900</v>
       </c>
       <c r="H52" s="3">
-        <v>53200</v>
+        <v>55200</v>
       </c>
       <c r="I52" s="3">
-        <v>53100</v>
+        <v>55100</v>
       </c>
       <c r="J52" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="K52" s="3">
         <v>52400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2919600</v>
+        <v>3027100</v>
       </c>
       <c r="E54" s="3">
-        <v>2846400</v>
+        <v>2951200</v>
       </c>
       <c r="F54" s="3">
-        <v>2763300</v>
+        <v>2865100</v>
       </c>
       <c r="G54" s="3">
-        <v>2698600</v>
+        <v>2798000</v>
       </c>
       <c r="H54" s="3">
-        <v>2679100</v>
+        <v>2777700</v>
       </c>
       <c r="I54" s="3">
-        <v>2694600</v>
+        <v>2793800</v>
       </c>
       <c r="J54" s="3">
-        <v>2773400</v>
+        <v>2875500</v>
       </c>
       <c r="K54" s="3">
         <v>2764000</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300100</v>
+        <v>311200</v>
       </c>
       <c r="E57" s="3">
-        <v>258100</v>
+        <v>267600</v>
       </c>
       <c r="F57" s="3">
-        <v>194600</v>
+        <v>201800</v>
       </c>
       <c r="G57" s="3">
-        <v>219200</v>
+        <v>227300</v>
       </c>
       <c r="H57" s="3">
-        <v>213400</v>
+        <v>221300</v>
       </c>
       <c r="I57" s="3">
-        <v>248800</v>
+        <v>257900</v>
       </c>
       <c r="J57" s="3">
-        <v>226500</v>
+        <v>234800</v>
       </c>
       <c r="K57" s="3">
         <v>197100</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95000</v>
+        <v>98500</v>
       </c>
       <c r="E58" s="3">
-        <v>28300</v>
+        <v>29300</v>
       </c>
       <c r="F58" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="G58" s="3">
-        <v>114200</v>
+        <v>118400</v>
       </c>
       <c r="H58" s="3">
-        <v>55700</v>
+        <v>57800</v>
       </c>
       <c r="I58" s="3">
-        <v>58100</v>
+        <v>60200</v>
       </c>
       <c r="J58" s="3">
-        <v>132300</v>
+        <v>137200</v>
       </c>
       <c r="K58" s="3">
         <v>181900</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84300</v>
+        <v>87400</v>
       </c>
       <c r="E59" s="3">
-        <v>107400</v>
+        <v>111300</v>
       </c>
       <c r="F59" s="3">
-        <v>78400</v>
+        <v>81300</v>
       </c>
       <c r="G59" s="3">
-        <v>162600</v>
+        <v>168600</v>
       </c>
       <c r="H59" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="I59" s="3">
-        <v>76500</v>
+        <v>79300</v>
       </c>
       <c r="J59" s="3">
-        <v>55600</v>
+        <v>57600</v>
       </c>
       <c r="K59" s="3">
         <v>63000</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>479400</v>
+        <v>497100</v>
       </c>
       <c r="E60" s="3">
-        <v>393800</v>
+        <v>408300</v>
       </c>
       <c r="F60" s="3">
-        <v>335100</v>
+        <v>347400</v>
       </c>
       <c r="G60" s="3">
-        <v>377500</v>
+        <v>391400</v>
       </c>
       <c r="H60" s="3">
-        <v>330900</v>
+        <v>343000</v>
       </c>
       <c r="I60" s="3">
-        <v>383400</v>
+        <v>397500</v>
       </c>
       <c r="J60" s="3">
-        <v>414400</v>
+        <v>429600</v>
       </c>
       <c r="K60" s="3">
         <v>442000</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="E61" s="3">
-        <v>84800</v>
+        <v>87900</v>
       </c>
       <c r="F61" s="3">
-        <v>85800</v>
+        <v>89000</v>
       </c>
       <c r="G61" s="3">
-        <v>87700</v>
+        <v>91000</v>
       </c>
       <c r="H61" s="3">
-        <v>95600</v>
+        <v>99100</v>
       </c>
       <c r="I61" s="3">
-        <v>99100</v>
+        <v>102800</v>
       </c>
       <c r="J61" s="3">
-        <v>112600</v>
+        <v>116800</v>
       </c>
       <c r="K61" s="3">
         <v>106300</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>225400</v>
+        <v>233700</v>
       </c>
       <c r="E62" s="3">
-        <v>194300</v>
+        <v>201400</v>
       </c>
       <c r="F62" s="3">
-        <v>207300</v>
+        <v>215000</v>
       </c>
       <c r="G62" s="3">
-        <v>233500</v>
+        <v>242100</v>
       </c>
       <c r="H62" s="3">
-        <v>239900</v>
+        <v>248800</v>
       </c>
       <c r="I62" s="3">
-        <v>229000</v>
+        <v>237400</v>
       </c>
       <c r="J62" s="3">
-        <v>234200</v>
+        <v>242800</v>
       </c>
       <c r="K62" s="3">
         <v>217900</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>743800</v>
+        <v>771200</v>
       </c>
       <c r="E66" s="3">
-        <v>697900</v>
+        <v>723600</v>
       </c>
       <c r="F66" s="3">
-        <v>655100</v>
+        <v>679200</v>
       </c>
       <c r="G66" s="3">
-        <v>699500</v>
+        <v>725300</v>
       </c>
       <c r="H66" s="3">
-        <v>680000</v>
+        <v>705000</v>
       </c>
       <c r="I66" s="3">
-        <v>723700</v>
+        <v>750300</v>
       </c>
       <c r="J66" s="3">
-        <v>765100</v>
+        <v>793200</v>
       </c>
       <c r="K66" s="3">
         <v>770200</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2046500</v>
+        <v>2121900</v>
       </c>
       <c r="E72" s="3">
-        <v>2031400</v>
+        <v>2106300</v>
       </c>
       <c r="F72" s="3">
-        <v>1982800</v>
+        <v>2055900</v>
       </c>
       <c r="G72" s="3">
-        <v>1944800</v>
+        <v>2016400</v>
       </c>
       <c r="H72" s="3">
-        <v>1849200</v>
+        <v>1917400</v>
       </c>
       <c r="I72" s="3">
-        <v>1812300</v>
+        <v>1879100</v>
       </c>
       <c r="J72" s="3">
-        <v>1840900</v>
+        <v>1908700</v>
       </c>
       <c r="K72" s="3">
         <v>1872300</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2175700</v>
+        <v>2255900</v>
       </c>
       <c r="E76" s="3">
-        <v>2148500</v>
+        <v>2227600</v>
       </c>
       <c r="F76" s="3">
-        <v>2108200</v>
+        <v>2185900</v>
       </c>
       <c r="G76" s="3">
-        <v>1999100</v>
+        <v>2072700</v>
       </c>
       <c r="H76" s="3">
-        <v>1999100</v>
+        <v>2072700</v>
       </c>
       <c r="I76" s="3">
-        <v>1970900</v>
+        <v>2043500</v>
       </c>
       <c r="J76" s="3">
-        <v>2008300</v>
+        <v>2082300</v>
       </c>
       <c r="K76" s="3">
         <v>1993700</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="E81" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="F81" s="3">
-        <v>96900</v>
+        <v>100500</v>
       </c>
       <c r="G81" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="H81" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J81" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="K81" s="3">
         <v>11000</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="E83" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="F83" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
       <c r="G83" s="3">
-        <v>33700</v>
+        <v>35000</v>
       </c>
       <c r="H83" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="I83" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="J83" s="3">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="K83" s="3">
         <v>31100</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="E89" s="3">
-        <v>165100</v>
+        <v>171200</v>
       </c>
       <c r="F89" s="3">
-        <v>43100</v>
+        <v>44700</v>
       </c>
       <c r="G89" s="3">
-        <v>111400</v>
+        <v>115500</v>
       </c>
       <c r="H89" s="3">
-        <v>69900</v>
+        <v>72500</v>
       </c>
       <c r="I89" s="3">
-        <v>-27800</v>
+        <v>-28800</v>
       </c>
       <c r="J89" s="3">
-        <v>115000</v>
+        <v>119200</v>
       </c>
       <c r="K89" s="3">
         <v>95100</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="E91" s="3">
-        <v>-34600</v>
+        <v>-35900</v>
       </c>
       <c r="F91" s="3">
-        <v>-25600</v>
+        <v>-26600</v>
       </c>
       <c r="G91" s="3">
-        <v>-35800</v>
+        <v>-37100</v>
       </c>
       <c r="H91" s="3">
-        <v>-34100</v>
+        <v>-35400</v>
       </c>
       <c r="I91" s="3">
-        <v>-24800</v>
+        <v>-25800</v>
       </c>
       <c r="J91" s="3">
-        <v>-13500</v>
+        <v>-14000</v>
       </c>
       <c r="K91" s="3">
         <v>-44600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="E94" s="3">
-        <v>-27000</v>
+        <v>-28000</v>
       </c>
       <c r="F94" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="G94" s="3">
-        <v>-84300</v>
+        <v>-87400</v>
       </c>
       <c r="H94" s="3">
-        <v>-31100</v>
+        <v>-32300</v>
       </c>
       <c r="I94" s="3">
-        <v>-17500</v>
+        <v>-18200</v>
       </c>
       <c r="J94" s="3">
-        <v>-10000</v>
+        <v>-10400</v>
       </c>
       <c r="K94" s="3">
         <v>-17600</v>
@@ -6024,7 +6024,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19700</v>
+        <v>-20400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-18300</v>
+        <v>-18900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-23700</v>
+        <v>-24600</v>
       </c>
       <c r="E100" s="3">
-        <v>-59000</v>
+        <v>-61200</v>
       </c>
       <c r="F100" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="G100" s="3">
-        <v>-12100</v>
+        <v>-12500</v>
       </c>
       <c r="H100" s="3">
-        <v>-25600</v>
+        <v>-26500</v>
       </c>
       <c r="I100" s="3">
-        <v>-105800</v>
+        <v>-109700</v>
       </c>
       <c r="J100" s="3">
-        <v>-50700</v>
+        <v>-52500</v>
       </c>
       <c r="K100" s="3">
         <v>-11200</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E101" s="3">
         <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-34000</v>
+        <v>-35200</v>
       </c>
       <c r="H101" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I101" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="J101" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="K101" s="3">
         <v>-17700</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63400</v>
+        <v>-65700</v>
       </c>
       <c r="E102" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="F102" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="G102" s="3">
-        <v>-19000</v>
+        <v>-19700</v>
       </c>
       <c r="H102" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="I102" s="3">
-        <v>-141400</v>
+        <v>-146600</v>
       </c>
       <c r="J102" s="3">
-        <v>77000</v>
+        <v>79900</v>
       </c>
       <c r="K102" s="3">
         <v>48500</v>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>968000</v>
+        <v>1203700</v>
       </c>
       <c r="E8" s="3">
-        <v>998200</v>
+        <v>1049800</v>
       </c>
       <c r="F8" s="3">
-        <v>926300</v>
+        <v>999300</v>
       </c>
       <c r="G8" s="3">
-        <v>877100</v>
+        <v>1030500</v>
       </c>
       <c r="H8" s="3">
-        <v>875300</v>
+        <v>956300</v>
       </c>
       <c r="I8" s="3">
+        <v>905500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>903600</v>
+      </c>
+      <c r="K8" s="3">
         <v>786300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>753100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>751000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>769000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>816700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>692800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>703200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>635300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>869200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>820400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>777500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>735300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>781800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>707800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>754400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>843100</v>
+        <v>950500</v>
       </c>
       <c r="E9" s="3">
-        <v>808700</v>
+        <v>913300</v>
       </c>
       <c r="F9" s="3">
-        <v>724400</v>
+        <v>870400</v>
       </c>
       <c r="G9" s="3">
-        <v>692300</v>
+        <v>834900</v>
       </c>
       <c r="H9" s="3">
-        <v>722900</v>
+        <v>747900</v>
       </c>
       <c r="I9" s="3">
+        <v>714700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>746300</v>
+      </c>
+      <c r="K9" s="3">
         <v>697400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>648700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>653500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>638100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>636800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>605400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>605200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>583100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>702700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>647900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>660700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>606800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>594900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>594400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>631100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>124900</v>
+        <v>253200</v>
       </c>
       <c r="E10" s="3">
-        <v>189500</v>
+        <v>136500</v>
       </c>
       <c r="F10" s="3">
-        <v>201800</v>
+        <v>128900</v>
       </c>
       <c r="G10" s="3">
-        <v>184800</v>
+        <v>195600</v>
       </c>
       <c r="H10" s="3">
-        <v>152400</v>
+        <v>208400</v>
       </c>
       <c r="I10" s="3">
+        <v>190700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K10" s="3">
         <v>88900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>104400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>97500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>130900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>179900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>87400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>98000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>52200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>166500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>172500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>116800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>128500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>186900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>113300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>123200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>932600</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>898200</v>
+        <v>1024700</v>
       </c>
       <c r="F17" s="3">
-        <v>803800</v>
+        <v>962800</v>
       </c>
       <c r="G17" s="3">
-        <v>775100</v>
+        <v>927300</v>
       </c>
       <c r="H17" s="3">
-        <v>804200</v>
+        <v>829900</v>
       </c>
       <c r="I17" s="3">
+        <v>800200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>830300</v>
+      </c>
+      <c r="K17" s="3">
         <v>782300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>724200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>736300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>709700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>712000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>676600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>680900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>647000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>780400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>722700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>732500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>675200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>661300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>659700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>35300</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>99900</v>
+        <v>25200</v>
       </c>
       <c r="F18" s="3">
-        <v>122400</v>
+        <v>36500</v>
       </c>
       <c r="G18" s="3">
-        <v>101900</v>
+        <v>103200</v>
       </c>
       <c r="H18" s="3">
-        <v>71000</v>
+        <v>126400</v>
       </c>
       <c r="I18" s="3">
+        <v>105200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>28900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>59300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>104700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>22300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>88800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>97700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>45000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>60000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>120500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>48100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>54000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>25200</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>26100</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>17900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-54200</v>
-      </c>
       <c r="H20" s="3">
-        <v>-10200</v>
+        <v>18500</v>
       </c>
       <c r="I20" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>118800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>24400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>22100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>33700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>28100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>12900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>7500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>18600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>82000</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>120900</v>
+        <v>58500</v>
       </c>
       <c r="F21" s="3">
-        <v>163200</v>
+        <v>84600</v>
       </c>
       <c r="G21" s="3">
-        <v>82700</v>
+        <v>124800</v>
       </c>
       <c r="H21" s="3">
-        <v>81800</v>
+        <v>168500</v>
       </c>
       <c r="I21" s="3">
+        <v>85300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K21" s="3">
         <v>23100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>168500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>100100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>129000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>38100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>57600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>138300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>112500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>86200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>87900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>141800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>61000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>84400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I22" s="3">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>2700</v>
       </c>
       <c r="K22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>57300</v>
+        <v>143600</v>
       </c>
       <c r="E23" s="3">
-        <v>95300</v>
+        <v>32600</v>
       </c>
       <c r="F23" s="3">
-        <v>137700</v>
+        <v>59200</v>
       </c>
       <c r="G23" s="3">
-        <v>46700</v>
+        <v>98400</v>
       </c>
       <c r="H23" s="3">
-        <v>58200</v>
+        <v>142200</v>
       </c>
       <c r="I23" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>145000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>79700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>109100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>40700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>118900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>92700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>72300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>70000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>125500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>44500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>71400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18200</v>
+        <v>38500</v>
       </c>
       <c r="E24" s="3">
-        <v>26300</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="3">
-        <v>38500</v>
+        <v>18800</v>
       </c>
       <c r="G24" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>39700</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>41200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>23800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>32100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>34400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>25100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-9500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>36400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>20200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>39100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>69100</v>
+        <v>30100</v>
       </c>
       <c r="F26" s="3">
-        <v>99300</v>
+        <v>40400</v>
       </c>
       <c r="G26" s="3">
-        <v>46500</v>
+        <v>71300</v>
       </c>
       <c r="H26" s="3">
-        <v>41100</v>
+        <v>102500</v>
       </c>
       <c r="I26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>103800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>55900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>77000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>84500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>67600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>81800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>51600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>89100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>33800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>51200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>40400</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>70700</v>
+        <v>32000</v>
       </c>
       <c r="F27" s="3">
-        <v>100500</v>
+        <v>41700</v>
       </c>
       <c r="G27" s="3">
-        <v>46700</v>
+        <v>73000</v>
       </c>
       <c r="H27" s="3">
-        <v>39600</v>
+        <v>103800</v>
       </c>
       <c r="I27" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>103700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>55800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>76900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>14500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>32400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>84400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>67300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>81700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>51500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>89000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>33700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>51300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-25200</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>54200</v>
-      </c>
       <c r="H32" s="3">
-        <v>10200</v>
+        <v>-18500</v>
       </c>
       <c r="I32" s="3">
+        <v>56000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-118800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-24400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-22100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-33700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-28100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-12900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-7500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-18600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>40400</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>70700</v>
+        <v>32000</v>
       </c>
       <c r="F33" s="3">
-        <v>100500</v>
+        <v>41700</v>
       </c>
       <c r="G33" s="3">
-        <v>46700</v>
+        <v>73000</v>
       </c>
       <c r="H33" s="3">
-        <v>39600</v>
+        <v>103800</v>
       </c>
       <c r="I33" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>103700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>55800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>76900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>32400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>84400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>67300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>81700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>51500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>89000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>33700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>51300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>40400</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>70700</v>
+        <v>32000</v>
       </c>
       <c r="F35" s="3">
-        <v>100500</v>
+        <v>41700</v>
       </c>
       <c r="G35" s="3">
-        <v>46700</v>
+        <v>73000</v>
       </c>
       <c r="H35" s="3">
-        <v>39600</v>
+        <v>103800</v>
       </c>
       <c r="I35" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>103700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>55800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>76900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>32400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>84400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>67300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>81700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>51500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>89000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>33700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>51300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>961200</v>
+        <v>1987300</v>
       </c>
       <c r="E41" s="3">
-        <v>1026900</v>
+        <v>1022900</v>
       </c>
       <c r="F41" s="3">
-        <v>947000</v>
+        <v>992300</v>
       </c>
       <c r="G41" s="3">
-        <v>920700</v>
+        <v>1060200</v>
       </c>
       <c r="H41" s="3">
-        <v>870900</v>
+        <v>977700</v>
       </c>
       <c r="I41" s="3">
+        <v>950600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>899100</v>
+      </c>
+      <c r="K41" s="3">
         <v>850300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>996900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>926000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>915800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>895600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>783300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>816300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>773600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1015900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>957300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>891700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>814400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>869700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>797000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>779600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,334 +2922,364 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>93600</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>96600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>24900</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>24900</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>25100</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>25100</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>58300</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
+      <c r="U42" s="3">
+        <v>58300</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>51500</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>51500</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>237900</v>
+        <v>245600</v>
       </c>
       <c r="E43" s="3">
-        <v>216100</v>
+        <v>398200</v>
       </c>
       <c r="F43" s="3">
-        <v>234800</v>
+        <v>245600</v>
       </c>
       <c r="G43" s="3">
-        <v>428900</v>
+        <v>223100</v>
       </c>
       <c r="H43" s="3">
-        <v>240500</v>
+        <v>242400</v>
       </c>
       <c r="I43" s="3">
+        <v>442800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>248300</v>
+      </c>
+      <c r="K43" s="3">
         <v>233300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>225800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>192600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>218600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>236200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>189500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>159000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>161100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>173100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>184800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>378200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>161600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>154200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>172900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>200600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>421800</v>
+        <v>808900</v>
       </c>
       <c r="E44" s="3">
-        <v>381700</v>
+        <v>314700</v>
       </c>
       <c r="F44" s="3">
-        <v>395500</v>
+        <v>435400</v>
       </c>
       <c r="G44" s="3">
-        <v>368500</v>
+        <v>394100</v>
       </c>
       <c r="H44" s="3">
-        <v>378300</v>
+        <v>408300</v>
       </c>
       <c r="I44" s="3">
+        <v>281000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>390500</v>
+      </c>
+      <c r="K44" s="3">
         <v>415600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>376700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>335100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>346400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>298300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>302800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>303200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>207900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>375300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>327600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>344900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>339800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>330800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>287300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>315000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108300</v>
+        <v>293900</v>
       </c>
       <c r="E45" s="3">
-        <v>63600</v>
+        <v>139900</v>
       </c>
       <c r="F45" s="3">
-        <v>41000</v>
+        <v>111800</v>
       </c>
       <c r="G45" s="3">
-        <v>204800</v>
+        <v>65700</v>
       </c>
       <c r="H45" s="3">
-        <v>45800</v>
+        <v>42300</v>
       </c>
       <c r="I45" s="3">
+        <v>211400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K45" s="3">
         <v>53900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>39000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>64400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>60400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>41700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>36900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>54200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>143700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>48700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>43300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>164900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>108800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>110500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>76600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>83300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1729200</v>
+        <v>1811100</v>
       </c>
       <c r="E46" s="3">
-        <v>1688400</v>
+        <v>1875700</v>
       </c>
       <c r="F46" s="3">
-        <v>1618300</v>
+        <v>1785200</v>
       </c>
       <c r="G46" s="3">
-        <v>1559200</v>
+        <v>1743100</v>
       </c>
       <c r="H46" s="3">
-        <v>1535400</v>
+        <v>1670800</v>
       </c>
       <c r="I46" s="3">
+        <v>1609700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1585200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1553000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1638400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1543000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1541200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1471700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1312400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1357700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1286200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1612900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1513000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1459800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1424600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1465200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1333800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1430000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3346,162 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1135600</v>
+        <v>1405100</v>
       </c>
       <c r="E48" s="3">
-        <v>1101500</v>
+        <v>1219900</v>
       </c>
       <c r="F48" s="3">
-        <v>1086700</v>
+        <v>1172400</v>
       </c>
       <c r="G48" s="3">
-        <v>1072000</v>
+        <v>1137200</v>
       </c>
       <c r="H48" s="3">
-        <v>1060400</v>
+        <v>1121900</v>
       </c>
       <c r="I48" s="3">
+        <v>1106800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1094700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1053800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1058500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1051900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1058300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1007700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1002800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>900100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>866300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1032100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1003900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>979400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>951400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>870000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>866800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>889400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>116200</v>
+        <v>171200</v>
       </c>
       <c r="E49" s="3">
-        <v>113500</v>
+        <v>118500</v>
       </c>
       <c r="F49" s="3">
-        <v>116600</v>
+        <v>119900</v>
       </c>
       <c r="G49" s="3">
-        <v>151100</v>
+        <v>117200</v>
       </c>
       <c r="H49" s="3">
-        <v>126800</v>
+        <v>120400</v>
       </c>
       <c r="I49" s="3">
+        <v>156000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K49" s="3">
         <v>131900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>137100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>116700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>127300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>120600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>122600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>117700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>112900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>142700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>133500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>138200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>80800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>23900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>24200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>25700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46200</v>
+        <v>38600</v>
       </c>
       <c r="E52" s="3">
-        <v>47800</v>
+        <v>43100</v>
       </c>
       <c r="F52" s="3">
-        <v>43500</v>
+        <v>47700</v>
       </c>
       <c r="G52" s="3">
-        <v>90900</v>
+        <v>49400</v>
       </c>
       <c r="H52" s="3">
-        <v>55200</v>
+        <v>44900</v>
       </c>
       <c r="I52" s="3">
+        <v>93800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K52" s="3">
         <v>55100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>41500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>52400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>57900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>51900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>46700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>35100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>33500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>42200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>40500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>70700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>81700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>50900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>60400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>49100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3027100</v>
+        <v>3269100</v>
       </c>
       <c r="E54" s="3">
-        <v>2951200</v>
+        <v>3257200</v>
       </c>
       <c r="F54" s="3">
-        <v>2865100</v>
+        <v>3125200</v>
       </c>
       <c r="G54" s="3">
-        <v>2798000</v>
+        <v>3046800</v>
       </c>
       <c r="H54" s="3">
-        <v>2777700</v>
+        <v>2957900</v>
       </c>
       <c r="I54" s="3">
+        <v>2888700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2867700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2793800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2875500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2764000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2784700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2652000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2484500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2410700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2299000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2829900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2691000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2614800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2538500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2410000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2285100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2394300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>311200</v>
+        <v>315400</v>
       </c>
       <c r="E57" s="3">
-        <v>267600</v>
+        <v>507500</v>
       </c>
       <c r="F57" s="3">
-        <v>201800</v>
+        <v>321300</v>
       </c>
       <c r="G57" s="3">
-        <v>227300</v>
+        <v>276300</v>
       </c>
       <c r="H57" s="3">
-        <v>221300</v>
+        <v>208300</v>
       </c>
       <c r="I57" s="3">
+        <v>234700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K57" s="3">
         <v>257900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>234800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>197100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>174700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>171900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>148800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>182200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>149900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>173900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>193400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>227800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>216400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>173100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>193600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>98500</v>
+        <v>118000</v>
       </c>
       <c r="E58" s="3">
-        <v>29300</v>
+        <v>107700</v>
       </c>
       <c r="F58" s="3">
-        <v>64300</v>
+        <v>101700</v>
       </c>
       <c r="G58" s="3">
-        <v>118400</v>
+        <v>30300</v>
       </c>
       <c r="H58" s="3">
-        <v>57800</v>
+        <v>66400</v>
       </c>
       <c r="I58" s="3">
+        <v>122300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K58" s="3">
         <v>60200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>137200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>181900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>176500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>166400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>107700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>166000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>146600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>179700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>177400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>385400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>176100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>189200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>176500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>174600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>87400</v>
+        <v>127000</v>
       </c>
       <c r="E59" s="3">
-        <v>111300</v>
+        <v>21400</v>
       </c>
       <c r="F59" s="3">
-        <v>81300</v>
+        <v>90200</v>
       </c>
       <c r="G59" s="3">
-        <v>168600</v>
+        <v>114900</v>
       </c>
       <c r="H59" s="3">
-        <v>64000</v>
+        <v>83900</v>
       </c>
       <c r="I59" s="3">
+        <v>174100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K59" s="3">
         <v>79300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>57600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>63000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>63300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>105800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>53500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>66100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>65600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>109900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>65800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>145200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>81900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>87600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>46200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>73400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>497100</v>
+        <v>539000</v>
       </c>
       <c r="E60" s="3">
-        <v>408300</v>
+        <v>636500</v>
       </c>
       <c r="F60" s="3">
-        <v>347400</v>
+        <v>513200</v>
       </c>
       <c r="G60" s="3">
-        <v>391400</v>
+        <v>421500</v>
       </c>
       <c r="H60" s="3">
-        <v>343000</v>
+        <v>358700</v>
       </c>
       <c r="I60" s="3">
+        <v>404100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>354200</v>
+      </c>
+      <c r="K60" s="3">
         <v>397500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>429600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>442000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>414500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>444100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>310000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>414300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>362100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>490500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>417100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>475100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>485800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>493100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>395800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>441600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15700</v>
+        <v>21500</v>
       </c>
       <c r="E61" s="3">
-        <v>87900</v>
+        <v>17800</v>
       </c>
       <c r="F61" s="3">
-        <v>89000</v>
+        <v>16200</v>
       </c>
       <c r="G61" s="3">
-        <v>91000</v>
+        <v>90800</v>
       </c>
       <c r="H61" s="3">
-        <v>99100</v>
+        <v>91900</v>
       </c>
       <c r="I61" s="3">
+        <v>93900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>102300</v>
+      </c>
+      <c r="K61" s="3">
         <v>102800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>116800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>106300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>120400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>118900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>118200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>70400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>69600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>83300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>83300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>80400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>80400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>25900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>50500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>233700</v>
+        <v>263500</v>
       </c>
       <c r="E62" s="3">
-        <v>201400</v>
+        <v>220900</v>
       </c>
       <c r="F62" s="3">
-        <v>215000</v>
+        <v>241300</v>
       </c>
       <c r="G62" s="3">
-        <v>242100</v>
+        <v>207900</v>
       </c>
       <c r="H62" s="3">
-        <v>248800</v>
+        <v>221900</v>
       </c>
       <c r="I62" s="3">
+        <v>249900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>256800</v>
+      </c>
+      <c r="K62" s="3">
         <v>237400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>242800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>217900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>223900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>197700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>198000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>185600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>191800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>231500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>230100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>227200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>223000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>218800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>212100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>218100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>771200</v>
+        <v>811900</v>
       </c>
       <c r="E66" s="3">
-        <v>723600</v>
+        <v>899400</v>
       </c>
       <c r="F66" s="3">
-        <v>679200</v>
+        <v>796200</v>
       </c>
       <c r="G66" s="3">
-        <v>725300</v>
+        <v>747000</v>
       </c>
       <c r="H66" s="3">
-        <v>705000</v>
+        <v>701200</v>
       </c>
       <c r="I66" s="3">
+        <v>748800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>727800</v>
+      </c>
+      <c r="K66" s="3">
         <v>750300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>793200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>770200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>762800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>764400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>629800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>673500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>626600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>808900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>733900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>772600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>792200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>720000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>636600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>713000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2121900</v>
+        <v>2330000</v>
       </c>
       <c r="E72" s="3">
-        <v>2106300</v>
+        <v>2220900</v>
       </c>
       <c r="F72" s="3">
-        <v>2055900</v>
+        <v>2190700</v>
       </c>
       <c r="G72" s="3">
-        <v>2016400</v>
+        <v>2174500</v>
       </c>
       <c r="H72" s="3">
-        <v>1917400</v>
+        <v>2122500</v>
       </c>
       <c r="I72" s="3">
+        <v>2081800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1979500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1879100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1908700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1872300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1884200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1761100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1724900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1612200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1559600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1867800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1829000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1725100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1622300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1566500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1517800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1523700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2255900</v>
+        <v>2457100</v>
       </c>
       <c r="E76" s="3">
-        <v>2227600</v>
+        <v>2357800</v>
       </c>
       <c r="F76" s="3">
-        <v>2185900</v>
+        <v>2328900</v>
       </c>
       <c r="G76" s="3">
-        <v>2072700</v>
+        <v>2299800</v>
       </c>
       <c r="H76" s="3">
-        <v>2072700</v>
+        <v>2256700</v>
       </c>
       <c r="I76" s="3">
+        <v>2139900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2139900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2043500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2082300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1993700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2021900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1887500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1854700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1737200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1672400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2021000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1957000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1842200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1746300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1690000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1648500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1681300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>40400</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>70700</v>
+        <v>32000</v>
       </c>
       <c r="F81" s="3">
-        <v>100500</v>
+        <v>41700</v>
       </c>
       <c r="G81" s="3">
-        <v>46700</v>
+        <v>73000</v>
       </c>
       <c r="H81" s="3">
-        <v>39600</v>
+        <v>103800</v>
       </c>
       <c r="I81" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>103700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>55800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>76900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>32400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>84400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>67300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>81700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>51500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>89000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>33700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>51300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21400</v>
+        <v>27000</v>
       </c>
       <c r="E83" s="3">
-        <v>20800</v>
+        <v>23300</v>
       </c>
       <c r="F83" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="G83" s="3">
-        <v>35000</v>
+        <v>21500</v>
       </c>
       <c r="H83" s="3">
-        <v>20900</v>
+        <v>23500</v>
       </c>
       <c r="I83" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K83" s="3">
         <v>21200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>31100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>16300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>15500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>15500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>15900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>16400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>13800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>13900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>11800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7800</v>
+        <v>56500</v>
       </c>
       <c r="E89" s="3">
-        <v>171200</v>
+        <v>82200</v>
       </c>
       <c r="F89" s="3">
-        <v>44700</v>
+        <v>-8000</v>
       </c>
       <c r="G89" s="3">
-        <v>115500</v>
+        <v>176700</v>
       </c>
       <c r="H89" s="3">
-        <v>72500</v>
+        <v>46100</v>
       </c>
       <c r="I89" s="3">
+        <v>119200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-28800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>119200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>95100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>82500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-36200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>76100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>69800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>70300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>50800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>78900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>118500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>35200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>63200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,67 +6170,73 @@
         <v>-45200</v>
       </c>
       <c r="E91" s="3">
-        <v>-35900</v>
+        <v>-61700</v>
       </c>
       <c r="F91" s="3">
-        <v>-26600</v>
+        <v>-46700</v>
       </c>
       <c r="G91" s="3">
         <v>-37100</v>
       </c>
       <c r="H91" s="3">
-        <v>-35400</v>
+        <v>-27400</v>
       </c>
       <c r="I91" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-44600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-23900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-20100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-29600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-25500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-16300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>42000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-95400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-23300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-33300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-199500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35700</v>
+        <v>-80100</v>
       </c>
       <c r="E94" s="3">
-        <v>-28000</v>
+        <v>-51100</v>
       </c>
       <c r="F94" s="3">
-        <v>-14300</v>
+        <v>-36900</v>
       </c>
       <c r="G94" s="3">
-        <v>-87400</v>
+        <v>-28900</v>
       </c>
       <c r="H94" s="3">
-        <v>-32300</v>
+        <v>-14700</v>
       </c>
       <c r="I94" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-10400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-17600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-19800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-169700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-20300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-23800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-21000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-18900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-19600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-21100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-20200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-24600</v>
+        <v>-6400</v>
       </c>
       <c r="E100" s="3">
-        <v>-61200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>-6300</v>
+        <v>-25400</v>
       </c>
       <c r="G100" s="3">
-        <v>-12500</v>
+        <v>-63200</v>
       </c>
       <c r="H100" s="3">
-        <v>-26500</v>
+        <v>-6500</v>
       </c>
       <c r="I100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-109700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-52500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-33300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>36800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-64800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-31000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-14100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>35000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-31700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-6600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2100</v>
+        <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="G101" s="3">
-        <v>-35200</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="I101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>26900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-17700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>18900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>13100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>23400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-19800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>9600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-7200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-22800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-65700</v>
+        <v>-29300</v>
       </c>
       <c r="E102" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>82500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-146600</v>
+      </c>
+      <c r="L102" s="3">
         <v>79900</v>
       </c>
-      <c r="F102" s="3">
-        <v>26300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>20600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-146600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>79900</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>48500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>112300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-109200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>85200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-79300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>58500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>33100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>68900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-55300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>72700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-12500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>34200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1203700</v>
+        <v>1327400</v>
       </c>
       <c r="E8" s="3">
-        <v>1049800</v>
+        <v>1223700</v>
       </c>
       <c r="F8" s="3">
-        <v>999300</v>
+        <v>1067300</v>
       </c>
       <c r="G8" s="3">
-        <v>1030500</v>
+        <v>1015900</v>
       </c>
       <c r="H8" s="3">
-        <v>956300</v>
+        <v>1047600</v>
       </c>
       <c r="I8" s="3">
-        <v>905500</v>
+        <v>972100</v>
       </c>
       <c r="J8" s="3">
+        <v>920500</v>
+      </c>
+      <c r="K8" s="3">
         <v>903600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>786300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>753100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>751000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>769000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>816700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>692800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>703200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>635300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>869200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>820400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>777500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>735300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>781800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>707800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>754400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>950500</v>
+        <v>1030400</v>
       </c>
       <c r="E9" s="3">
-        <v>913300</v>
+        <v>966300</v>
       </c>
       <c r="F9" s="3">
-        <v>870400</v>
+        <v>939000</v>
       </c>
       <c r="G9" s="3">
-        <v>834900</v>
+        <v>884800</v>
       </c>
       <c r="H9" s="3">
-        <v>747900</v>
+        <v>848800</v>
       </c>
       <c r="I9" s="3">
-        <v>714700</v>
+        <v>760300</v>
       </c>
       <c r="J9" s="3">
+        <v>726600</v>
+      </c>
+      <c r="K9" s="3">
         <v>746300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>697400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>648700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>653500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>638100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>636800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>605400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>605200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>583100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>702700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>647900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>660700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>606800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>594900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>594400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>631100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>253200</v>
+        <v>297000</v>
       </c>
       <c r="E10" s="3">
-        <v>136500</v>
+        <v>257500</v>
       </c>
       <c r="F10" s="3">
-        <v>128900</v>
+        <v>128300</v>
       </c>
       <c r="G10" s="3">
-        <v>195600</v>
+        <v>131100</v>
       </c>
       <c r="H10" s="3">
-        <v>208400</v>
+        <v>198900</v>
       </c>
       <c r="I10" s="3">
-        <v>190700</v>
+        <v>211800</v>
       </c>
       <c r="J10" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K10" s="3">
         <v>157300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>104400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>130900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>179900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>87400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>98000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>166500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>172500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>116800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>128500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>186900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>113300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>123200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,73 +1375,76 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>1024700</v>
+        <v>1065900</v>
       </c>
       <c r="F17" s="3">
-        <v>962800</v>
+        <v>1041900</v>
       </c>
       <c r="G17" s="3">
-        <v>927300</v>
+        <v>978800</v>
       </c>
       <c r="H17" s="3">
-        <v>829900</v>
+        <v>942700</v>
       </c>
       <c r="I17" s="3">
-        <v>800200</v>
+        <v>843600</v>
       </c>
       <c r="J17" s="3">
+        <v>813500</v>
+      </c>
+      <c r="K17" s="3">
         <v>830300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>782300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>724200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>736300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>709700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>712000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>676600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>680900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>647000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>780400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>722700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>732500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>675200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>661300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>659700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1452,76 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>25200</v>
+        <v>157800</v>
       </c>
       <c r="F18" s="3">
-        <v>36500</v>
+        <v>25400</v>
       </c>
       <c r="G18" s="3">
-        <v>103200</v>
+        <v>37100</v>
       </c>
       <c r="H18" s="3">
-        <v>126400</v>
+        <v>104900</v>
       </c>
       <c r="I18" s="3">
-        <v>105200</v>
+        <v>128500</v>
       </c>
       <c r="J18" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K18" s="3">
         <v>73300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>88800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>97700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>45000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>120500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>48100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>54000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,73 +1558,76 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>-7500</v>
       </c>
       <c r="F20" s="3">
-        <v>26100</v>
+        <v>8400</v>
       </c>
       <c r="G20" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>18500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-56000</v>
+        <v>18800</v>
       </c>
       <c r="J20" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>118800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>33700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,295 +1635,307 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>58500</v>
+        <v>177800</v>
       </c>
       <c r="F21" s="3">
-        <v>84600</v>
+        <v>56400</v>
       </c>
       <c r="G21" s="3">
-        <v>124800</v>
+        <v>86000</v>
       </c>
       <c r="H21" s="3">
+        <v>126800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>171200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>84400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>23100</v>
+      </c>
+      <c r="M21" s="3">
         <v>168500</v>
       </c>
-      <c r="I21" s="3">
-        <v>85300</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
+        <v>39100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>129000</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>38100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>57600</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T21" s="3">
+        <v>138300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>112500</v>
+      </c>
+      <c r="V21" s="3">
+        <v>86200</v>
+      </c>
+      <c r="W21" s="3">
+        <v>87900</v>
+      </c>
+      <c r="X21" s="3">
+        <v>141800</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>61000</v>
+      </c>
+      <c r="Z21" s="3">
         <v>84400</v>
       </c>
-      <c r="K21" s="3">
-        <v>23100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>168500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>39100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>100100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>129000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>38100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>57600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>3700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>138300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>112500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>86200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>87900</v>
-      </c>
-      <c r="W21" s="3">
-        <v>141800</v>
-      </c>
-      <c r="X21" s="3">
-        <v>61000</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>84400</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="E22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="R22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V22" s="3">
+        <v>800</v>
+      </c>
+      <c r="W22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="U22" s="3">
-        <v>800</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="X22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>143600</v>
+        <v>200300</v>
       </c>
       <c r="E23" s="3">
-        <v>32600</v>
+        <v>146000</v>
       </c>
       <c r="F23" s="3">
-        <v>59200</v>
+        <v>33800</v>
       </c>
       <c r="G23" s="3">
-        <v>98400</v>
+        <v>60200</v>
       </c>
       <c r="H23" s="3">
-        <v>142200</v>
+        <v>100000</v>
       </c>
       <c r="I23" s="3">
-        <v>48200</v>
+        <v>144600</v>
       </c>
       <c r="J23" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K23" s="3">
         <v>60100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>145000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>92700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>70000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>125500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>71400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38500</v>
+        <v>52900</v>
       </c>
       <c r="E24" s="3">
-        <v>2400</v>
+        <v>39100</v>
       </c>
       <c r="F24" s="3">
-        <v>18800</v>
+        <v>3700</v>
       </c>
       <c r="G24" s="3">
-        <v>27100</v>
+        <v>19100</v>
       </c>
       <c r="H24" s="3">
-        <v>39700</v>
+        <v>27600</v>
       </c>
       <c r="I24" s="3">
+        <v>40400</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1968,73 +2020,76 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>106900</v>
+      </c>
+      <c r="F26" s="3">
         <v>30100</v>
       </c>
-      <c r="F26" s="3">
-        <v>40400</v>
-      </c>
       <c r="G26" s="3">
-        <v>71300</v>
+        <v>41000</v>
       </c>
       <c r="H26" s="3">
-        <v>102500</v>
+        <v>72500</v>
       </c>
       <c r="I26" s="3">
-        <v>48000</v>
+        <v>104200</v>
       </c>
       <c r="J26" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K26" s="3">
         <v>42400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>103800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>55900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>84500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>89100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>33800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>51200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2042,73 +2097,76 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>32000</v>
+        <v>108300</v>
       </c>
       <c r="F27" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G27" s="3">
-        <v>73000</v>
+        <v>42400</v>
       </c>
       <c r="H27" s="3">
-        <v>103800</v>
+        <v>74200</v>
       </c>
       <c r="I27" s="3">
-        <v>48200</v>
+        <v>105500</v>
       </c>
       <c r="J27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K27" s="3">
         <v>40900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>55800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>67300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>81700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>89000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>33700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,73 +2482,76 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>7500</v>
       </c>
       <c r="F32" s="3">
-        <v>-26100</v>
+        <v>-8400</v>
       </c>
       <c r="G32" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-18500</v>
-      </c>
       <c r="I32" s="3">
-        <v>56000</v>
+        <v>-18800</v>
       </c>
       <c r="J32" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K32" s="3">
         <v>10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-118800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-33700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2486,73 +2559,76 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>32000</v>
+        <v>108300</v>
       </c>
       <c r="F33" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G33" s="3">
-        <v>73000</v>
+        <v>42400</v>
       </c>
       <c r="H33" s="3">
-        <v>103800</v>
+        <v>74200</v>
       </c>
       <c r="I33" s="3">
-        <v>48200</v>
+        <v>105500</v>
       </c>
       <c r="J33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K33" s="3">
         <v>40900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>103700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>55800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>84400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>67300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>89000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>33700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2634,152 +2713,158 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>32000</v>
+        <v>108300</v>
       </c>
       <c r="F35" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G35" s="3">
-        <v>73000</v>
+        <v>42400</v>
       </c>
       <c r="H35" s="3">
-        <v>103800</v>
+        <v>74200</v>
       </c>
       <c r="I35" s="3">
-        <v>48200</v>
+        <v>105500</v>
       </c>
       <c r="J35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K35" s="3">
         <v>40900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>103700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>55800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>84400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>67300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>89000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>33700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1987300</v>
+        <v>2057000</v>
       </c>
       <c r="E41" s="3">
-        <v>1022900</v>
+        <v>1010100</v>
       </c>
       <c r="F41" s="3">
-        <v>992300</v>
+        <v>961000</v>
       </c>
       <c r="G41" s="3">
-        <v>1060200</v>
+        <v>1008800</v>
       </c>
       <c r="H41" s="3">
-        <v>977700</v>
+        <v>1077800</v>
       </c>
       <c r="I41" s="3">
-        <v>950600</v>
+        <v>993900</v>
       </c>
       <c r="J41" s="3">
+        <v>966400</v>
+      </c>
+      <c r="K41" s="3">
         <v>899100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>850300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>996900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>926000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>915800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>895600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>783300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>816300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>773600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1015900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>957300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>891700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>814400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>869700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>797000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>779600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2919,8 +3009,8 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>78900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2928,11 +3018,11 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>96600</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>98200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2940,11 +3030,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>24900</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2952,11 +3042,11 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>25100</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2964,11 +3054,11 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>58300</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -2976,310 +3066,325 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>51500</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>245600</v>
+        <v>259900</v>
       </c>
       <c r="E43" s="3">
-        <v>398200</v>
+        <v>249600</v>
       </c>
       <c r="F43" s="3">
-        <v>245600</v>
+        <v>256500</v>
       </c>
       <c r="G43" s="3">
-        <v>223100</v>
+        <v>249600</v>
       </c>
       <c r="H43" s="3">
-        <v>242400</v>
+        <v>226800</v>
       </c>
       <c r="I43" s="3">
-        <v>442800</v>
+        <v>246500</v>
       </c>
       <c r="J43" s="3">
+        <v>450200</v>
+      </c>
+      <c r="K43" s="3">
         <v>248300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>192600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>218600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>236200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>189500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>159000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>161100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>173100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>184800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>378200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>161600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>154200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>172900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>808900</v>
+        <v>1216800</v>
       </c>
       <c r="E44" s="3">
-        <v>314700</v>
+        <v>506600</v>
       </c>
       <c r="F44" s="3">
-        <v>435400</v>
+        <v>459300</v>
       </c>
       <c r="G44" s="3">
-        <v>394100</v>
+        <v>442700</v>
       </c>
       <c r="H44" s="3">
-        <v>408300</v>
+        <v>400700</v>
       </c>
       <c r="I44" s="3">
-        <v>281000</v>
+        <v>415100</v>
       </c>
       <c r="J44" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K44" s="3">
         <v>390500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>415600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>376700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>335100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>346400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>298300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>302800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>303200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>207900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>375300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>327600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>344900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>339800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>330800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>287300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>315000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>293900</v>
+        <v>316400</v>
       </c>
       <c r="E45" s="3">
-        <v>139900</v>
+        <v>74700</v>
       </c>
       <c r="F45" s="3">
-        <v>111800</v>
+        <v>144900</v>
       </c>
       <c r="G45" s="3">
-        <v>65700</v>
+        <v>113700</v>
       </c>
       <c r="H45" s="3">
-        <v>42300</v>
+        <v>66800</v>
       </c>
       <c r="I45" s="3">
-        <v>211400</v>
+        <v>43000</v>
       </c>
       <c r="J45" s="3">
+        <v>214900</v>
+      </c>
+      <c r="K45" s="3">
         <v>47200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>53900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>64400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>143700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>164900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>108800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>110500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>76600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>83300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1811100</v>
+        <v>2024100</v>
       </c>
       <c r="E46" s="3">
-        <v>1875700</v>
+        <v>1841100</v>
       </c>
       <c r="F46" s="3">
-        <v>1785200</v>
+        <v>1900600</v>
       </c>
       <c r="G46" s="3">
-        <v>1743100</v>
+        <v>1814800</v>
       </c>
       <c r="H46" s="3">
-        <v>1670800</v>
+        <v>1772000</v>
       </c>
       <c r="I46" s="3">
-        <v>1609700</v>
+        <v>1698500</v>
       </c>
       <c r="J46" s="3">
+        <v>1636500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1585200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1553000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1638400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1543000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1541200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1471700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1312400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1357700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1286200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1612900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1513000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1459800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1424600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1465200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1333800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1430000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1405100</v>
+        <v>1469200</v>
       </c>
       <c r="E48" s="3">
-        <v>1219900</v>
+        <v>1269000</v>
       </c>
       <c r="F48" s="3">
-        <v>1172400</v>
+        <v>1245500</v>
       </c>
       <c r="G48" s="3">
-        <v>1137200</v>
+        <v>1191800</v>
       </c>
       <c r="H48" s="3">
-        <v>1121900</v>
+        <v>1156100</v>
       </c>
       <c r="I48" s="3">
-        <v>1106800</v>
+        <v>1140500</v>
       </c>
       <c r="J48" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1094700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1053800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1058500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1051900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1058300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1007700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1002800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>900100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>866300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1032100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1003900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>979400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>951400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>870000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>866800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>889400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>171200</v>
+        <v>174500</v>
       </c>
       <c r="E49" s="3">
-        <v>118500</v>
+        <v>174000</v>
       </c>
       <c r="F49" s="3">
-        <v>119900</v>
+        <v>120200</v>
       </c>
       <c r="G49" s="3">
-        <v>117200</v>
+        <v>121900</v>
       </c>
       <c r="H49" s="3">
-        <v>120400</v>
+        <v>119100</v>
       </c>
       <c r="I49" s="3">
-        <v>156000</v>
+        <v>122400</v>
       </c>
       <c r="J49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K49" s="3">
         <v>130900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>131900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>137100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>116700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>127300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>120600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>117700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>112900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>142700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>133500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>138200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>80800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>25700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38600</v>
+        <v>34400</v>
       </c>
       <c r="E52" s="3">
-        <v>43100</v>
+        <v>39200</v>
       </c>
       <c r="F52" s="3">
-        <v>47700</v>
+        <v>47600</v>
       </c>
       <c r="G52" s="3">
-        <v>49400</v>
+        <v>48500</v>
       </c>
       <c r="H52" s="3">
-        <v>44900</v>
+        <v>50200</v>
       </c>
       <c r="I52" s="3">
-        <v>93800</v>
+        <v>45600</v>
       </c>
       <c r="J52" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K52" s="3">
         <v>57000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>57900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>51900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>46700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>35100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>40500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>70700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>81700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>60400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>49100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3269100</v>
+        <v>3537000</v>
       </c>
       <c r="E54" s="3">
-        <v>3257200</v>
+        <v>3323300</v>
       </c>
       <c r="F54" s="3">
-        <v>3125200</v>
+        <v>3314000</v>
       </c>
       <c r="G54" s="3">
-        <v>3046800</v>
+        <v>3177000</v>
       </c>
       <c r="H54" s="3">
-        <v>2957900</v>
+        <v>3097400</v>
       </c>
       <c r="I54" s="3">
-        <v>2888700</v>
+        <v>3007000</v>
       </c>
       <c r="J54" s="3">
+        <v>2936600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2867700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2793800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2875500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2764000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2784700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2652000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2484500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2410700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2299000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2829900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2691000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2614800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2538500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2410000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2285100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2394300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>315400</v>
+        <v>324400</v>
       </c>
       <c r="E57" s="3">
-        <v>507500</v>
+        <v>320700</v>
       </c>
       <c r="F57" s="3">
-        <v>321300</v>
+        <v>407900</v>
       </c>
       <c r="G57" s="3">
-        <v>276300</v>
+        <v>326600</v>
       </c>
       <c r="H57" s="3">
-        <v>208300</v>
+        <v>280900</v>
       </c>
       <c r="I57" s="3">
-        <v>234700</v>
+        <v>211800</v>
       </c>
       <c r="J57" s="3">
+        <v>238600</v>
+      </c>
+      <c r="K57" s="3">
         <v>228400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>257900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>234800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>197100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>174700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>171900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>148800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>182200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>149900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>173900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>193400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>227800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>216400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>173100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>193600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>118000</v>
+        <v>147400</v>
       </c>
       <c r="E58" s="3">
+        <v>114200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>123500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>103400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>30800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>59600</v>
+      </c>
+      <c r="L58" s="3">
+        <v>60200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>137200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>181900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>176500</v>
+      </c>
+      <c r="P58" s="3">
+        <v>166400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>107700</v>
       </c>
-      <c r="F58" s="3">
-        <v>101700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>30300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>66400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>122300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>59600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>60200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>137200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>181900</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
+        <v>166000</v>
+      </c>
+      <c r="S58" s="3">
+        <v>146600</v>
+      </c>
+      <c r="T58" s="3">
+        <v>179700</v>
+      </c>
+      <c r="U58" s="3">
+        <v>177400</v>
+      </c>
+      <c r="V58" s="3">
+        <v>385400</v>
+      </c>
+      <c r="W58" s="3">
+        <v>176100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>189200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>176500</v>
       </c>
-      <c r="O58" s="3">
-        <v>166400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>107700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>166000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>146600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>179700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>177400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>385400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>176100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>189200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>176500</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>174600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>127000</v>
+        <v>158200</v>
       </c>
       <c r="E59" s="3">
-        <v>21400</v>
+        <v>113100</v>
       </c>
       <c r="F59" s="3">
-        <v>90200</v>
+        <v>113200</v>
       </c>
       <c r="G59" s="3">
-        <v>114900</v>
+        <v>91700</v>
       </c>
       <c r="H59" s="3">
-        <v>83900</v>
+        <v>116800</v>
       </c>
       <c r="I59" s="3">
-        <v>174100</v>
+        <v>85300</v>
       </c>
       <c r="J59" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K59" s="3">
         <v>66100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>109900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>65800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>145200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>81900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>87600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>46200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>73400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>539000</v>
+        <v>600100</v>
       </c>
       <c r="E60" s="3">
-        <v>636500</v>
+        <v>548000</v>
       </c>
       <c r="F60" s="3">
-        <v>513200</v>
+        <v>644600</v>
       </c>
       <c r="G60" s="3">
-        <v>421500</v>
+        <v>521700</v>
       </c>
       <c r="H60" s="3">
-        <v>358700</v>
+        <v>428500</v>
       </c>
       <c r="I60" s="3">
-        <v>404100</v>
+        <v>364600</v>
       </c>
       <c r="J60" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K60" s="3">
         <v>354200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>397500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>429600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>442000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>414500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>444100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>310000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>414300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>362100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>490500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>417100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>475100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>485800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>493100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>395800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>441600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="E61" s="3">
-        <v>17800</v>
+        <v>21800</v>
       </c>
       <c r="F61" s="3">
-        <v>16200</v>
+        <v>18700</v>
       </c>
       <c r="G61" s="3">
-        <v>90800</v>
+        <v>16500</v>
       </c>
       <c r="H61" s="3">
-        <v>91900</v>
+        <v>92300</v>
       </c>
       <c r="I61" s="3">
-        <v>93900</v>
+        <v>93400</v>
       </c>
       <c r="J61" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K61" s="3">
         <v>102300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>102800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>116800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>106300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>120400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>118900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>118200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>70400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>69600</v>
-      </c>
-      <c r="S61" s="3">
-        <v>83300</v>
       </c>
       <c r="T61" s="3">
         <v>83300</v>
       </c>
       <c r="U61" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="V61" s="3">
         <v>80400</v>
       </c>
       <c r="W61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="X61" s="3">
         <v>5200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>50500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>263500</v>
+        <v>328500</v>
       </c>
       <c r="E62" s="3">
-        <v>220900</v>
+        <v>232700</v>
       </c>
       <c r="F62" s="3">
-        <v>241300</v>
+        <v>225900</v>
       </c>
       <c r="G62" s="3">
-        <v>207900</v>
+        <v>245300</v>
       </c>
       <c r="H62" s="3">
-        <v>221900</v>
+        <v>211400</v>
       </c>
       <c r="I62" s="3">
-        <v>249900</v>
+        <v>225600</v>
       </c>
       <c r="J62" s="3">
+        <v>254100</v>
+      </c>
+      <c r="K62" s="3">
         <v>256800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>237400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>242800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>217900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>223900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>197700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>198000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>185600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>191800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>231500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>230100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>227200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>223000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>218800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>212100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>218100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>811900</v>
+        <v>935800</v>
       </c>
       <c r="E66" s="3">
-        <v>899400</v>
+        <v>825400</v>
       </c>
       <c r="F66" s="3">
-        <v>796200</v>
+        <v>913100</v>
       </c>
       <c r="G66" s="3">
-        <v>747000</v>
+        <v>809400</v>
       </c>
       <c r="H66" s="3">
-        <v>701200</v>
+        <v>759400</v>
       </c>
       <c r="I66" s="3">
-        <v>748800</v>
+        <v>712900</v>
       </c>
       <c r="J66" s="3">
+        <v>761200</v>
+      </c>
+      <c r="K66" s="3">
         <v>727800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>750300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>793200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>770200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>762800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>764400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>629800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>673500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>626600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>808900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>733900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>772600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>792200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>720000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>636600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>713000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2330000</v>
+        <v>2471200</v>
       </c>
       <c r="E72" s="3">
-        <v>2220900</v>
+        <v>2368600</v>
       </c>
       <c r="F72" s="3">
-        <v>2190700</v>
+        <v>2261800</v>
       </c>
       <c r="G72" s="3">
-        <v>2174500</v>
+        <v>2227000</v>
       </c>
       <c r="H72" s="3">
-        <v>2122500</v>
+        <v>2210600</v>
       </c>
       <c r="I72" s="3">
-        <v>2081800</v>
+        <v>2157700</v>
       </c>
       <c r="J72" s="3">
+        <v>2116300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1979500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1879100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1908700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1872300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1884200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1761100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1724900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1612200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1559600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1867800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1829000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1725100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1622300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1566500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1517800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1523700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2457100</v>
+        <v>2601200</v>
       </c>
       <c r="E76" s="3">
-        <v>2357800</v>
+        <v>2497900</v>
       </c>
       <c r="F76" s="3">
-        <v>2328900</v>
+        <v>2400800</v>
       </c>
       <c r="G76" s="3">
-        <v>2299800</v>
+        <v>2367600</v>
       </c>
       <c r="H76" s="3">
-        <v>2256700</v>
+        <v>2338000</v>
       </c>
       <c r="I76" s="3">
+        <v>2294200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2175400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2139900</v>
       </c>
-      <c r="J76" s="3">
-        <v>2139900</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2043500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2082300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1993700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2021900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1887500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1854700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1737200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1672400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2021000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1957000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1842200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1746300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1690000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1648500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1681300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5522,73 +5717,76 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>32000</v>
+        <v>108300</v>
       </c>
       <c r="F81" s="3">
-        <v>41700</v>
+        <v>32400</v>
       </c>
       <c r="G81" s="3">
-        <v>73000</v>
+        <v>42400</v>
       </c>
       <c r="H81" s="3">
-        <v>103800</v>
+        <v>74200</v>
       </c>
       <c r="I81" s="3">
-        <v>48200</v>
+        <v>105500</v>
       </c>
       <c r="J81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K81" s="3">
         <v>40900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>103700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>55800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>84400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>67300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>89000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>33700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27000</v>
+        <v>23600</v>
       </c>
       <c r="E83" s="3">
-        <v>23300</v>
+        <v>27500</v>
       </c>
       <c r="F83" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="G83" s="3">
-        <v>21500</v>
+        <v>22400</v>
       </c>
       <c r="H83" s="3">
-        <v>23500</v>
+        <v>21800</v>
       </c>
       <c r="I83" s="3">
-        <v>36100</v>
+        <v>23900</v>
       </c>
       <c r="J83" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K83" s="3">
         <v>21600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>15500</v>
       </c>
       <c r="P83" s="3">
         <v>15500</v>
       </c>
       <c r="Q83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>56500</v>
+        <v>72600</v>
       </c>
       <c r="E89" s="3">
-        <v>82200</v>
+        <v>57400</v>
       </c>
       <c r="F89" s="3">
-        <v>-8000</v>
+        <v>103700</v>
       </c>
       <c r="G89" s="3">
-        <v>176700</v>
+        <v>-8200</v>
       </c>
       <c r="H89" s="3">
-        <v>46100</v>
+        <v>179700</v>
       </c>
       <c r="I89" s="3">
+        <v>46900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>74900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="M89" s="3">
         <v>119200</v>
       </c>
-      <c r="J89" s="3">
-        <v>74900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>119200</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>82500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>76100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-34900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>69800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>78900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>118500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>35200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>63200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45200</v>
+        <v>-49900</v>
       </c>
       <c r="E91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-61700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-46700</v>
-      </c>
       <c r="G91" s="3">
-        <v>-37100</v>
+        <v>-47500</v>
       </c>
       <c r="H91" s="3">
-        <v>-27400</v>
+        <v>-37700</v>
       </c>
       <c r="I91" s="3">
-        <v>-38400</v>
+        <v>-27900</v>
       </c>
       <c r="J91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-36500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>42000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-95400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-199500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80100</v>
+        <v>-44500</v>
       </c>
       <c r="E94" s="3">
-        <v>-51100</v>
+        <v>-81400</v>
       </c>
       <c r="F94" s="3">
-        <v>-36900</v>
+        <v>-37800</v>
       </c>
       <c r="G94" s="3">
-        <v>-28900</v>
+        <v>-37500</v>
       </c>
       <c r="H94" s="3">
-        <v>-14700</v>
+        <v>-29400</v>
       </c>
       <c r="I94" s="3">
-        <v>-90200</v>
+        <v>-15000</v>
       </c>
       <c r="J94" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-169700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-23800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6497,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-21000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-21400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6509,11 +6743,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6521,11 +6755,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-21100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6533,11 +6767,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-19200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6545,11 +6779,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-20200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -6557,10 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6400</v>
+        <v>-7200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>-6500</v>
       </c>
       <c r="F100" s="3">
-        <v>-25400</v>
+        <v>-5600</v>
       </c>
       <c r="G100" s="3">
-        <v>-63200</v>
+        <v>-25800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6500</v>
+        <v>-64300</v>
       </c>
       <c r="I100" s="3">
-        <v>-13000</v>
+        <v>-6600</v>
       </c>
       <c r="J100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>36800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>35000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-31700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-600</v>
-      </c>
       <c r="F101" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G101" s="3">
         <v>2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-36400</v>
-      </c>
       <c r="J101" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="K101" s="3">
         <v>7100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-19800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29300</v>
+        <v>18400</v>
       </c>
       <c r="E102" s="3">
-        <v>30600</v>
+        <v>-29800</v>
       </c>
       <c r="F102" s="3">
-        <v>-67800</v>
+        <v>50400</v>
       </c>
       <c r="G102" s="3">
-        <v>82500</v>
+        <v>-68900</v>
       </c>
       <c r="H102" s="3">
-        <v>27100</v>
+        <v>83800</v>
       </c>
       <c r="I102" s="3">
-        <v>-20400</v>
+        <v>27600</v>
       </c>
       <c r="J102" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K102" s="3">
         <v>21200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-146600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>85200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-79300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>33100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-55300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>72700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>34200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1327400</v>
+        <v>1266700</v>
       </c>
       <c r="E8" s="3">
-        <v>1223700</v>
+        <v>1368900</v>
       </c>
       <c r="F8" s="3">
-        <v>1067300</v>
+        <v>1262000</v>
       </c>
       <c r="G8" s="3">
-        <v>1015900</v>
+        <v>1100600</v>
       </c>
       <c r="H8" s="3">
-        <v>1047600</v>
+        <v>1047700</v>
       </c>
       <c r="I8" s="3">
-        <v>972100</v>
+        <v>1080400</v>
       </c>
       <c r="J8" s="3">
+        <v>1002500</v>
+      </c>
+      <c r="K8" s="3">
         <v>920500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>903600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>786300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>753100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>751000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>769000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>816700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>692800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>703200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>635300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>869200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>820400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>777500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>735300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>781800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>707800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>754400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>669700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1030400</v>
+        <v>1097400</v>
       </c>
       <c r="E9" s="3">
-        <v>966300</v>
+        <v>1062700</v>
       </c>
       <c r="F9" s="3">
-        <v>939000</v>
+        <v>996500</v>
       </c>
       <c r="G9" s="3">
-        <v>884800</v>
+        <v>968300</v>
       </c>
       <c r="H9" s="3">
-        <v>848800</v>
+        <v>912500</v>
       </c>
       <c r="I9" s="3">
-        <v>760300</v>
+        <v>875300</v>
       </c>
       <c r="J9" s="3">
+        <v>784100</v>
+      </c>
+      <c r="K9" s="3">
         <v>726600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>746300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>697400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>648700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>653500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>638100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>636800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>605400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>605200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>583100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>702700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>647900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>660700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>606800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>594900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>594400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>631100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>565900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>297000</v>
+        <v>169300</v>
       </c>
       <c r="E10" s="3">
-        <v>257500</v>
+        <v>306300</v>
       </c>
       <c r="F10" s="3">
-        <v>128300</v>
+        <v>265500</v>
       </c>
       <c r="G10" s="3">
-        <v>131100</v>
+        <v>132300</v>
       </c>
       <c r="H10" s="3">
-        <v>198900</v>
+        <v>135200</v>
       </c>
       <c r="I10" s="3">
-        <v>211800</v>
+        <v>205100</v>
       </c>
       <c r="J10" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K10" s="3">
         <v>193900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>157300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>104400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>130900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>179900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>87400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>98000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>166500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>172500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>116800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>128500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>186900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>113300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>123200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
-        <v>1065900</v>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="3">
-        <v>1041900</v>
+        <v>1099200</v>
       </c>
       <c r="G17" s="3">
-        <v>978800</v>
+        <v>1074400</v>
       </c>
       <c r="H17" s="3">
-        <v>942700</v>
+        <v>1009400</v>
       </c>
       <c r="I17" s="3">
-        <v>843600</v>
+        <v>972200</v>
       </c>
       <c r="J17" s="3">
+        <v>870000</v>
+      </c>
+      <c r="K17" s="3">
         <v>813500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>830300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>782300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>724200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>736300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>709700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>712000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>676600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>680900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>647000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>780400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>722700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>732500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>675200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>661300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>659700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>617000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
-        <v>157800</v>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>25400</v>
+        <v>162700</v>
       </c>
       <c r="G18" s="3">
-        <v>37100</v>
+        <v>26200</v>
       </c>
       <c r="H18" s="3">
-        <v>104900</v>
+        <v>38200</v>
       </c>
       <c r="I18" s="3">
-        <v>128500</v>
+        <v>108200</v>
       </c>
       <c r="J18" s="3">
+        <v>132500</v>
+      </c>
+      <c r="K18" s="3">
         <v>107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>104700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>97700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>45000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>120500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>48100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>54000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>-7500</v>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>8400</v>
+        <v>-7700</v>
       </c>
       <c r="G20" s="3">
-        <v>26500</v>
+        <v>8700</v>
       </c>
       <c r="H20" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>18800</v>
-      </c>
       <c r="J20" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-56900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>118800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>33700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>18600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>177800</v>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>56400</v>
+        <v>183400</v>
       </c>
       <c r="G21" s="3">
-        <v>86000</v>
+        <v>58100</v>
       </c>
       <c r="H21" s="3">
-        <v>126800</v>
+        <v>88700</v>
       </c>
       <c r="I21" s="3">
-        <v>171200</v>
+        <v>130800</v>
       </c>
       <c r="J21" s="3">
+        <v>176600</v>
+      </c>
+      <c r="K21" s="3">
         <v>86800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>168500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>129000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>138300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>112500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>86200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>87900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>141800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>61000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>84400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5900</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>6100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>3400</v>
-      </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="I22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200300</v>
+        <v>64600</v>
       </c>
       <c r="E23" s="3">
-        <v>146000</v>
+        <v>206600</v>
       </c>
       <c r="F23" s="3">
-        <v>33800</v>
+        <v>150500</v>
       </c>
       <c r="G23" s="3">
-        <v>60200</v>
+        <v>34900</v>
       </c>
       <c r="H23" s="3">
-        <v>100000</v>
+        <v>62000</v>
       </c>
       <c r="I23" s="3">
-        <v>144600</v>
+        <v>103200</v>
       </c>
       <c r="J23" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K23" s="3">
         <v>49000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>145000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>79700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>109100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>118900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>92700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>72300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>70000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>125500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>44500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>71400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52900</v>
+        <v>14800</v>
       </c>
       <c r="E24" s="3">
-        <v>39100</v>
+        <v>54600</v>
       </c>
       <c r="F24" s="3">
-        <v>3700</v>
+        <v>40300</v>
       </c>
       <c r="G24" s="3">
-        <v>19100</v>
+        <v>3900</v>
       </c>
       <c r="H24" s="3">
-        <v>27600</v>
+        <v>19700</v>
       </c>
       <c r="I24" s="3">
-        <v>40400</v>
+        <v>28400</v>
       </c>
       <c r="J24" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>36400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3">
-        <v>106900</v>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F26" s="3">
-        <v>30100</v>
+        <v>110200</v>
       </c>
       <c r="G26" s="3">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="H26" s="3">
-        <v>72500</v>
+        <v>42300</v>
       </c>
       <c r="I26" s="3">
-        <v>104200</v>
+        <v>74700</v>
       </c>
       <c r="J26" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K26" s="3">
         <v>48800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>77000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>84500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>67600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>81800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>51600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>89100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>33800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>51200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
-        <v>108300</v>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="3">
+        <v>111700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>40900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>103700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P27" s="3">
+        <v>55800</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S27" s="3">
         <v>32400</v>
       </c>
-      <c r="G27" s="3">
-        <v>42400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>74200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>105500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>49000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>40900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>103700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>55800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>14500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>32400</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>67300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>81700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>89000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>33700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>51300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>7500</v>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
-        <v>-8400</v>
+        <v>7700</v>
       </c>
       <c r="G32" s="3">
-        <v>-26500</v>
+        <v>-8700</v>
       </c>
       <c r="H32" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-18800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K32" s="3">
         <v>56900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-118800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-33700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-18600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3">
-        <v>108300</v>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F33" s="3">
+        <v>111700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>40900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>103700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P33" s="3">
+        <v>55800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S33" s="3">
         <v>32400</v>
       </c>
-      <c r="G33" s="3">
-        <v>42400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>74200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>105500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>49000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>40900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>103700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>55800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>14500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>32400</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>84400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>67300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>81700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>89000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>33700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>51300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="3">
-        <v>108300</v>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F35" s="3">
+        <v>111700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>40900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>103700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P35" s="3">
+        <v>55800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S35" s="3">
         <v>32400</v>
       </c>
-      <c r="G35" s="3">
-        <v>42400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>74200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>105500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>49000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>40900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>103700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>55800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>14500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>32400</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>84400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>67300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>81700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>89000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>33700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>51300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2057000</v>
+        <v>2112200</v>
       </c>
       <c r="E41" s="3">
-        <v>1010100</v>
+        <v>2121300</v>
       </c>
       <c r="F41" s="3">
-        <v>961000</v>
+        <v>1041700</v>
       </c>
       <c r="G41" s="3">
-        <v>1008800</v>
+        <v>991100</v>
       </c>
       <c r="H41" s="3">
-        <v>1077800</v>
+        <v>1040400</v>
       </c>
       <c r="I41" s="3">
-        <v>993900</v>
+        <v>1111500</v>
       </c>
       <c r="J41" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="K41" s="3">
         <v>966400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>899100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>850300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>996900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>926000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>915800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>895600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>783300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>816300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>773600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1015900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>957300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>891700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>814400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>869700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>797000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>779600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>811700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,11 +3099,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>78900</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>81300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3021,11 +3111,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>98200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -3033,11 +3123,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>24900</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -3045,11 +3135,11 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>25100</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3057,11 +3147,11 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>58300</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -3069,322 +3159,337 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>51500</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>259900</v>
+        <v>307900</v>
       </c>
       <c r="E43" s="3">
-        <v>249600</v>
+        <v>268000</v>
       </c>
       <c r="F43" s="3">
-        <v>256500</v>
+        <v>257400</v>
       </c>
       <c r="G43" s="3">
-        <v>249600</v>
+        <v>264600</v>
       </c>
       <c r="H43" s="3">
-        <v>226800</v>
+        <v>257400</v>
       </c>
       <c r="I43" s="3">
-        <v>246500</v>
+        <v>233900</v>
       </c>
       <c r="J43" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K43" s="3">
         <v>450200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>248300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>225800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>192600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>218600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>236200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>189500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>159000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>161100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>173100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>184800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>378200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>161600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>154200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>172900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>200600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>154500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1216800</v>
+        <v>1207500</v>
       </c>
       <c r="E44" s="3">
-        <v>506600</v>
+        <v>1254800</v>
       </c>
       <c r="F44" s="3">
-        <v>459300</v>
+        <v>522500</v>
       </c>
       <c r="G44" s="3">
-        <v>442700</v>
+        <v>473700</v>
       </c>
       <c r="H44" s="3">
-        <v>400700</v>
+        <v>456500</v>
       </c>
       <c r="I44" s="3">
-        <v>415100</v>
+        <v>413200</v>
       </c>
       <c r="J44" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K44" s="3">
         <v>285700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>390500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>415600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>376700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>335100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>346400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>298300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>302800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>303200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>207900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>375300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>327600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>344900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>339800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>330800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>287300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>315000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>316400</v>
+        <v>358300</v>
       </c>
       <c r="E45" s="3">
-        <v>74700</v>
+        <v>326300</v>
       </c>
       <c r="F45" s="3">
-        <v>144900</v>
+        <v>77100</v>
       </c>
       <c r="G45" s="3">
-        <v>113700</v>
+        <v>149400</v>
       </c>
       <c r="H45" s="3">
-        <v>66800</v>
+        <v>117200</v>
       </c>
       <c r="I45" s="3">
-        <v>43000</v>
+        <v>68900</v>
       </c>
       <c r="J45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K45" s="3">
         <v>214900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>64400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>143700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>43300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>164900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>108800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>110500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>76600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>83300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2024100</v>
+        <v>2122700</v>
       </c>
       <c r="E46" s="3">
-        <v>1841100</v>
+        <v>2087400</v>
       </c>
       <c r="F46" s="3">
-        <v>1900600</v>
+        <v>1898700</v>
       </c>
       <c r="G46" s="3">
-        <v>1814800</v>
+        <v>1960000</v>
       </c>
       <c r="H46" s="3">
-        <v>1772000</v>
+        <v>1871500</v>
       </c>
       <c r="I46" s="3">
-        <v>1698500</v>
+        <v>1827400</v>
       </c>
       <c r="J46" s="3">
+        <v>1751600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1636500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1585200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1553000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1638400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1543000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1541200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1471700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1312400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1357700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1286200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1612900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1513000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1459800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1424600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1465200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1333800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1430000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1338600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1469200</v>
+        <v>1570900</v>
       </c>
       <c r="E48" s="3">
-        <v>1269000</v>
+        <v>1515100</v>
       </c>
       <c r="F48" s="3">
-        <v>1245500</v>
+        <v>1308700</v>
       </c>
       <c r="G48" s="3">
-        <v>1191800</v>
+        <v>1284500</v>
       </c>
       <c r="H48" s="3">
-        <v>1156100</v>
+        <v>1229100</v>
       </c>
       <c r="I48" s="3">
-        <v>1140500</v>
+        <v>1192200</v>
       </c>
       <c r="J48" s="3">
+        <v>1176100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1125100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1094700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1053800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1058500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1051900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1058300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1007700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1002800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>866300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1032100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1003900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>979400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>951400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>870000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>866800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>889400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>858300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>174500</v>
+        <v>178700</v>
       </c>
       <c r="E49" s="3">
-        <v>174000</v>
+        <v>179900</v>
       </c>
       <c r="F49" s="3">
-        <v>120200</v>
+        <v>179400</v>
       </c>
       <c r="G49" s="3">
-        <v>121900</v>
+        <v>123900</v>
       </c>
       <c r="H49" s="3">
-        <v>119100</v>
+        <v>125700</v>
       </c>
       <c r="I49" s="3">
-        <v>122400</v>
+        <v>122900</v>
       </c>
       <c r="J49" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K49" s="3">
         <v>158600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>131900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>137100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>116700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>127300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>120600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>117700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>112900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>142700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>133500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>138200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>80800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>24200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>25700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34400</v>
+        <v>48900</v>
       </c>
       <c r="E52" s="3">
-        <v>39200</v>
+        <v>35500</v>
       </c>
       <c r="F52" s="3">
-        <v>47600</v>
+        <v>40400</v>
       </c>
       <c r="G52" s="3">
-        <v>48500</v>
+        <v>49100</v>
       </c>
       <c r="H52" s="3">
-        <v>50200</v>
+        <v>50000</v>
       </c>
       <c r="I52" s="3">
-        <v>45600</v>
+        <v>51800</v>
       </c>
       <c r="J52" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K52" s="3">
         <v>95400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>57900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>51900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>46700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>35100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>42200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>40500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>70700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>81700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>60400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>49100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>52500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3537000</v>
+        <v>3731100</v>
       </c>
       <c r="E54" s="3">
-        <v>3323300</v>
+        <v>3647500</v>
       </c>
       <c r="F54" s="3">
-        <v>3314000</v>
+        <v>3427200</v>
       </c>
       <c r="G54" s="3">
-        <v>3177000</v>
+        <v>3417600</v>
       </c>
       <c r="H54" s="3">
-        <v>3097400</v>
+        <v>3276400</v>
       </c>
       <c r="I54" s="3">
-        <v>3007000</v>
+        <v>3194200</v>
       </c>
       <c r="J54" s="3">
+        <v>3101000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2936600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2867700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2793800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2875500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2764000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2784700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2652000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2484500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2410700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2299000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2829900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2691000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2614800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2538500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2410000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2285100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2394300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2274600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>324400</v>
+        <v>311200</v>
       </c>
       <c r="E57" s="3">
-        <v>320700</v>
+        <v>334600</v>
       </c>
       <c r="F57" s="3">
-        <v>407900</v>
+        <v>330700</v>
       </c>
       <c r="G57" s="3">
-        <v>326600</v>
+        <v>420700</v>
       </c>
       <c r="H57" s="3">
-        <v>280900</v>
+        <v>336800</v>
       </c>
       <c r="I57" s="3">
-        <v>211800</v>
+        <v>289700</v>
       </c>
       <c r="J57" s="3">
+        <v>218400</v>
+      </c>
+      <c r="K57" s="3">
         <v>238600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>228400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>257900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>234800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>197100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>174700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>171900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>148800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>182200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>149900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>173900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>193400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>227800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>216400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>173100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>193600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>175600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>147400</v>
+        <v>71500</v>
       </c>
       <c r="E58" s="3">
-        <v>114200</v>
+        <v>152000</v>
       </c>
       <c r="F58" s="3">
-        <v>123500</v>
+        <v>117800</v>
       </c>
       <c r="G58" s="3">
-        <v>103400</v>
+        <v>127400</v>
       </c>
       <c r="H58" s="3">
-        <v>30800</v>
+        <v>106600</v>
       </c>
       <c r="I58" s="3">
-        <v>67500</v>
+        <v>31700</v>
       </c>
       <c r="J58" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K58" s="3">
         <v>124300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>59600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>60200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>137200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>181900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>176500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>166400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>107700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>166000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>146600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>179700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>177400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>385400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>176100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>189200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>176500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>174600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>170100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158200</v>
+        <v>147200</v>
       </c>
       <c r="E59" s="3">
-        <v>113100</v>
+        <v>163100</v>
       </c>
       <c r="F59" s="3">
-        <v>113200</v>
+        <v>116700</v>
       </c>
       <c r="G59" s="3">
-        <v>91700</v>
+        <v>116700</v>
       </c>
       <c r="H59" s="3">
-        <v>116800</v>
+        <v>94600</v>
       </c>
       <c r="I59" s="3">
-        <v>85300</v>
+        <v>120500</v>
       </c>
       <c r="J59" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K59" s="3">
         <v>176900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>63300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>109900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>145200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>81900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>87600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>46200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>73400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600100</v>
+        <v>498900</v>
       </c>
       <c r="E60" s="3">
-        <v>548000</v>
+        <v>618800</v>
       </c>
       <c r="F60" s="3">
-        <v>644600</v>
+        <v>565100</v>
       </c>
       <c r="G60" s="3">
-        <v>521700</v>
+        <v>664700</v>
       </c>
       <c r="H60" s="3">
-        <v>428500</v>
+        <v>538000</v>
       </c>
       <c r="I60" s="3">
-        <v>364600</v>
+        <v>441900</v>
       </c>
       <c r="J60" s="3">
+        <v>376000</v>
+      </c>
+      <c r="K60" s="3">
         <v>410800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>354200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>397500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>429600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>442000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>414500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>444100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>310000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>414300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>362100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>490500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>417100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>475100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>485800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>493100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>395800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>441600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>405500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21100</v>
+        <v>169500</v>
       </c>
       <c r="E61" s="3">
-        <v>21800</v>
+        <v>21700</v>
       </c>
       <c r="F61" s="3">
-        <v>18700</v>
+        <v>22500</v>
       </c>
       <c r="G61" s="3">
-        <v>16500</v>
+        <v>19200</v>
       </c>
       <c r="H61" s="3">
-        <v>92300</v>
+        <v>17000</v>
       </c>
       <c r="I61" s="3">
-        <v>93400</v>
+        <v>95200</v>
       </c>
       <c r="J61" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K61" s="3">
         <v>95500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>102300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>102800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>116800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>106300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>120400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>118900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>118200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>70400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>69600</v>
-      </c>
-      <c r="T61" s="3">
-        <v>83300</v>
       </c>
       <c r="U61" s="3">
         <v>83300</v>
       </c>
       <c r="V61" s="3">
-        <v>80400</v>
+        <v>83300</v>
       </c>
       <c r="W61" s="3">
         <v>80400</v>
       </c>
       <c r="X61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="Y61" s="3">
         <v>5200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>25900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>50500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>44800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>328500</v>
+        <v>346700</v>
       </c>
       <c r="E62" s="3">
+        <v>338800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>240000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>232900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>252900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>218000</v>
+      </c>
+      <c r="J62" s="3">
         <v>232700</v>
       </c>
-      <c r="F62" s="3">
-        <v>225900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>245300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>211400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>225600</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>254100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>256800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>237400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>242800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>217900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>223900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>197700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>198000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>185600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>191800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>231500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>230100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>227200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>223000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>218800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>212100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>218100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>206900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>935800</v>
+        <v>999200</v>
       </c>
       <c r="E66" s="3">
-        <v>825400</v>
+        <v>965000</v>
       </c>
       <c r="F66" s="3">
-        <v>913100</v>
+        <v>851200</v>
       </c>
       <c r="G66" s="3">
-        <v>809400</v>
+        <v>941700</v>
       </c>
       <c r="H66" s="3">
-        <v>759400</v>
+        <v>834700</v>
       </c>
       <c r="I66" s="3">
-        <v>712900</v>
+        <v>783200</v>
       </c>
       <c r="J66" s="3">
+        <v>735200</v>
+      </c>
+      <c r="K66" s="3">
         <v>761200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>727800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>750300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>793200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>770200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>762800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>764400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>629800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>673500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>626600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>808900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>733900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>772600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>792200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>720000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>636600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>713000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>660200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2471200</v>
+        <v>2598800</v>
       </c>
       <c r="E72" s="3">
-        <v>2368600</v>
+        <v>2548400</v>
       </c>
       <c r="F72" s="3">
-        <v>2261800</v>
+        <v>2442700</v>
       </c>
       <c r="G72" s="3">
-        <v>2227000</v>
+        <v>2332600</v>
       </c>
       <c r="H72" s="3">
-        <v>2210600</v>
+        <v>2296700</v>
       </c>
       <c r="I72" s="3">
-        <v>2157700</v>
+        <v>2279700</v>
       </c>
       <c r="J72" s="3">
+        <v>2225200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2116300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1979500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1879100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1908700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1872300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1884200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1761100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1724900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1612200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1559600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1867800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1829000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1725100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1622300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1566500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1517800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1523700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1472400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2601200</v>
+        <v>2732000</v>
       </c>
       <c r="E76" s="3">
-        <v>2497900</v>
+        <v>2682500</v>
       </c>
       <c r="F76" s="3">
-        <v>2400800</v>
+        <v>2576000</v>
       </c>
       <c r="G76" s="3">
-        <v>2367600</v>
+        <v>2475900</v>
       </c>
       <c r="H76" s="3">
-        <v>2338000</v>
+        <v>2441600</v>
       </c>
       <c r="I76" s="3">
-        <v>2294200</v>
+        <v>2411100</v>
       </c>
       <c r="J76" s="3">
+        <v>2365900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2175400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2139900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2043500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2082300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1993700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2021900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1887500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1854700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1737200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1672400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2021000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1957000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1842200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1746300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1690000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1648500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1681300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1614400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="3">
-        <v>108300</v>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F81" s="3">
+        <v>111700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>43700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>40900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>103700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P81" s="3">
+        <v>55800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S81" s="3">
         <v>32400</v>
       </c>
-      <c r="G81" s="3">
-        <v>42400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>74200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>105500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>49000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>40900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>103700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>55800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>14500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>32400</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>84400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>67300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>81700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>89000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>33700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>51300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23600</v>
+        <v>25000</v>
       </c>
       <c r="E83" s="3">
-        <v>27500</v>
+        <v>24300</v>
       </c>
       <c r="F83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I83" s="3">
         <v>22500</v>
       </c>
-      <c r="G83" s="3">
-        <v>22400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>21800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>23900</v>
-      </c>
       <c r="J83" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K83" s="3">
         <v>36700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>15500</v>
       </c>
       <c r="Q83" s="3">
         <v>15500</v>
       </c>
       <c r="R83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72600</v>
+        <v>2700</v>
       </c>
       <c r="E89" s="3">
-        <v>57400</v>
+        <v>74900</v>
       </c>
       <c r="F89" s="3">
-        <v>103700</v>
+        <v>59200</v>
       </c>
       <c r="G89" s="3">
-        <v>-8200</v>
+        <v>106900</v>
       </c>
       <c r="H89" s="3">
-        <v>179700</v>
+        <v>-8400</v>
       </c>
       <c r="I89" s="3">
-        <v>46900</v>
+        <v>185300</v>
       </c>
       <c r="J89" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K89" s="3">
         <v>121200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>74900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>82500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-36200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>76100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-34900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>69800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>50800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>78900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>118500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>35200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>63200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>31800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49900</v>
+        <v>-54200</v>
       </c>
       <c r="E91" s="3">
-        <v>-46000</v>
+        <v>-51500</v>
       </c>
       <c r="F91" s="3">
-        <v>-61700</v>
+        <v>-47400</v>
       </c>
       <c r="G91" s="3">
-        <v>-47500</v>
+        <v>-63600</v>
       </c>
       <c r="H91" s="3">
-        <v>-37700</v>
+        <v>-48900</v>
       </c>
       <c r="I91" s="3">
-        <v>-27900</v>
+        <v>-38900</v>
       </c>
       <c r="J91" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-39000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>42000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-95400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-33300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-199500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44500</v>
+        <v>-39700</v>
       </c>
       <c r="E94" s="3">
-        <v>-81400</v>
+        <v>-45900</v>
       </c>
       <c r="F94" s="3">
-        <v>-37800</v>
+        <v>-84000</v>
       </c>
       <c r="G94" s="3">
-        <v>-37500</v>
+        <v>-39000</v>
       </c>
       <c r="H94" s="3">
-        <v>-29400</v>
+        <v>-38700</v>
       </c>
       <c r="I94" s="3">
-        <v>-15000</v>
+        <v>-30300</v>
       </c>
       <c r="J94" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-91700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-169700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-20300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-23800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-19800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,13 +6952,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-28900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6734,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-21400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-22100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6746,11 +6980,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-19600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6758,11 +6992,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-21100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6770,11 +7004,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-19200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6782,11 +7016,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-20200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -6794,10 +7028,13 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-20700</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7200</v>
+        <v>32500</v>
       </c>
       <c r="E100" s="3">
-        <v>-6500</v>
+        <v>-7400</v>
       </c>
       <c r="F100" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>36800</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="G100" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-64300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="T100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>35000</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-6600</v>
       </c>
-      <c r="J100" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-109700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-52500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-33300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>36800</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-64800</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>6100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>35000</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-9800</v>
-      </c>
       <c r="G101" s="3">
-        <v>2500</v>
+        <v>-10100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2200</v>
+        <v>2600</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>-2300</v>
       </c>
       <c r="J101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-19800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-22800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18400</v>
+        <v>-4600</v>
       </c>
       <c r="E102" s="3">
-        <v>-29800</v>
+        <v>18900</v>
       </c>
       <c r="F102" s="3">
-        <v>50400</v>
+        <v>-30700</v>
       </c>
       <c r="G102" s="3">
-        <v>-68900</v>
+        <v>52000</v>
       </c>
       <c r="H102" s="3">
-        <v>83800</v>
+        <v>-71100</v>
       </c>
       <c r="I102" s="3">
-        <v>27600</v>
+        <v>86400</v>
       </c>
       <c r="J102" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-146600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>112300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-109200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>85200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-79300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>33100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>68900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-55300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>72700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>34200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IBA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>IBA</t>
   </si>
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1266700</v>
+        <v>4102300</v>
       </c>
       <c r="E8" s="3">
-        <v>1368900</v>
+        <v>1440800</v>
       </c>
       <c r="F8" s="3">
-        <v>1262000</v>
+        <v>1328200</v>
       </c>
       <c r="G8" s="3">
-        <v>1100600</v>
+        <v>1158400</v>
       </c>
       <c r="H8" s="3">
-        <v>1047700</v>
+        <v>1102700</v>
       </c>
       <c r="I8" s="3">
-        <v>1080400</v>
+        <v>1137100</v>
       </c>
       <c r="J8" s="3">
-        <v>1002500</v>
+        <v>1055200</v>
       </c>
       <c r="K8" s="3">
         <v>920500</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1097400</v>
+        <v>3322300</v>
       </c>
       <c r="E9" s="3">
-        <v>1062700</v>
+        <v>1118500</v>
       </c>
       <c r="F9" s="3">
-        <v>996500</v>
+        <v>1048800</v>
       </c>
       <c r="G9" s="3">
-        <v>968300</v>
+        <v>1017700</v>
       </c>
       <c r="H9" s="3">
-        <v>912500</v>
+        <v>960400</v>
       </c>
       <c r="I9" s="3">
-        <v>875300</v>
+        <v>921300</v>
       </c>
       <c r="J9" s="3">
-        <v>784100</v>
+        <v>825300</v>
       </c>
       <c r="K9" s="3">
         <v>726600</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>169300</v>
+        <v>779900</v>
       </c>
       <c r="E10" s="3">
-        <v>306300</v>
+        <v>322400</v>
       </c>
       <c r="F10" s="3">
-        <v>265500</v>
+        <v>279400</v>
       </c>
       <c r="G10" s="3">
-        <v>132300</v>
+        <v>140700</v>
       </c>
       <c r="H10" s="3">
-        <v>135200</v>
+        <v>142300</v>
       </c>
       <c r="I10" s="3">
-        <v>205100</v>
+        <v>215800</v>
       </c>
       <c r="J10" s="3">
-        <v>218500</v>
+        <v>229900</v>
       </c>
       <c r="K10" s="3">
         <v>193900</v>
@@ -1398,26 +1398,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>3660500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1232000</v>
       </c>
       <c r="F17" s="3">
-        <v>1099200</v>
+        <v>1157000</v>
       </c>
       <c r="G17" s="3">
-        <v>1074400</v>
+        <v>1131200</v>
       </c>
       <c r="H17" s="3">
-        <v>1009400</v>
+        <v>1062400</v>
       </c>
       <c r="I17" s="3">
-        <v>972200</v>
+        <v>1023300</v>
       </c>
       <c r="J17" s="3">
-        <v>870000</v>
+        <v>915700</v>
       </c>
       <c r="K17" s="3">
         <v>813500</v>
@@ -1478,26 +1478,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>441800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>208800</v>
       </c>
       <c r="F18" s="3">
-        <v>162700</v>
+        <v>171300</v>
       </c>
       <c r="G18" s="3">
-        <v>26200</v>
+        <v>27300</v>
       </c>
       <c r="H18" s="3">
-        <v>38200</v>
+        <v>40300</v>
       </c>
       <c r="I18" s="3">
-        <v>108200</v>
+        <v>113900</v>
       </c>
       <c r="J18" s="3">
-        <v>132500</v>
+        <v>139500</v>
       </c>
       <c r="K18" s="3">
         <v>107000</v>
@@ -1588,26 +1588,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15000</v>
       </c>
       <c r="F20" s="3">
-        <v>-7700</v>
+        <v>-8100</v>
       </c>
       <c r="G20" s="3">
-        <v>8700</v>
+        <v>10700</v>
       </c>
       <c r="H20" s="3">
-        <v>27300</v>
+        <v>28800</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>19400</v>
+        <v>20400</v>
       </c>
       <c r="K20" s="3">
         <v>-56900</v>
@@ -1668,26 +1668,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>547600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>249400</v>
       </c>
       <c r="F21" s="3">
-        <v>183400</v>
+        <v>193000</v>
       </c>
       <c r="G21" s="3">
-        <v>58100</v>
+        <v>62400</v>
       </c>
       <c r="H21" s="3">
-        <v>88700</v>
+        <v>93400</v>
       </c>
       <c r="I21" s="3">
-        <v>130800</v>
+        <v>137700</v>
       </c>
       <c r="J21" s="3">
-        <v>176600</v>
+        <v>185900</v>
       </c>
       <c r="K21" s="3">
         <v>86800</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>21200</v>
       </c>
       <c r="E22" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>4800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1600</v>
       </c>
       <c r="H22" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I22" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="J22" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64600</v>
+        <v>444700</v>
       </c>
       <c r="E23" s="3">
-        <v>206600</v>
+        <v>217400</v>
       </c>
       <c r="F23" s="3">
-        <v>150500</v>
+        <v>158400</v>
       </c>
       <c r="G23" s="3">
-        <v>34900</v>
+        <v>36400</v>
       </c>
       <c r="H23" s="3">
-        <v>62000</v>
+        <v>65300</v>
       </c>
       <c r="I23" s="3">
-        <v>103200</v>
+        <v>108600</v>
       </c>
       <c r="J23" s="3">
-        <v>149100</v>
+        <v>156900</v>
       </c>
       <c r="K23" s="3">
         <v>49000</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14800</v>
+        <v>115400</v>
       </c>
       <c r="E24" s="3">
-        <v>54600</v>
+        <v>57500</v>
       </c>
       <c r="F24" s="3">
-        <v>40300</v>
+        <v>42400</v>
       </c>
       <c r="G24" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
-        <v>19700</v>
+        <v>20700</v>
       </c>
       <c r="I24" s="3">
-        <v>28400</v>
+        <v>29900</v>
       </c>
       <c r="J24" s="3">
-        <v>41600</v>
+        <v>43800</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -2068,26 +2068,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>160000</v>
       </c>
       <c r="F26" s="3">
-        <v>110200</v>
+        <v>116000</v>
       </c>
       <c r="G26" s="3">
-        <v>31000</v>
+        <v>32400</v>
       </c>
       <c r="H26" s="3">
-        <v>42300</v>
+        <v>44600</v>
       </c>
       <c r="I26" s="3">
-        <v>74700</v>
+        <v>78700</v>
       </c>
       <c r="J26" s="3">
-        <v>107400</v>
+        <v>113100</v>
       </c>
       <c r="K26" s="3">
         <v>48800</v>
@@ -2148,26 +2148,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>160500</v>
       </c>
       <c r="F27" s="3">
-        <v>111700</v>
+        <v>117600</v>
       </c>
       <c r="G27" s="3">
-        <v>33400</v>
+        <v>34900</v>
       </c>
       <c r="H27" s="3">
-        <v>43700</v>
+        <v>46000</v>
       </c>
       <c r="I27" s="3">
-        <v>76500</v>
+        <v>80500</v>
       </c>
       <c r="J27" s="3">
-        <v>108800</v>
+        <v>114500</v>
       </c>
       <c r="K27" s="3">
         <v>49000</v>
@@ -2548,26 +2548,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-15000</v>
       </c>
       <c r="F32" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="G32" s="3">
-        <v>-8700</v>
+        <v>-10700</v>
       </c>
       <c r="H32" s="3">
-        <v>-27300</v>
+        <v>-28800</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-19400</v>
+        <v>-20400</v>
       </c>
       <c r="K32" s="3">
         <v>56900</v>
@@ -2628,26 +2628,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>160500</v>
       </c>
       <c r="F33" s="3">
-        <v>111700</v>
+        <v>117600</v>
       </c>
       <c r="G33" s="3">
-        <v>33400</v>
+        <v>34900</v>
       </c>
       <c r="H33" s="3">
-        <v>43700</v>
+        <v>46000</v>
       </c>
       <c r="I33" s="3">
-        <v>76500</v>
+        <v>80500</v>
       </c>
       <c r="J33" s="3">
-        <v>108800</v>
+        <v>114500</v>
       </c>
       <c r="K33" s="3">
         <v>49000</v>
@@ -2788,26 +2788,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>160500</v>
       </c>
       <c r="F35" s="3">
-        <v>111700</v>
+        <v>117600</v>
       </c>
       <c r="G35" s="3">
-        <v>33400</v>
+        <v>34900</v>
       </c>
       <c r="H35" s="3">
-        <v>43700</v>
+        <v>46000</v>
       </c>
       <c r="I35" s="3">
-        <v>76500</v>
+        <v>80500</v>
       </c>
       <c r="J35" s="3">
-        <v>108800</v>
+        <v>114500</v>
       </c>
       <c r="K35" s="3">
         <v>49000</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2112200</v>
+        <v>1111600</v>
       </c>
       <c r="E41" s="3">
-        <v>2121300</v>
+        <v>1116400</v>
       </c>
       <c r="F41" s="3">
-        <v>1041700</v>
+        <v>1096400</v>
       </c>
       <c r="G41" s="3">
-        <v>991100</v>
+        <v>1043100</v>
       </c>
       <c r="H41" s="3">
-        <v>1040400</v>
+        <v>1095000</v>
       </c>
       <c r="I41" s="3">
-        <v>1111500</v>
+        <v>1169800</v>
       </c>
       <c r="J41" s="3">
-        <v>1025000</v>
+        <v>1078800</v>
       </c>
       <c r="K41" s="3">
         <v>966400</v>
@@ -3103,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>81300</v>
+        <v>85600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>307900</v>
+        <v>324000</v>
       </c>
       <c r="E43" s="3">
-        <v>268000</v>
+        <v>282000</v>
       </c>
       <c r="F43" s="3">
-        <v>257400</v>
+        <v>271000</v>
       </c>
       <c r="G43" s="3">
-        <v>264600</v>
+        <v>278500</v>
       </c>
       <c r="H43" s="3">
-        <v>257400</v>
+        <v>271000</v>
       </c>
       <c r="I43" s="3">
-        <v>233900</v>
+        <v>246200</v>
       </c>
       <c r="J43" s="3">
-        <v>254200</v>
+        <v>267500</v>
       </c>
       <c r="K43" s="3">
         <v>450200</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1207500</v>
+        <v>698000</v>
       </c>
       <c r="E44" s="3">
-        <v>1254800</v>
+        <v>717200</v>
       </c>
       <c r="F44" s="3">
-        <v>522500</v>
+        <v>549900</v>
       </c>
       <c r="G44" s="3">
-        <v>473700</v>
+        <v>498500</v>
       </c>
       <c r="H44" s="3">
-        <v>456500</v>
+        <v>480500</v>
       </c>
       <c r="I44" s="3">
-        <v>413200</v>
+        <v>434900</v>
       </c>
       <c r="J44" s="3">
-        <v>428000</v>
+        <v>450500</v>
       </c>
       <c r="K44" s="3">
         <v>285700</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>358300</v>
+        <v>100600</v>
       </c>
       <c r="E45" s="3">
-        <v>326300</v>
+        <v>81500</v>
       </c>
       <c r="F45" s="3">
-        <v>77100</v>
+        <v>81100</v>
       </c>
       <c r="G45" s="3">
-        <v>149400</v>
+        <v>157200</v>
       </c>
       <c r="H45" s="3">
-        <v>117200</v>
+        <v>123400</v>
       </c>
       <c r="I45" s="3">
-        <v>68900</v>
+        <v>72500</v>
       </c>
       <c r="J45" s="3">
-        <v>44400</v>
+        <v>46700</v>
       </c>
       <c r="K45" s="3">
         <v>214900</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2122700</v>
+        <v>2234200</v>
       </c>
       <c r="E46" s="3">
-        <v>2087400</v>
+        <v>2197000</v>
       </c>
       <c r="F46" s="3">
-        <v>1898700</v>
+        <v>1998400</v>
       </c>
       <c r="G46" s="3">
-        <v>1960000</v>
+        <v>2063000</v>
       </c>
       <c r="H46" s="3">
-        <v>1871500</v>
+        <v>1969800</v>
       </c>
       <c r="I46" s="3">
-        <v>1827400</v>
+        <v>1923400</v>
       </c>
       <c r="J46" s="3">
-        <v>1751600</v>
+        <v>1843600</v>
       </c>
       <c r="K46" s="3">
         <v>1636500</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1570900</v>
+        <v>1453300</v>
       </c>
       <c r="E48" s="3">
-        <v>1515100</v>
+        <v>1415400</v>
       </c>
       <c r="F48" s="3">
-        <v>1308700</v>
+        <v>1377400</v>
       </c>
       <c r="G48" s="3">
-        <v>1284500</v>
+        <v>1351900</v>
       </c>
       <c r="H48" s="3">
-        <v>1229100</v>
+        <v>1293600</v>
       </c>
       <c r="I48" s="3">
-        <v>1192200</v>
+        <v>1254800</v>
       </c>
       <c r="J48" s="3">
-        <v>1176100</v>
+        <v>1237900</v>
       </c>
       <c r="K48" s="3">
         <v>1125100</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>178700</v>
+        <v>188100</v>
       </c>
       <c r="E49" s="3">
-        <v>179900</v>
+        <v>189400</v>
       </c>
       <c r="F49" s="3">
-        <v>179400</v>
+        <v>188900</v>
       </c>
       <c r="G49" s="3">
-        <v>123900</v>
+        <v>130400</v>
       </c>
       <c r="H49" s="3">
-        <v>125700</v>
+        <v>132300</v>
       </c>
       <c r="I49" s="3">
-        <v>122900</v>
+        <v>129300</v>
       </c>
       <c r="J49" s="3">
-        <v>126200</v>
+        <v>132900</v>
       </c>
       <c r="K49" s="3">
         <v>158600</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48900</v>
+        <v>51500</v>
       </c>
       <c r="E52" s="3">
-        <v>35500</v>
+        <v>37300</v>
       </c>
       <c r="F52" s="3">
-        <v>40400</v>
+        <v>42600</v>
       </c>
       <c r="G52" s="3">
-        <v>49100</v>
+        <v>51700</v>
       </c>
       <c r="H52" s="3">
-        <v>50000</v>
+        <v>52600</v>
       </c>
       <c r="I52" s="3">
-        <v>51800</v>
+        <v>54500</v>
       </c>
       <c r="J52" s="3">
-        <v>47100</v>
+        <v>49500</v>
       </c>
       <c r="K52" s="3">
         <v>95400</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3731100</v>
+        <v>3927100</v>
       </c>
       <c r="E54" s="3">
-        <v>3647500</v>
+        <v>3839100</v>
       </c>
       <c r="F54" s="3">
-        <v>3427200</v>
+        <v>3607200</v>
       </c>
       <c r="G54" s="3">
-        <v>3417600</v>
+        <v>3597000</v>
       </c>
       <c r="H54" s="3">
-        <v>3276400</v>
+        <v>3448400</v>
       </c>
       <c r="I54" s="3">
-        <v>3194200</v>
+        <v>3362000</v>
       </c>
       <c r="J54" s="3">
-        <v>3101000</v>
+        <v>3263900</v>
       </c>
       <c r="K54" s="3">
         <v>2936600</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>311200</v>
+        <v>327500</v>
       </c>
       <c r="E57" s="3">
-        <v>334600</v>
+        <v>352200</v>
       </c>
       <c r="F57" s="3">
-        <v>330700</v>
+        <v>348000</v>
       </c>
       <c r="G57" s="3">
-        <v>420700</v>
+        <v>442800</v>
       </c>
       <c r="H57" s="3">
-        <v>336800</v>
+        <v>354500</v>
       </c>
       <c r="I57" s="3">
-        <v>289700</v>
+        <v>304900</v>
       </c>
       <c r="J57" s="3">
-        <v>218400</v>
+        <v>229900</v>
       </c>
       <c r="K57" s="3">
         <v>238600</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71500</v>
+        <v>69500</v>
       </c>
       <c r="E58" s="3">
         <v>152000</v>
       </c>
       <c r="F58" s="3">
-        <v>117800</v>
+        <v>124000</v>
       </c>
       <c r="G58" s="3">
-        <v>127400</v>
+        <v>134000</v>
       </c>
       <c r="H58" s="3">
-        <v>106600</v>
+        <v>112200</v>
       </c>
       <c r="I58" s="3">
-        <v>31700</v>
+        <v>33400</v>
       </c>
       <c r="J58" s="3">
-        <v>69600</v>
+        <v>73300</v>
       </c>
       <c r="K58" s="3">
         <v>124300</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E59" s="3">
         <v>147200</v>
       </c>
-      <c r="E59" s="3">
-        <v>163100</v>
-      </c>
       <c r="F59" s="3">
-        <v>116700</v>
+        <v>122800</v>
       </c>
       <c r="G59" s="3">
-        <v>116700</v>
+        <v>122800</v>
       </c>
       <c r="H59" s="3">
-        <v>94600</v>
+        <v>99600</v>
       </c>
       <c r="I59" s="3">
-        <v>120500</v>
+        <v>126800</v>
       </c>
       <c r="J59" s="3">
-        <v>88000</v>
+        <v>92600</v>
       </c>
       <c r="K59" s="3">
         <v>176900</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>498900</v>
+        <v>525100</v>
       </c>
       <c r="E60" s="3">
-        <v>618800</v>
+        <v>651300</v>
       </c>
       <c r="F60" s="3">
-        <v>565100</v>
+        <v>594800</v>
       </c>
       <c r="G60" s="3">
-        <v>664700</v>
+        <v>699700</v>
       </c>
       <c r="H60" s="3">
-        <v>538000</v>
+        <v>566300</v>
       </c>
       <c r="I60" s="3">
-        <v>441900</v>
+        <v>465100</v>
       </c>
       <c r="J60" s="3">
-        <v>376000</v>
+        <v>395800</v>
       </c>
       <c r="K60" s="3">
         <v>410800</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>169500</v>
+        <v>178400</v>
       </c>
       <c r="E61" s="3">
-        <v>21700</v>
+        <v>22900</v>
       </c>
       <c r="F61" s="3">
-        <v>22500</v>
+        <v>23700</v>
       </c>
       <c r="G61" s="3">
-        <v>19200</v>
+        <v>20300</v>
       </c>
       <c r="H61" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="I61" s="3">
-        <v>95200</v>
+        <v>100200</v>
       </c>
       <c r="J61" s="3">
-        <v>96300</v>
+        <v>101400</v>
       </c>
       <c r="K61" s="3">
         <v>95500</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>346700</v>
+        <v>324700</v>
       </c>
       <c r="E62" s="3">
-        <v>338800</v>
+        <v>317500</v>
       </c>
       <c r="F62" s="3">
-        <v>240000</v>
+        <v>252600</v>
       </c>
       <c r="G62" s="3">
-        <v>232900</v>
+        <v>245200</v>
       </c>
       <c r="H62" s="3">
-        <v>252900</v>
+        <v>266200</v>
       </c>
       <c r="I62" s="3">
-        <v>218000</v>
+        <v>229400</v>
       </c>
       <c r="J62" s="3">
-        <v>232700</v>
+        <v>244900</v>
       </c>
       <c r="K62" s="3">
         <v>254100</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>999200</v>
+        <v>1051600</v>
       </c>
       <c r="E66" s="3">
-        <v>965000</v>
+        <v>1015700</v>
       </c>
       <c r="F66" s="3">
-        <v>851200</v>
+        <v>895900</v>
       </c>
       <c r="G66" s="3">
-        <v>941700</v>
+        <v>991100</v>
       </c>
       <c r="H66" s="3">
-        <v>834700</v>
+        <v>878600</v>
       </c>
       <c r="I66" s="3">
-        <v>783200</v>
+        <v>824300</v>
       </c>
       <c r="J66" s="3">
-        <v>735200</v>
+        <v>773800</v>
       </c>
       <c r="K66" s="3">
         <v>761200</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2598800</v>
+        <v>2735300</v>
       </c>
       <c r="E72" s="3">
-        <v>2548400</v>
+        <v>2682300</v>
       </c>
       <c r="F72" s="3">
-        <v>2442700</v>
+        <v>2571000</v>
       </c>
       <c r="G72" s="3">
-        <v>2332600</v>
+        <v>2455100</v>
       </c>
       <c r="H72" s="3">
-        <v>2296700</v>
+        <v>2417300</v>
       </c>
       <c r="I72" s="3">
-        <v>2279700</v>
+        <v>2399400</v>
       </c>
       <c r="J72" s="3">
-        <v>2225200</v>
+        <v>2342000</v>
       </c>
       <c r="K72" s="3">
         <v>2116300</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2732000</v>
+        <v>2875500</v>
       </c>
       <c r="E76" s="3">
-        <v>2682500</v>
+        <v>2823400</v>
       </c>
       <c r="F76" s="3">
-        <v>2576000</v>
+        <v>2711300</v>
       </c>
       <c r="G76" s="3">
-        <v>2475900</v>
+        <v>2605900</v>
       </c>
       <c r="H76" s="3">
-        <v>2441600</v>
+        <v>2569800</v>
       </c>
       <c r="I76" s="3">
-        <v>2411100</v>
+        <v>2537700</v>
       </c>
       <c r="J76" s="3">
-        <v>2365900</v>
+        <v>2490100</v>
       </c>
       <c r="K76" s="3">
         <v>2175400</v>
@@ -5908,26 +5908,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>160500</v>
       </c>
       <c r="F81" s="3">
-        <v>111700</v>
+        <v>117600</v>
       </c>
       <c r="G81" s="3">
-        <v>33400</v>
+        <v>34900</v>
       </c>
       <c r="H81" s="3">
-        <v>43700</v>
+        <v>46000</v>
       </c>
       <c r="I81" s="3">
-        <v>76500</v>
+        <v>80500</v>
       </c>
       <c r="J81" s="3">
-        <v>108800</v>
+        <v>114500</v>
       </c>
       <c r="K81" s="3">
         <v>49000</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25000</v>
+        <v>81700</v>
       </c>
       <c r="E83" s="3">
-        <v>24300</v>
+        <v>25600</v>
       </c>
       <c r="F83" s="3">
-        <v>28300</v>
+        <v>29800</v>
       </c>
       <c r="G83" s="3">
-        <v>23200</v>
+        <v>24500</v>
       </c>
       <c r="H83" s="3">
-        <v>23100</v>
+        <v>24400</v>
       </c>
       <c r="I83" s="3">
-        <v>22500</v>
+        <v>23700</v>
       </c>
       <c r="J83" s="3">
-        <v>24700</v>
+        <v>26000</v>
       </c>
       <c r="K83" s="3">
         <v>36700</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2700</v>
+        <v>143900</v>
       </c>
       <c r="E89" s="3">
-        <v>74900</v>
+        <v>78800</v>
       </c>
       <c r="F89" s="3">
-        <v>59200</v>
+        <v>62300</v>
       </c>
       <c r="G89" s="3">
-        <v>106900</v>
+        <v>112500</v>
       </c>
       <c r="H89" s="3">
-        <v>-8400</v>
+        <v>-8900</v>
       </c>
       <c r="I89" s="3">
-        <v>185300</v>
+        <v>195000</v>
       </c>
       <c r="J89" s="3">
-        <v>48300</v>
+        <v>50900</v>
       </c>
       <c r="K89" s="3">
         <v>121200</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-51500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-47400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-63600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-48900</v>
-      </c>
       <c r="I91" s="3">
-        <v>-38900</v>
+        <v>-40900</v>
       </c>
       <c r="J91" s="3">
-        <v>-28800</v>
+        <v>-30300</v>
       </c>
       <c r="K91" s="3">
         <v>-39000</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39700</v>
+        <v>-178500</v>
       </c>
       <c r="E94" s="3">
-        <v>-45900</v>
+        <v>-48400</v>
       </c>
       <c r="F94" s="3">
-        <v>-84000</v>
+        <v>-88400</v>
       </c>
       <c r="G94" s="3">
-        <v>-39000</v>
+        <v>-41100</v>
       </c>
       <c r="H94" s="3">
-        <v>-38700</v>
+        <v>-40700</v>
       </c>
       <c r="I94" s="3">
-        <v>-30300</v>
+        <v>-31900</v>
       </c>
       <c r="J94" s="3">
-        <v>-15400</v>
+        <v>-16300</v>
       </c>
       <c r="K94" s="3">
         <v>-91700</v>
@@ -6959,7 +6959,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28900</v>
+        <v>-53600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-22100</v>
+        <v>-23200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32500</v>
+        <v>19400</v>
       </c>
       <c r="E100" s="3">
-        <v>-7400</v>
+        <v>-7800</v>
       </c>
       <c r="F100" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="G100" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="H100" s="3">
-        <v>-26600</v>
+        <v>-28000</v>
       </c>
       <c r="I100" s="3">
-        <v>-66300</v>
+        <v>-69700</v>
       </c>
       <c r="J100" s="3">
-        <v>-6800</v>
+        <v>-7200</v>
       </c>
       <c r="K100" s="3">
         <v>-13200</v>
@@ -7359,25 +7359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K101" s="3">
         <v>-37000</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4600</v>
+        <v>-17200</v>
       </c>
       <c r="E102" s="3">
-        <v>18900</v>
+        <v>19900</v>
       </c>
       <c r="F102" s="3">
-        <v>-30700</v>
+        <v>-32300</v>
       </c>
       <c r="G102" s="3">
-        <v>52000</v>
+        <v>54800</v>
       </c>
       <c r="H102" s="3">
-        <v>-71100</v>
+        <v>-74800</v>
       </c>
       <c r="I102" s="3">
-        <v>86400</v>
+        <v>91000</v>
       </c>
       <c r="J102" s="3">
-        <v>28500</v>
+        <v>29900</v>
       </c>
       <c r="K102" s="3">
         <v>-20700</v>
